--- a/counties_towns.xlsx
+++ b/counties_towns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WesleyOke_apuylaw\Google Drive\Share\School\Waterloo\Statistics\ds2_project\election_2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197F242D-1E7E-4E7D-BD67-C5CDC9922207}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1B9B73-8E97-46AB-A129-13670D3CE0C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16900" yWindow="2510" windowWidth="19960" windowHeight="12700" xr2:uid="{1CE7BFA9-C5EC-4750-BE10-2D699AFF6846}"/>
+    <workbookView xWindow="16900" yWindow="2510" windowWidth="19960" windowHeight="12700" activeTab="2" xr2:uid="{1CE7BFA9-C5EC-4750-BE10-2D699AFF6846}"/>
   </bookViews>
   <sheets>
     <sheet name="MA" sheetId="4" r:id="rId1"/>
@@ -2771,7 +2771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82465A7E-56F4-4792-BE17-D4693778CED2}">
   <dimension ref="A1:B352"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5605,693 +5605,693 @@
   <dimension ref="A1:B235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" t="s">
         <v>239</v>
-      </c>
-      <c r="B1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" t="s">
         <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" t="s">
         <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" t="s">
         <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" t="s">
         <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12" t="s">
         <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" t="s">
         <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" t="s">
         <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" t="s">
         <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" t="s">
         <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" t="s">
         <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" t="s">
         <v>30</v>
-      </c>
-      <c r="B19" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" t="s">
         <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" t="s">
         <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" t="s">
         <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B23" t="s">
         <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B24" t="s">
         <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>214</v>
+      </c>
+      <c r="B25" t="s">
         <v>12</v>
-      </c>
-      <c r="B25" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>213</v>
+      </c>
+      <c r="B26" t="s">
         <v>12</v>
-      </c>
-      <c r="B26" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" t="s">
         <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" t="s">
         <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>210</v>
+      </c>
+      <c r="B29" t="s">
         <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>209</v>
+      </c>
+      <c r="B30" t="s">
         <v>3</v>
-      </c>
-      <c r="B30" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>208</v>
+      </c>
+      <c r="B31" t="s">
         <v>5</v>
-      </c>
-      <c r="B31" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>207</v>
+      </c>
+      <c r="B32" t="s">
         <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B33" t="s">
         <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B34" t="s">
         <v>7</v>
-      </c>
-      <c r="B34" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" t="s">
         <v>12</v>
-      </c>
-      <c r="B35" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
         <v>14</v>
-      </c>
-      <c r="B36" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>203</v>
+      </c>
+      <c r="B37" t="s">
         <v>30</v>
-      </c>
-      <c r="B37" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>202</v>
+      </c>
+      <c r="B38" t="s">
         <v>21</v>
-      </c>
-      <c r="B38" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>201</v>
+      </c>
+      <c r="B39" t="s">
         <v>3</v>
-      </c>
-      <c r="B39" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40" t="s">
         <v>7</v>
-      </c>
-      <c r="B40" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>199</v>
+      </c>
+      <c r="B41" t="s">
         <v>9</v>
-      </c>
-      <c r="B41" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" t="s">
         <v>12</v>
-      </c>
-      <c r="B42" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>197</v>
+      </c>
+      <c r="B43" t="s">
         <v>21</v>
-      </c>
-      <c r="B43" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>196</v>
+      </c>
+      <c r="B44" t="s">
         <v>14</v>
-      </c>
-      <c r="B44" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45" t="s">
         <v>14</v>
-      </c>
-      <c r="B45" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46" t="s">
         <v>14</v>
-      </c>
-      <c r="B46" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>193</v>
+      </c>
+      <c r="B47" t="s">
         <v>12</v>
-      </c>
-      <c r="B47" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B48" t="s">
         <v>3</v>
-      </c>
-      <c r="B48" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>191</v>
+      </c>
+      <c r="B49" t="s">
         <v>21</v>
-      </c>
-      <c r="B49" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>190</v>
+      </c>
+      <c r="B50" t="s">
         <v>21</v>
-      </c>
-      <c r="B50" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51" t="s">
         <v>14</v>
-      </c>
-      <c r="B51" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>188</v>
+      </c>
+      <c r="B52" t="s">
         <v>12</v>
-      </c>
-      <c r="B52" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" t="s">
         <v>7</v>
-      </c>
-      <c r="B53" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>186</v>
+      </c>
+      <c r="B54" t="s">
         <v>7</v>
-      </c>
-      <c r="B54" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>185</v>
+      </c>
+      <c r="B55" t="s">
         <v>5</v>
-      </c>
-      <c r="B55" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>184</v>
+      </c>
+      <c r="B56" t="s">
         <v>7</v>
-      </c>
-      <c r="B56" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" t="s">
         <v>1</v>
-      </c>
-      <c r="B57" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>182</v>
+      </c>
+      <c r="B58" t="s">
         <v>41</v>
-      </c>
-      <c r="B58" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" t="s">
         <v>9</v>
-      </c>
-      <c r="B59" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>180</v>
+      </c>
+      <c r="B60" t="s">
         <v>14</v>
-      </c>
-      <c r="B60" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" t="s">
         <v>12</v>
-      </c>
-      <c r="B61" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" t="s">
         <v>41</v>
-      </c>
-      <c r="B62" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>177</v>
+      </c>
+      <c r="B63" t="s">
         <v>7</v>
-      </c>
-      <c r="B63" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>176</v>
+      </c>
+      <c r="B64" t="s">
         <v>1</v>
-      </c>
-      <c r="B64" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>175</v>
+      </c>
+      <c r="B65" t="s">
         <v>3</v>
-      </c>
-      <c r="B65" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" t="s">
         <v>3</v>
-      </c>
-      <c r="B66" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>173</v>
+      </c>
+      <c r="B67" t="s">
         <v>1</v>
-      </c>
-      <c r="B67" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>172</v>
+      </c>
+      <c r="B68" t="s">
         <v>1</v>
-      </c>
-      <c r="B68" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
+        <v>171</v>
+      </c>
+      <c r="B69" t="s">
         <v>7</v>
-      </c>
-      <c r="B69" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" t="s">
         <v>12</v>
-      </c>
-      <c r="B70" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>169</v>
+      </c>
+      <c r="B71" t="s">
         <v>14</v>
-      </c>
-      <c r="B71" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>168</v>
+      </c>
+      <c r="B72" t="s">
         <v>7</v>
-      </c>
-      <c r="B72" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" t="s">
         <v>41</v>
-      </c>
-      <c r="B73" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>166</v>
+      </c>
+      <c r="B74" t="s">
         <v>9</v>
-      </c>
-      <c r="B74" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>165</v>
+      </c>
+      <c r="B75" t="s">
         <v>5</v>
-      </c>
-      <c r="B75" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>164</v>
+      </c>
+      <c r="B76" t="s">
         <v>1</v>
-      </c>
-      <c r="B76" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" t="s">
         <v>12</v>
-      </c>
-      <c r="B77" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
+        <v>162</v>
+      </c>
+      <c r="B78" t="s">
         <v>3</v>
-      </c>
-      <c r="B78" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
+        <v>161</v>
+      </c>
+      <c r="B79" t="s">
         <v>7</v>
-      </c>
-      <c r="B79" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
         <v>30</v>
-      </c>
-      <c r="B80" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" t="s">
         <v>30</v>
-      </c>
-      <c r="B81" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" t="s">
         <v>9</v>
-      </c>
-      <c r="B82" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" t="s">
         <v>5</v>
-      </c>
-      <c r="B83" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>156</v>
+      </c>
+      <c r="B84" t="s">
         <v>14</v>
-      </c>
-      <c r="B84" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
+        <v>155</v>
+      </c>
+      <c r="B85" t="s">
         <v>21</v>
-      </c>
-      <c r="B85" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -6304,130 +6304,130 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" t="s">
         <v>21</v>
-      </c>
-      <c r="B87" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
+        <v>153</v>
+      </c>
+      <c r="B88" t="s">
         <v>5</v>
-      </c>
-      <c r="B88" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
+        <v>152</v>
+      </c>
+      <c r="B89" t="s">
         <v>7</v>
-      </c>
-      <c r="B89" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
+        <v>151</v>
+      </c>
+      <c r="B90" t="s">
         <v>5</v>
-      </c>
-      <c r="B90" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
+        <v>150</v>
+      </c>
+      <c r="B91" t="s">
         <v>1</v>
-      </c>
-      <c r="B91" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
+        <v>149</v>
+      </c>
+      <c r="B92" t="s">
         <v>7</v>
-      </c>
-      <c r="B92" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
+        <v>148</v>
+      </c>
+      <c r="B93" t="s">
         <v>7</v>
-      </c>
-      <c r="B93" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
+        <v>147</v>
+      </c>
+      <c r="B94" t="s">
         <v>7</v>
-      </c>
-      <c r="B94" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
+        <v>146</v>
+      </c>
+      <c r="B95" t="s">
         <v>5</v>
-      </c>
-      <c r="B95" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
+        <v>145</v>
+      </c>
+      <c r="B96" t="s">
         <v>1</v>
-      </c>
-      <c r="B96" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
+        <v>144</v>
+      </c>
+      <c r="B97" t="s">
         <v>9</v>
-      </c>
-      <c r="B97" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
+        <v>143</v>
+      </c>
+      <c r="B98" t="s">
         <v>3</v>
-      </c>
-      <c r="B98" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>142</v>
+      </c>
+      <c r="B99" t="s">
         <v>1</v>
-      </c>
-      <c r="B99" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
+        <v>141</v>
+      </c>
+      <c r="B100" t="s">
         <v>1</v>
-      </c>
-      <c r="B100" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
+        <v>140</v>
+      </c>
+      <c r="B101" t="s">
         <v>12</v>
-      </c>
-      <c r="B101" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
+        <v>139</v>
+      </c>
+      <c r="B102" t="s">
         <v>12</v>
-      </c>
-      <c r="B102" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -6440,786 +6440,786 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
+        <v>138</v>
+      </c>
+      <c r="B104" t="s">
         <v>9</v>
-      </c>
-      <c r="B104" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
+        <v>137</v>
+      </c>
+      <c r="B105" t="s">
         <v>1</v>
-      </c>
-      <c r="B105" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
+        <v>136</v>
+      </c>
+      <c r="B106" t="s">
         <v>5</v>
-      </c>
-      <c r="B106" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
+        <v>135</v>
+      </c>
+      <c r="B107" t="s">
         <v>12</v>
-      </c>
-      <c r="B107" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
+        <v>134</v>
+      </c>
+      <c r="B108" t="s">
         <v>12</v>
-      </c>
-      <c r="B108" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
+        <v>133</v>
+      </c>
+      <c r="B109" t="s">
         <v>5</v>
-      </c>
-      <c r="B109" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
+        <v>132</v>
+      </c>
+      <c r="B110" t="s">
         <v>3</v>
-      </c>
-      <c r="B110" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
+        <v>131</v>
+      </c>
+      <c r="B111" t="s">
         <v>9</v>
-      </c>
-      <c r="B111" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
+        <v>130</v>
+      </c>
+      <c r="B112" t="s">
         <v>14</v>
-      </c>
-      <c r="B112" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
+        <v>129</v>
+      </c>
+      <c r="B113" t="s">
         <v>9</v>
-      </c>
-      <c r="B113" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
+        <v>128</v>
+      </c>
+      <c r="B114" t="s">
         <v>7</v>
-      </c>
-      <c r="B114" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
+        <v>127</v>
+      </c>
+      <c r="B115" t="s">
         <v>7</v>
-      </c>
-      <c r="B115" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
+        <v>126</v>
+      </c>
+      <c r="B116" t="s">
         <v>30</v>
-      </c>
-      <c r="B116" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
+        <v>125</v>
+      </c>
+      <c r="B117" t="s">
         <v>14</v>
-      </c>
-      <c r="B117" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" t="s">
         <v>1</v>
-      </c>
-      <c r="B118" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" t="s">
         <v>21</v>
-      </c>
-      <c r="B119" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" t="s">
         <v>1</v>
-      </c>
-      <c r="B120" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" t="s">
         <v>41</v>
-      </c>
-      <c r="B121" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
         <v>21</v>
-      </c>
-      <c r="B122" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
+        <v>119</v>
+      </c>
+      <c r="B123" t="s">
         <v>1</v>
-      </c>
-      <c r="B123" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
+        <v>118</v>
+      </c>
+      <c r="B124" t="s">
         <v>1</v>
-      </c>
-      <c r="B124" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
+        <v>117</v>
+      </c>
+      <c r="B125" t="s">
         <v>5</v>
-      </c>
-      <c r="B125" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
+        <v>116</v>
+      </c>
+      <c r="B126" t="s">
         <v>1</v>
-      </c>
-      <c r="B126" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
+        <v>115</v>
+      </c>
+      <c r="B127" t="s">
         <v>7</v>
-      </c>
-      <c r="B127" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
+        <v>114</v>
+      </c>
+      <c r="B128" t="s">
         <v>12</v>
-      </c>
-      <c r="B128" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
+        <v>113</v>
+      </c>
+      <c r="B129" t="s">
         <v>1</v>
-      </c>
-      <c r="B129" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
+        <v>112</v>
+      </c>
+      <c r="B130" t="s">
         <v>1</v>
-      </c>
-      <c r="B130" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
+        <v>111</v>
+      </c>
+      <c r="B131" t="s">
         <v>5</v>
-      </c>
-      <c r="B131" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
+        <v>110</v>
+      </c>
+      <c r="B132" t="s">
         <v>41</v>
-      </c>
-      <c r="B132" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
+        <v>109</v>
+      </c>
+      <c r="B133" t="s">
         <v>3</v>
-      </c>
-      <c r="B133" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
+        <v>108</v>
+      </c>
+      <c r="B134" t="s">
         <v>5</v>
-      </c>
-      <c r="B134" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
+        <v>107</v>
+      </c>
+      <c r="B135" t="s">
         <v>9</v>
-      </c>
-      <c r="B135" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
+        <v>106</v>
+      </c>
+      <c r="B136" t="s">
         <v>9</v>
-      </c>
-      <c r="B136" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
+        <v>105</v>
+      </c>
+      <c r="B137" t="s">
         <v>5</v>
-      </c>
-      <c r="B137" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
+        <v>104</v>
+      </c>
+      <c r="B138" t="s">
         <v>30</v>
-      </c>
-      <c r="B138" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" t="s">
         <v>5</v>
-      </c>
-      <c r="B139" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
+        <v>103</v>
+      </c>
+      <c r="B140" t="s">
         <v>41</v>
-      </c>
-      <c r="B140" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
+        <v>102</v>
+      </c>
+      <c r="B141" t="s">
         <v>14</v>
-      </c>
-      <c r="B141" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
+        <v>101</v>
+      </c>
+      <c r="B142" t="s">
         <v>5</v>
-      </c>
-      <c r="B142" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
+        <v>100</v>
+      </c>
+      <c r="B143" t="s">
         <v>41</v>
-      </c>
-      <c r="B143" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
+        <v>99</v>
+      </c>
+      <c r="B144" t="s">
         <v>1</v>
-      </c>
-      <c r="B144" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
+        <v>98</v>
+      </c>
+      <c r="B145" t="s">
         <v>5</v>
-      </c>
-      <c r="B145" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
+        <v>97</v>
+      </c>
+      <c r="B146" t="s">
         <v>3</v>
-      </c>
-      <c r="B146" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
+        <v>96</v>
+      </c>
+      <c r="B147" t="s">
         <v>5</v>
-      </c>
-      <c r="B147" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
+        <v>95</v>
+      </c>
+      <c r="B148" t="s">
         <v>9</v>
-      </c>
-      <c r="B148" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
+        <v>94</v>
+      </c>
+      <c r="B149" t="s">
         <v>5</v>
-      </c>
-      <c r="B149" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
+        <v>93</v>
+      </c>
+      <c r="B150" t="s">
         <v>7</v>
-      </c>
-      <c r="B150" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
+        <v>92</v>
+      </c>
+      <c r="B151" t="s">
         <v>41</v>
-      </c>
-      <c r="B151" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
+        <v>91</v>
+      </c>
+      <c r="B152" t="s">
         <v>30</v>
-      </c>
-      <c r="B152" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
+        <v>90</v>
+      </c>
+      <c r="B153" t="s">
         <v>5</v>
-      </c>
-      <c r="B153" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
+        <v>89</v>
+      </c>
+      <c r="B154" t="s">
         <v>12</v>
-      </c>
-      <c r="B154" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
+        <v>88</v>
+      </c>
+      <c r="B155" t="s">
         <v>12</v>
-      </c>
-      <c r="B155" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
+        <v>87</v>
+      </c>
+      <c r="B156" t="s">
         <v>7</v>
-      </c>
-      <c r="B156" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
+        <v>86</v>
+      </c>
+      <c r="B157" t="s">
         <v>7</v>
-      </c>
-      <c r="B157" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
+        <v>85</v>
+      </c>
+      <c r="B158" t="s">
         <v>7</v>
-      </c>
-      <c r="B158" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
+        <v>84</v>
+      </c>
+      <c r="B159" t="s">
         <v>21</v>
-      </c>
-      <c r="B159" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
+        <v>83</v>
+      </c>
+      <c r="B160" t="s">
         <v>7</v>
-      </c>
-      <c r="B160" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
+        <v>82</v>
+      </c>
+      <c r="B161" t="s">
         <v>7</v>
-      </c>
-      <c r="B161" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
+        <v>81</v>
+      </c>
+      <c r="B162" t="s">
         <v>12</v>
-      </c>
-      <c r="B162" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
+        <v>80</v>
+      </c>
+      <c r="B163" t="s">
         <v>14</v>
-      </c>
-      <c r="B163" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
+        <v>79</v>
+      </c>
+      <c r="B164" t="s">
         <v>7</v>
-      </c>
-      <c r="B164" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
+        <v>78</v>
+      </c>
+      <c r="B165" t="s">
         <v>7</v>
-      </c>
-      <c r="B165" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
+        <v>77</v>
+      </c>
+      <c r="B166" t="s">
         <v>1</v>
-      </c>
-      <c r="B166" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
+        <v>76</v>
+      </c>
+      <c r="B167" t="s">
         <v>1</v>
-      </c>
-      <c r="B167" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
+        <v>75</v>
+      </c>
+      <c r="B168" t="s">
         <v>3</v>
-      </c>
-      <c r="B168" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
+        <v>74</v>
+      </c>
+      <c r="B169" t="s">
         <v>5</v>
-      </c>
-      <c r="B169" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
+        <v>73</v>
+      </c>
+      <c r="B170" t="s">
         <v>12</v>
-      </c>
-      <c r="B170" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
+        <v>72</v>
+      </c>
+      <c r="B171" t="s">
         <v>5</v>
-      </c>
-      <c r="B171" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
+        <v>71</v>
+      </c>
+      <c r="B172" t="s">
         <v>1</v>
-      </c>
-      <c r="B172" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
+        <v>70</v>
+      </c>
+      <c r="B173" t="s">
         <v>14</v>
-      </c>
-      <c r="B173" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
+        <v>69</v>
+      </c>
+      <c r="B174" t="s">
         <v>12</v>
-      </c>
-      <c r="B174" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
+        <v>68</v>
+      </c>
+      <c r="B175" t="s">
         <v>21</v>
-      </c>
-      <c r="B175" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
+        <v>67</v>
+      </c>
+      <c r="B176" t="s">
         <v>7</v>
-      </c>
-      <c r="B176" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
+        <v>66</v>
+      </c>
+      <c r="B177" t="s">
         <v>1</v>
-      </c>
-      <c r="B177" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
+        <v>65</v>
+      </c>
+      <c r="B178" t="s">
         <v>7</v>
-      </c>
-      <c r="B178" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
+        <v>64</v>
+      </c>
+      <c r="B179" t="s">
         <v>14</v>
-      </c>
-      <c r="B179" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
+        <v>63</v>
+      </c>
+      <c r="B180" t="s">
         <v>7</v>
-      </c>
-      <c r="B180" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
+        <v>62</v>
+      </c>
+      <c r="B181" t="s">
         <v>9</v>
-      </c>
-      <c r="B181" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
+        <v>61</v>
+      </c>
+      <c r="B182" t="s">
         <v>9</v>
-      </c>
-      <c r="B182" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
+        <v>60</v>
+      </c>
+      <c r="B183" t="s">
         <v>41</v>
-      </c>
-      <c r="B183" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
+        <v>59</v>
+      </c>
+      <c r="B184" t="s">
         <v>41</v>
-      </c>
-      <c r="B184" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
+        <v>58</v>
+      </c>
+      <c r="B185" t="s">
         <v>9</v>
-      </c>
-      <c r="B185" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
+        <v>57</v>
+      </c>
+      <c r="B186" t="s">
         <v>1</v>
-      </c>
-      <c r="B186" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
+        <v>56</v>
+      </c>
+      <c r="B187" t="s">
         <v>7</v>
-      </c>
-      <c r="B187" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
+        <v>55</v>
+      </c>
+      <c r="B188" t="s">
         <v>7</v>
-      </c>
-      <c r="B188" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
+        <v>54</v>
+      </c>
+      <c r="B189" t="s">
         <v>12</v>
-      </c>
-      <c r="B189" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
+        <v>53</v>
+      </c>
+      <c r="B190" t="s">
         <v>30</v>
-      </c>
-      <c r="B190" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
+        <v>52</v>
+      </c>
+      <c r="B191" t="s">
         <v>7</v>
-      </c>
-      <c r="B191" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
+        <v>51</v>
+      </c>
+      <c r="B192" t="s">
         <v>3</v>
-      </c>
-      <c r="B192" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
+        <v>50</v>
+      </c>
+      <c r="B193" t="s">
         <v>7</v>
-      </c>
-      <c r="B193" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
+        <v>49</v>
+      </c>
+      <c r="B194" t="s">
         <v>5</v>
-      </c>
-      <c r="B194" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
+        <v>48</v>
+      </c>
+      <c r="B195" t="s">
         <v>14</v>
-      </c>
-      <c r="B195" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
+        <v>47</v>
+      </c>
+      <c r="B196" t="s">
         <v>41</v>
-      </c>
-      <c r="B196" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
+        <v>46</v>
+      </c>
+      <c r="B197" t="s">
         <v>7</v>
-      </c>
-      <c r="B197" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
+        <v>45</v>
+      </c>
+      <c r="B198" t="s">
         <v>21</v>
-      </c>
-      <c r="B198" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
+        <v>44</v>
+      </c>
+      <c r="B199" t="s">
         <v>14</v>
-      </c>
-      <c r="B199" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
+        <v>43</v>
+      </c>
+      <c r="B200" t="s">
         <v>14</v>
-      </c>
-      <c r="B200" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
+        <v>42</v>
+      </c>
+      <c r="B201" t="s">
         <v>9</v>
-      </c>
-      <c r="B201" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
@@ -7232,266 +7232,266 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
+        <v>40</v>
+      </c>
+      <c r="B203" t="s">
         <v>14</v>
-      </c>
-      <c r="B203" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
+        <v>39</v>
+      </c>
+      <c r="B204" t="s">
         <v>7</v>
-      </c>
-      <c r="B204" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
+        <v>38</v>
+      </c>
+      <c r="B205" t="s">
         <v>1</v>
-      </c>
-      <c r="B205" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
+        <v>21</v>
+      </c>
+      <c r="B206" t="s">
         <v>9</v>
-      </c>
-      <c r="B206" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
+        <v>37</v>
+      </c>
+      <c r="B207" t="s">
         <v>21</v>
-      </c>
-      <c r="B207" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
+        <v>36</v>
+      </c>
+      <c r="B208" t="s">
         <v>9</v>
-      </c>
-      <c r="B208" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
+        <v>35</v>
+      </c>
+      <c r="B209" t="s">
         <v>12</v>
-      </c>
-      <c r="B209" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
+        <v>34</v>
+      </c>
+      <c r="B210" t="s">
         <v>9</v>
-      </c>
-      <c r="B210" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
+        <v>33</v>
+      </c>
+      <c r="B211" t="s">
         <v>3</v>
-      </c>
-      <c r="B211" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
+        <v>32</v>
+      </c>
+      <c r="B212" t="s">
         <v>5</v>
-      </c>
-      <c r="B212" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
+        <v>31</v>
+      </c>
+      <c r="B213" t="s">
         <v>1</v>
-      </c>
-      <c r="B213" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
+        <v>29</v>
+      </c>
+      <c r="B214" t="s">
         <v>30</v>
-      </c>
-      <c r="B214" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
+        <v>28</v>
+      </c>
+      <c r="B215" t="s">
         <v>9</v>
-      </c>
-      <c r="B215" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
+        <v>27</v>
+      </c>
+      <c r="B216" t="s">
         <v>3</v>
-      </c>
-      <c r="B216" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
+        <v>26</v>
+      </c>
+      <c r="B217" t="s">
         <v>21</v>
-      </c>
-      <c r="B217" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
+        <v>25</v>
+      </c>
+      <c r="B218" t="s">
         <v>3</v>
-      </c>
-      <c r="B218" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
+        <v>24</v>
+      </c>
+      <c r="B219" t="s">
         <v>9</v>
-      </c>
-      <c r="B219" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
+        <v>23</v>
+      </c>
+      <c r="B220" t="s">
         <v>12</v>
-      </c>
-      <c r="B220" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
+        <v>22</v>
+      </c>
+      <c r="B221" t="s">
         <v>1</v>
-      </c>
-      <c r="B221" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
+        <v>20</v>
+      </c>
+      <c r="B222" t="s">
         <v>21</v>
-      </c>
-      <c r="B222" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
+        <v>19</v>
+      </c>
+      <c r="B223" t="s">
         <v>1</v>
-      </c>
-      <c r="B223" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
+        <v>18</v>
+      </c>
+      <c r="B224" t="s">
         <v>5</v>
-      </c>
-      <c r="B224" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
+        <v>17</v>
+      </c>
+      <c r="B225" t="s">
         <v>12</v>
-      </c>
-      <c r="B225" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
+        <v>16</v>
+      </c>
+      <c r="B226" t="s">
         <v>1</v>
-      </c>
-      <c r="B226" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
+        <v>15</v>
+      </c>
+      <c r="B227" t="s">
         <v>9</v>
-      </c>
-      <c r="B227" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
+        <v>13</v>
+      </c>
+      <c r="B228" t="s">
         <v>14</v>
-      </c>
-      <c r="B228" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
+        <v>11</v>
+      </c>
+      <c r="B229" t="s">
         <v>12</v>
-      </c>
-      <c r="B229" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
+        <v>10</v>
+      </c>
+      <c r="B230" t="s">
         <v>5</v>
-      </c>
-      <c r="B230" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
+        <v>8</v>
+      </c>
+      <c r="B231" t="s">
         <v>9</v>
-      </c>
-      <c r="B231" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
+        <v>6</v>
+      </c>
+      <c r="B232" t="s">
         <v>7</v>
-      </c>
-      <c r="B232" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
+        <v>4</v>
+      </c>
+      <c r="B233" t="s">
         <v>5</v>
-      </c>
-      <c r="B233" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
+        <v>2</v>
+      </c>
+      <c r="B234" t="s">
         <v>3</v>
-      </c>
-      <c r="B234" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
+        <v>0</v>
+      </c>
+      <c r="B235" t="s">
         <v>1</v>
-      </c>
-      <c r="B235" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7503,7 +7503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A8DCE4-66C8-493B-8FD5-7B82DB4224C4}">
   <dimension ref="A1:B247"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/counties_towns.xlsx
+++ b/counties_towns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WesleyOke_apuylaw\Google Drive\Share\School\Waterloo\Statistics\ds2_project\election_2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1B9B73-8E97-46AB-A129-13670D3CE0C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2E453E-9306-49CF-9016-C56831FC8791}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16900" yWindow="2510" windowWidth="19960" windowHeight="12700" activeTab="2" xr2:uid="{1CE7BFA9-C5EC-4750-BE10-2D699AFF6846}"/>
+    <workbookView xWindow="16900" yWindow="2510" windowWidth="19960" windowHeight="12700" activeTab="1" xr2:uid="{1CE7BFA9-C5EC-4750-BE10-2D699AFF6846}"/>
   </bookViews>
   <sheets>
     <sheet name="MA" sheetId="4" r:id="rId1"/>
@@ -5604,14 +5604,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF005B98-571D-441D-9D78-6945E23FD06D}">
   <dimension ref="A1:B235"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -5624,674 +5624,674 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>237</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>236</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>235</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>234</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>233</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
         <v>232</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>231</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>230</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
         <v>229</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
         <v>228</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
         <v>227</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
         <v>226</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
         <v>225</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
         <v>224</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
         <v>223</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
         <v>222</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
         <v>221</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
         <v>220</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
         <v>219</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
         <v>218</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
         <v>217</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
         <v>216</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
         <v>215</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
         <v>214</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
         <v>213</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
         <v>212</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
         <v>211</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
         <v>210</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
         <v>209</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
         <v>208</v>
-      </c>
-      <c r="B31" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
         <v>207</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
         <v>206</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
         <v>205</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
         <v>204</v>
-      </c>
-      <c r="B35" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
         <v>3</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
         <v>203</v>
-      </c>
-      <c r="B37" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
         <v>202</v>
-      </c>
-      <c r="B38" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
         <v>201</v>
-      </c>
-      <c r="B39" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
         <v>200</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
         <v>199</v>
-      </c>
-      <c r="B41" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
         <v>198</v>
-      </c>
-      <c r="B42" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
         <v>197</v>
-      </c>
-      <c r="B43" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
         <v>196</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
         <v>195</v>
-      </c>
-      <c r="B45" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
         <v>194</v>
-      </c>
-      <c r="B46" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
         <v>193</v>
-      </c>
-      <c r="B47" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
         <v>192</v>
-      </c>
-      <c r="B48" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
         <v>191</v>
-      </c>
-      <c r="B49" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
         <v>190</v>
-      </c>
-      <c r="B50" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
         <v>189</v>
-      </c>
-      <c r="B51" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
         <v>188</v>
-      </c>
-      <c r="B52" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
         <v>187</v>
-      </c>
-      <c r="B53" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
         <v>186</v>
-      </c>
-      <c r="B54" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
         <v>185</v>
-      </c>
-      <c r="B55" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
         <v>184</v>
-      </c>
-      <c r="B56" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
         <v>183</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" t="s">
         <v>182</v>
-      </c>
-      <c r="B58" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
         <v>181</v>
-      </c>
-      <c r="B59" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
         <v>180</v>
-      </c>
-      <c r="B60" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
         <v>179</v>
-      </c>
-      <c r="B61" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" t="s">
         <v>178</v>
-      </c>
-      <c r="B62" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
         <v>177</v>
-      </c>
-      <c r="B63" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
         <v>176</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
         <v>175</v>
-      </c>
-      <c r="B65" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
         <v>174</v>
-      </c>
-      <c r="B66" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
         <v>173</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
         <v>172</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
         <v>171</v>
-      </c>
-      <c r="B69" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" t="s">
         <v>170</v>
-      </c>
-      <c r="B70" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
         <v>169</v>
-      </c>
-      <c r="B71" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
         <v>168</v>
-      </c>
-      <c r="B72" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" t="s">
         <v>167</v>
-      </c>
-      <c r="B73" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" t="s">
         <v>166</v>
-      </c>
-      <c r="B74" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
         <v>165</v>
-      </c>
-      <c r="B75" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
         <v>164</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" t="s">
         <v>163</v>
-      </c>
-      <c r="B77" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
         <v>162</v>
-      </c>
-      <c r="B78" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
         <v>161</v>
-      </c>
-      <c r="B79" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>30</v>
+      </c>
+      <c r="B80" t="s">
         <v>160</v>
-      </c>
-      <c r="B80" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81" t="s">
         <v>159</v>
-      </c>
-      <c r="B81" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" t="s">
         <v>158</v>
-      </c>
-      <c r="B82" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
         <v>157</v>
-      </c>
-      <c r="B83" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" t="s">
         <v>156</v>
-      </c>
-      <c r="B84" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" t="s">
         <v>155</v>
-      </c>
-      <c r="B85" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -6304,130 +6304,130 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" t="s">
         <v>154</v>
-      </c>
-      <c r="B87" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
         <v>153</v>
-      </c>
-      <c r="B88" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" t="s">
         <v>152</v>
-      </c>
-      <c r="B89" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
         <v>151</v>
-      </c>
-      <c r="B90" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
         <v>150</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
         <v>149</v>
-      </c>
-      <c r="B92" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s">
         <v>148</v>
-      </c>
-      <c r="B93" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s">
         <v>147</v>
-      </c>
-      <c r="B94" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" t="s">
         <v>146</v>
-      </c>
-      <c r="B95" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
         <v>145</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" t="s">
         <v>144</v>
-      </c>
-      <c r="B97" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" t="s">
         <v>143</v>
-      </c>
-      <c r="B98" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
         <v>142</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" t="s">
         <v>141</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" t="s">
         <v>140</v>
-      </c>
-      <c r="B101" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" t="s">
         <v>139</v>
-      </c>
-      <c r="B102" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -6440,786 +6440,786 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
         <v>138</v>
-      </c>
-      <c r="B104" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105" t="s">
         <v>137</v>
-      </c>
-      <c r="B105" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" t="s">
         <v>136</v>
-      </c>
-      <c r="B106" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" t="s">
         <v>135</v>
-      </c>
-      <c r="B107" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" t="s">
         <v>134</v>
-      </c>
-      <c r="B108" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" t="s">
         <v>133</v>
-      </c>
-      <c r="B109" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" t="s">
         <v>132</v>
-      </c>
-      <c r="B110" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
         <v>131</v>
-      </c>
-      <c r="B111" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" t="s">
         <v>130</v>
-      </c>
-      <c r="B112" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" t="s">
         <v>129</v>
-      </c>
-      <c r="B113" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" t="s">
         <v>128</v>
-      </c>
-      <c r="B114" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" t="s">
         <v>127</v>
-      </c>
-      <c r="B115" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
+        <v>30</v>
+      </c>
+      <c r="B116" t="s">
         <v>126</v>
-      </c>
-      <c r="B116" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" t="s">
         <v>125</v>
-      </c>
-      <c r="B117" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" t="s">
         <v>124</v>
-      </c>
-      <c r="B118" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" t="s">
         <v>123</v>
-      </c>
-      <c r="B119" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120" t="s">
         <v>122</v>
-      </c>
-      <c r="B120" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
+        <v>41</v>
+      </c>
+      <c r="B121" t="s">
         <v>121</v>
-      </c>
-      <c r="B121" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
+        <v>21</v>
+      </c>
+      <c r="B122" t="s">
         <v>120</v>
-      </c>
-      <c r="B122" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" t="s">
         <v>119</v>
-      </c>
-      <c r="B123" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124" t="s">
         <v>118</v>
-      </c>
-      <c r="B124" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
         <v>117</v>
-      </c>
-      <c r="B125" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
+        <v>1</v>
+      </c>
+      <c r="B126" t="s">
         <v>116</v>
-      </c>
-      <c r="B126" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" t="s">
         <v>115</v>
-      </c>
-      <c r="B127" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" t="s">
         <v>114</v>
-      </c>
-      <c r="B128" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129" t="s">
         <v>113</v>
-      </c>
-      <c r="B129" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" t="s">
         <v>112</v>
-      </c>
-      <c r="B130" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" t="s">
         <v>111</v>
-      </c>
-      <c r="B131" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
+        <v>41</v>
+      </c>
+      <c r="B132" t="s">
         <v>110</v>
-      </c>
-      <c r="B132" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" t="s">
         <v>109</v>
-      </c>
-      <c r="B133" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" t="s">
         <v>108</v>
-      </c>
-      <c r="B134" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" t="s">
         <v>107</v>
-      </c>
-      <c r="B135" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" t="s">
         <v>106</v>
-      </c>
-      <c r="B136" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" t="s">
         <v>105</v>
-      </c>
-      <c r="B137" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
+        <v>30</v>
+      </c>
+      <c r="B138" t="s">
         <v>104</v>
-      </c>
-      <c r="B138" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
         <v>12</v>
-      </c>
-      <c r="B139" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
+        <v>41</v>
+      </c>
+      <c r="B140" t="s">
         <v>103</v>
-      </c>
-      <c r="B140" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
+        <v>14</v>
+      </c>
+      <c r="B141" t="s">
         <v>102</v>
-      </c>
-      <c r="B141" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" t="s">
         <v>101</v>
-      </c>
-      <c r="B142" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
+        <v>41</v>
+      </c>
+      <c r="B143" t="s">
         <v>100</v>
-      </c>
-      <c r="B143" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
+        <v>1</v>
+      </c>
+      <c r="B144" t="s">
         <v>99</v>
-      </c>
-      <c r="B144" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" t="s">
         <v>98</v>
-      </c>
-      <c r="B145" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146" t="s">
         <v>97</v>
-      </c>
-      <c r="B146" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" t="s">
         <v>96</v>
-      </c>
-      <c r="B147" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" t="s">
         <v>95</v>
-      </c>
-      <c r="B148" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" t="s">
         <v>94</v>
-      </c>
-      <c r="B149" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150" t="s">
         <v>93</v>
-      </c>
-      <c r="B150" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
+        <v>41</v>
+      </c>
+      <c r="B151" t="s">
         <v>92</v>
-      </c>
-      <c r="B151" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
+        <v>30</v>
+      </c>
+      <c r="B152" t="s">
         <v>91</v>
-      </c>
-      <c r="B152" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" t="s">
         <v>90</v>
-      </c>
-      <c r="B153" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" t="s">
         <v>89</v>
-      </c>
-      <c r="B154" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" t="s">
         <v>88</v>
-      </c>
-      <c r="B155" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" t="s">
         <v>87</v>
-      </c>
-      <c r="B156" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157" t="s">
         <v>86</v>
-      </c>
-      <c r="B157" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
+        <v>7</v>
+      </c>
+      <c r="B158" t="s">
         <v>85</v>
-      </c>
-      <c r="B158" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
+        <v>21</v>
+      </c>
+      <c r="B159" t="s">
         <v>84</v>
-      </c>
-      <c r="B159" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
+        <v>7</v>
+      </c>
+      <c r="B160" t="s">
         <v>83</v>
-      </c>
-      <c r="B160" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" t="s">
         <v>82</v>
-      </c>
-      <c r="B161" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162" t="s">
         <v>81</v>
-      </c>
-      <c r="B162" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
+        <v>14</v>
+      </c>
+      <c r="B163" t="s">
         <v>80</v>
-      </c>
-      <c r="B163" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
+        <v>7</v>
+      </c>
+      <c r="B164" t="s">
         <v>79</v>
-      </c>
-      <c r="B164" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
+        <v>7</v>
+      </c>
+      <c r="B165" t="s">
         <v>78</v>
-      </c>
-      <c r="B165" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B166" t="s">
         <v>77</v>
-      </c>
-      <c r="B166" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" t="s">
         <v>76</v>
-      </c>
-      <c r="B167" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
+        <v>3</v>
+      </c>
+      <c r="B168" t="s">
         <v>75</v>
-      </c>
-      <c r="B168" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" t="s">
         <v>74</v>
-      </c>
-      <c r="B169" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
+        <v>12</v>
+      </c>
+      <c r="B170" t="s">
         <v>73</v>
-      </c>
-      <c r="B170" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" t="s">
         <v>72</v>
-      </c>
-      <c r="B171" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
+        <v>1</v>
+      </c>
+      <c r="B172" t="s">
         <v>71</v>
-      </c>
-      <c r="B172" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
+        <v>14</v>
+      </c>
+      <c r="B173" t="s">
         <v>70</v>
-      </c>
-      <c r="B173" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
+        <v>12</v>
+      </c>
+      <c r="B174" t="s">
         <v>69</v>
-      </c>
-      <c r="B174" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
+        <v>21</v>
+      </c>
+      <c r="B175" t="s">
         <v>68</v>
-      </c>
-      <c r="B175" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176" t="s">
         <v>67</v>
-      </c>
-      <c r="B176" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
+        <v>1</v>
+      </c>
+      <c r="B177" t="s">
         <v>66</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178" t="s">
         <v>65</v>
-      </c>
-      <c r="B178" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
+        <v>14</v>
+      </c>
+      <c r="B179" t="s">
         <v>64</v>
-      </c>
-      <c r="B179" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
+        <v>7</v>
+      </c>
+      <c r="B180" t="s">
         <v>63</v>
-      </c>
-      <c r="B180" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
+        <v>9</v>
+      </c>
+      <c r="B181" t="s">
         <v>62</v>
-      </c>
-      <c r="B181" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
+        <v>9</v>
+      </c>
+      <c r="B182" t="s">
         <v>61</v>
-      </c>
-      <c r="B182" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
+        <v>41</v>
+      </c>
+      <c r="B183" t="s">
         <v>60</v>
-      </c>
-      <c r="B183" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
+        <v>41</v>
+      </c>
+      <c r="B184" t="s">
         <v>59</v>
-      </c>
-      <c r="B184" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
+        <v>9</v>
+      </c>
+      <c r="B185" t="s">
         <v>58</v>
-      </c>
-      <c r="B185" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
+        <v>1</v>
+      </c>
+      <c r="B186" t="s">
         <v>57</v>
-      </c>
-      <c r="B186" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
+        <v>7</v>
+      </c>
+      <c r="B187" t="s">
         <v>56</v>
-      </c>
-      <c r="B187" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
+        <v>7</v>
+      </c>
+      <c r="B188" t="s">
         <v>55</v>
-      </c>
-      <c r="B188" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
+        <v>12</v>
+      </c>
+      <c r="B189" t="s">
         <v>54</v>
-      </c>
-      <c r="B189" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
+        <v>30</v>
+      </c>
+      <c r="B190" t="s">
         <v>53</v>
-      </c>
-      <c r="B190" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
+        <v>7</v>
+      </c>
+      <c r="B191" t="s">
         <v>52</v>
-      </c>
-      <c r="B191" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
+        <v>3</v>
+      </c>
+      <c r="B192" t="s">
         <v>51</v>
-      </c>
-      <c r="B192" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
+        <v>7</v>
+      </c>
+      <c r="B193" t="s">
         <v>50</v>
-      </c>
-      <c r="B193" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B194" t="s">
         <v>49</v>
-      </c>
-      <c r="B194" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
+        <v>14</v>
+      </c>
+      <c r="B195" t="s">
         <v>48</v>
-      </c>
-      <c r="B195" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
+        <v>41</v>
+      </c>
+      <c r="B196" t="s">
         <v>47</v>
-      </c>
-      <c r="B196" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
+        <v>7</v>
+      </c>
+      <c r="B197" t="s">
         <v>46</v>
-      </c>
-      <c r="B197" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
+        <v>21</v>
+      </c>
+      <c r="B198" t="s">
         <v>45</v>
-      </c>
-      <c r="B198" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
+        <v>14</v>
+      </c>
+      <c r="B199" t="s">
         <v>44</v>
-      </c>
-      <c r="B199" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
+        <v>14</v>
+      </c>
+      <c r="B200" t="s">
         <v>43</v>
-      </c>
-      <c r="B200" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
+        <v>9</v>
+      </c>
+      <c r="B201" t="s">
         <v>42</v>
-      </c>
-      <c r="B201" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
@@ -7232,266 +7232,266 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
+        <v>14</v>
+      </c>
+      <c r="B203" t="s">
         <v>40</v>
-      </c>
-      <c r="B203" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204" t="s">
         <v>39</v>
-      </c>
-      <c r="B204" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
+        <v>1</v>
+      </c>
+      <c r="B205" t="s">
         <v>38</v>
-      </c>
-      <c r="B205" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
+        <v>9</v>
+      </c>
+      <c r="B206" t="s">
         <v>21</v>
-      </c>
-      <c r="B206" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
+        <v>21</v>
+      </c>
+      <c r="B207" t="s">
         <v>37</v>
-      </c>
-      <c r="B207" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
+        <v>9</v>
+      </c>
+      <c r="B208" t="s">
         <v>36</v>
-      </c>
-      <c r="B208" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
+        <v>12</v>
+      </c>
+      <c r="B209" t="s">
         <v>35</v>
-      </c>
-      <c r="B209" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
+        <v>9</v>
+      </c>
+      <c r="B210" t="s">
         <v>34</v>
-      </c>
-      <c r="B210" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
+        <v>3</v>
+      </c>
+      <c r="B211" t="s">
         <v>33</v>
-      </c>
-      <c r="B211" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B212" t="s">
         <v>32</v>
-      </c>
-      <c r="B212" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
+        <v>1</v>
+      </c>
+      <c r="B213" t="s">
         <v>31</v>
-      </c>
-      <c r="B213" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
+        <v>30</v>
+      </c>
+      <c r="B214" t="s">
         <v>29</v>
-      </c>
-      <c r="B214" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
+        <v>9</v>
+      </c>
+      <c r="B215" t="s">
         <v>28</v>
-      </c>
-      <c r="B215" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
+        <v>3</v>
+      </c>
+      <c r="B216" t="s">
         <v>27</v>
-      </c>
-      <c r="B216" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
+        <v>21</v>
+      </c>
+      <c r="B217" t="s">
         <v>26</v>
-      </c>
-      <c r="B217" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
+        <v>3</v>
+      </c>
+      <c r="B218" t="s">
         <v>25</v>
-      </c>
-      <c r="B218" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
+        <v>9</v>
+      </c>
+      <c r="B219" t="s">
         <v>24</v>
-      </c>
-      <c r="B219" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
+        <v>12</v>
+      </c>
+      <c r="B220" t="s">
         <v>23</v>
-      </c>
-      <c r="B220" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
+        <v>1</v>
+      </c>
+      <c r="B221" t="s">
         <v>22</v>
-      </c>
-      <c r="B221" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
+        <v>21</v>
+      </c>
+      <c r="B222" t="s">
         <v>20</v>
-      </c>
-      <c r="B222" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
+        <v>1</v>
+      </c>
+      <c r="B223" t="s">
         <v>19</v>
-      </c>
-      <c r="B223" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
+        <v>5</v>
+      </c>
+      <c r="B224" t="s">
         <v>18</v>
-      </c>
-      <c r="B224" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
+        <v>12</v>
+      </c>
+      <c r="B225" t="s">
         <v>17</v>
-      </c>
-      <c r="B225" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
+        <v>1</v>
+      </c>
+      <c r="B226" t="s">
         <v>16</v>
-      </c>
-      <c r="B226" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
+        <v>9</v>
+      </c>
+      <c r="B227" t="s">
         <v>15</v>
-      </c>
-      <c r="B227" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
+        <v>14</v>
+      </c>
+      <c r="B228" t="s">
         <v>13</v>
-      </c>
-      <c r="B228" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
+        <v>12</v>
+      </c>
+      <c r="B229" t="s">
         <v>11</v>
-      </c>
-      <c r="B229" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
+        <v>5</v>
+      </c>
+      <c r="B230" t="s">
         <v>10</v>
-      </c>
-      <c r="B230" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
+        <v>9</v>
+      </c>
+      <c r="B231" t="s">
         <v>8</v>
-      </c>
-      <c r="B231" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
+        <v>7</v>
+      </c>
+      <c r="B232" t="s">
         <v>6</v>
-      </c>
-      <c r="B232" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
+        <v>5</v>
+      </c>
+      <c r="B233" t="s">
         <v>4</v>
-      </c>
-      <c r="B233" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
+        <v>3</v>
+      </c>
+      <c r="B234" t="s">
         <v>2</v>
-      </c>
-      <c r="B234" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
+        <v>1</v>
+      </c>
+      <c r="B235" t="s">
         <v>0</v>
-      </c>
-      <c r="B235" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7503,7 +7503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A8DCE4-66C8-493B-8FD5-7B82DB4224C4}">
   <dimension ref="A1:B247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/counties_towns.xlsx
+++ b/counties_towns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WesleyOke_apuylaw\Google Drive\Share\School\Waterloo\Statistics\ds2_project\election_2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2E453E-9306-49CF-9016-C56831FC8791}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74875816-ADC6-475E-8A1C-6B6CBB19115B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16900" yWindow="2510" windowWidth="19960" windowHeight="12700" activeTab="1" xr2:uid="{1CE7BFA9-C5EC-4750-BE10-2D699AFF6846}"/>
+    <workbookView xWindow="16430" yWindow="2470" windowWidth="19960" windowHeight="12700" activeTab="1" xr2:uid="{1CE7BFA9-C5EC-4750-BE10-2D699AFF6846}"/>
   </bookViews>
   <sheets>
     <sheet name="MA" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="724">
   <si>
     <t>Woodstock</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Weare</t>
   </si>
   <si>
-    <t>Waterville Valley</t>
-  </si>
-  <si>
     <t>Washington</t>
   </si>
   <si>
@@ -467,9 +464,6 @@
     <t>Haverhill</t>
   </si>
   <si>
-    <t>Hart's Location</t>
-  </si>
-  <si>
     <t>Harrisville</t>
   </si>
   <si>
@@ -1670,754 +1664,550 @@
     <t>Barnstable</t>
   </si>
   <si>
-    <t>WOODSTOCK</t>
-  </si>
-  <si>
     <t>Windsor County</t>
   </si>
   <si>
-    <t>WINDSOR</t>
-  </si>
-  <si>
-    <t>WESTON</t>
-  </si>
-  <si>
-    <t>WEST WINDSOR</t>
-  </si>
-  <si>
-    <t>WEATHERSFIELD</t>
-  </si>
-  <si>
-    <t>STOCKBRIDGE</t>
-  </si>
-  <si>
-    <t>SHARON</t>
-  </si>
-  <si>
-    <t>ROYALTON</t>
-  </si>
-  <si>
-    <t>ROCHESTER</t>
-  </si>
-  <si>
-    <t>READING</t>
-  </si>
-  <si>
-    <t>POMFRET</t>
-  </si>
-  <si>
-    <t>PLYMOUTH</t>
-  </si>
-  <si>
-    <t>NORWICH</t>
-  </si>
-  <si>
-    <t>LUDLOW</t>
-  </si>
-  <si>
-    <t>HARTLAND</t>
-  </si>
-  <si>
-    <t>HARTFORD</t>
-  </si>
-  <si>
-    <t>CHESTER</t>
-  </si>
-  <si>
-    <t>CAVENDISH</t>
-  </si>
-  <si>
-    <t>BRIDGEWATER</t>
-  </si>
-  <si>
-    <t>BETHEL</t>
-  </si>
-  <si>
-    <t>BARNARD</t>
-  </si>
-  <si>
-    <t>BALTIMORE</t>
-  </si>
-  <si>
-    <t>ANDOVER</t>
-  </si>
-  <si>
-    <t>WINDHAM</t>
-  </si>
-  <si>
     <t>Windham County</t>
   </si>
   <si>
-    <t>WILMINGTON</t>
-  </si>
-  <si>
-    <t>WHITINGHAM</t>
-  </si>
-  <si>
-    <t>WESTMINSTER</t>
-  </si>
-  <si>
-    <t>WARDSBORO</t>
-  </si>
-  <si>
-    <t>VERNON</t>
-  </si>
-  <si>
-    <t>TOWNSHEND</t>
-  </si>
-  <si>
-    <t>STRATTON</t>
-  </si>
-  <si>
-    <t>ROCKINGHAM</t>
-  </si>
-  <si>
-    <t>PUTNEY</t>
-  </si>
-  <si>
-    <t>NEWFANE</t>
-  </si>
-  <si>
-    <t>MARLBORO</t>
-  </si>
-  <si>
-    <t>LONDONDERRY</t>
-  </si>
-  <si>
-    <t>JAMAICA</t>
-  </si>
-  <si>
-    <t>HALIFAX</t>
-  </si>
-  <si>
-    <t>GUILFORD</t>
-  </si>
-  <si>
-    <t>GRAFTON</t>
-  </si>
-  <si>
-    <t>DUMMERSTON</t>
-  </si>
-  <si>
-    <t>DOVER</t>
-  </si>
-  <si>
-    <t>BROOKLINE</t>
-  </si>
-  <si>
-    <t>BRATTLEBORO</t>
-  </si>
-  <si>
-    <t>ATHENS</t>
-  </si>
-  <si>
     <t>Washington County</t>
   </si>
   <si>
-    <t>WOODBURY</t>
-  </si>
-  <si>
-    <t>WATERBURY</t>
-  </si>
-  <si>
-    <t>WARREN</t>
-  </si>
-  <si>
-    <t>WAITSFIELD</t>
-  </si>
-  <si>
-    <t>ROXBURY</t>
-  </si>
-  <si>
-    <t>PLAINFIELD</t>
-  </si>
-  <si>
-    <t>NORTHFIELD</t>
-  </si>
-  <si>
-    <t>MORETOWN</t>
-  </si>
-  <si>
-    <t>MONTPELIER</t>
-  </si>
-  <si>
-    <t>MIDDLESEX</t>
-  </si>
-  <si>
-    <t>MARSHFIELD</t>
-  </si>
-  <si>
-    <t>FAYSTON</t>
-  </si>
-  <si>
-    <t>EAST MONTPELIER</t>
-  </si>
-  <si>
-    <t>DUXBURY</t>
-  </si>
-  <si>
-    <t>CALAIS</t>
-  </si>
-  <si>
-    <t>CABOT</t>
-  </si>
-  <si>
-    <t>BERLIN</t>
-  </si>
-  <si>
-    <t>BARRE TOWN</t>
-  </si>
-  <si>
-    <t>BARRE</t>
-  </si>
-  <si>
-    <t>WEST RUTLAND</t>
-  </si>
-  <si>
     <t>Rutland County</t>
   </si>
   <si>
-    <t>WEST HAVEN</t>
-  </si>
-  <si>
-    <t>WELLS</t>
-  </si>
-  <si>
-    <t>WALLINGFORD</t>
-  </si>
-  <si>
-    <t>TINMOUTH</t>
-  </si>
-  <si>
-    <t>SUDBURY</t>
-  </si>
-  <si>
-    <t>SHREWSBURY</t>
-  </si>
-  <si>
     <t>Rutland Town</t>
   </si>
   <si>
-    <t>RUTLAND</t>
-  </si>
-  <si>
-    <t>PROCTOR</t>
-  </si>
-  <si>
-    <t>POULTNEY</t>
-  </si>
-  <si>
-    <t>PITTSFORD</t>
-  </si>
-  <si>
-    <t>PAWLET</t>
-  </si>
-  <si>
-    <t>MOUNT TABOR</t>
-  </si>
-  <si>
-    <t>MOUNT HOLLY</t>
-  </si>
-  <si>
-    <t>MIDDLETOWN SPRINGS</t>
-  </si>
-  <si>
-    <t>MENDON</t>
-  </si>
-  <si>
-    <t>KILLINGTON</t>
-  </si>
-  <si>
-    <t>IRA</t>
-  </si>
-  <si>
-    <t>HUBBARDTON</t>
-  </si>
-  <si>
-    <t>FAIR HAVEN</t>
-  </si>
-  <si>
-    <t>DANBY</t>
-  </si>
-  <si>
-    <t>CLARENDON</t>
-  </si>
-  <si>
-    <t>CHITTENDEN</t>
-  </si>
-  <si>
-    <t>CASTLETON</t>
-  </si>
-  <si>
-    <t>BRANDON</t>
-  </si>
-  <si>
-    <t>BENSON</t>
-  </si>
-  <si>
-    <t>WESTMORE</t>
-  </si>
-  <si>
     <t>Orleans County</t>
   </si>
   <si>
-    <t>TROY</t>
-  </si>
-  <si>
-    <t>NEWPORT TOWN</t>
-  </si>
-  <si>
-    <t>NEWPORT</t>
-  </si>
-  <si>
-    <t>MORGAN</t>
-  </si>
-  <si>
-    <t>JAY</t>
-  </si>
-  <si>
-    <t>IRASBURG</t>
-  </si>
-  <si>
-    <t>HOLLAND</t>
-  </si>
-  <si>
-    <t>GREENSBORO</t>
-  </si>
-  <si>
-    <t>GLOVER</t>
-  </si>
-  <si>
-    <t>DERBY</t>
-  </si>
-  <si>
-    <t>CRAFTSBURY</t>
-  </si>
-  <si>
-    <t>COVENTRY</t>
-  </si>
-  <si>
-    <t>CHARLESTON</t>
-  </si>
-  <si>
-    <t>BROWNINGTON</t>
-  </si>
-  <si>
-    <t>BARTON</t>
-  </si>
-  <si>
-    <t>ALBANY</t>
-  </si>
-  <si>
-    <t>WILLIAMSTOWN</t>
-  </si>
-  <si>
     <t>Orange County</t>
   </si>
   <si>
-    <t>WEST FAIRLEE</t>
-  </si>
-  <si>
-    <t>WASHINGTON</t>
-  </si>
-  <si>
-    <t>VERSHIRE</t>
-  </si>
-  <si>
-    <t>TUNBRIDGE</t>
-  </si>
-  <si>
-    <t>TOPSHAM</t>
-  </si>
-  <si>
-    <t>THETFORD</t>
-  </si>
-  <si>
-    <t>STRAFFORD</t>
-  </si>
-  <si>
-    <t>RANDOLPH</t>
-  </si>
-  <si>
-    <t>ORANGE</t>
-  </si>
-  <si>
-    <t>NEWBURY</t>
-  </si>
-  <si>
-    <t>FAIRLEE</t>
-  </si>
-  <si>
-    <t>CORINTH</t>
-  </si>
-  <si>
-    <t>BROOKFIELD</t>
-  </si>
-  <si>
-    <t>BRAINTREE</t>
-  </si>
-  <si>
-    <t>BRADFORD</t>
-  </si>
-  <si>
-    <t>WOLCOTT</t>
-  </si>
-  <si>
     <t>Lamoille County</t>
   </si>
   <si>
-    <t>WATERVILLE</t>
-  </si>
-  <si>
-    <t>STOWE</t>
-  </si>
-  <si>
-    <t>MORRISTOWN</t>
-  </si>
-  <si>
-    <t>JOHNSON</t>
-  </si>
-  <si>
-    <t>HYDE PARK</t>
-  </si>
-  <si>
-    <t>ELMORE</t>
-  </si>
-  <si>
-    <t>EDEN</t>
-  </si>
-  <si>
-    <t>BELVIDERE</t>
-  </si>
-  <si>
-    <t>SOUTH HERO</t>
-  </si>
-  <si>
     <t>Grand Isle County</t>
   </si>
   <si>
-    <t>NORTH HERO</t>
-  </si>
-  <si>
-    <t>ISLE LA MOTTE</t>
-  </si>
-  <si>
-    <t>GRAND ISLE</t>
-  </si>
-  <si>
-    <t>ALBURGH</t>
-  </si>
-  <si>
-    <t>SWANTON</t>
-  </si>
-  <si>
-    <t>SHELDON</t>
-  </si>
-  <si>
-    <t>St. ALBANS TOWN</t>
-  </si>
-  <si>
-    <t>St. ALBANS</t>
-  </si>
-  <si>
-    <t>RICHFORD</t>
-  </si>
-  <si>
-    <t>MONTGOMERY</t>
-  </si>
-  <si>
-    <t>HIGHGATE</t>
-  </si>
-  <si>
-    <t>GEORGIA</t>
-  </si>
-  <si>
-    <t>FRANKLIN</t>
-  </si>
-  <si>
-    <t>FLETCHER</t>
-  </si>
-  <si>
-    <t>FAIRFIELD</t>
-  </si>
-  <si>
-    <t>FAIRFAX</t>
-  </si>
-  <si>
-    <t>ENOSBURGH</t>
-  </si>
-  <si>
-    <t>BERKSHIRE</t>
-  </si>
-  <si>
-    <t>BAKERSFIELD</t>
-  </si>
-  <si>
-    <t>VICTORY</t>
-  </si>
-  <si>
-    <t>NORTON</t>
-  </si>
-  <si>
-    <t>MAIDSTONE</t>
-  </si>
-  <si>
-    <t>LUNENBURG</t>
-  </si>
-  <si>
-    <t>LEMINGTON</t>
-  </si>
-  <si>
-    <t>GUILDHALL</t>
-  </si>
-  <si>
-    <t>GRANBY</t>
-  </si>
-  <si>
-    <t>EAST HAVEN</t>
-  </si>
-  <si>
-    <t>CONCORD</t>
-  </si>
-  <si>
-    <t>CANAAN</t>
-  </si>
-  <si>
-    <t>BRUNSWICK</t>
-  </si>
-  <si>
-    <t>BRIGHTON</t>
-  </si>
-  <si>
-    <t>BLOOMFIELD</t>
-  </si>
-  <si>
-    <t>WINOOSKI</t>
-  </si>
-  <si>
     <t>Chittenden County</t>
   </si>
   <si>
-    <t>WILLISTON</t>
-  </si>
-  <si>
-    <t>WESTFORD</t>
-  </si>
-  <si>
-    <t>UNDERHILL</t>
-  </si>
-  <si>
-    <t>SOUTH BURLINGTON</t>
-  </si>
-  <si>
-    <t>SHELBURNE</t>
-  </si>
-  <si>
-    <t>St. GEORGE</t>
-  </si>
-  <si>
-    <t>RICHMOND</t>
-  </si>
-  <si>
-    <t>MILTON</t>
-  </si>
-  <si>
-    <t>JERICHO</t>
-  </si>
-  <si>
-    <t>HUNTINGTON</t>
-  </si>
-  <si>
-    <t>HINESBURG</t>
-  </si>
-  <si>
-    <t>ESSEX</t>
-  </si>
-  <si>
-    <t>COLCHESTER</t>
-  </si>
-  <si>
-    <t>CHARLOTTE</t>
-  </si>
-  <si>
-    <t>BURLINGTON</t>
-  </si>
-  <si>
-    <t>BOLTON</t>
-  </si>
-  <si>
-    <t>WHEELOCK</t>
-  </si>
-  <si>
     <t>Caledonia County</t>
   </si>
   <si>
-    <t>WATERFORD</t>
-  </si>
-  <si>
-    <t>WALDEN</t>
-  </si>
-  <si>
-    <t>SUTTON</t>
-  </si>
-  <si>
-    <t>STANNARD</t>
-  </si>
-  <si>
-    <t>SHEFFIELD</t>
-  </si>
-  <si>
-    <t>St. JOHNSBURY</t>
-  </si>
-  <si>
-    <t>RYEGATE</t>
-  </si>
-  <si>
-    <t>PEACHAM</t>
-  </si>
-  <si>
-    <t>NEWARK</t>
-  </si>
-  <si>
-    <t>LYNDON</t>
-  </si>
-  <si>
-    <t>KIRBY</t>
-  </si>
-  <si>
-    <t>HARDWICK</t>
-  </si>
-  <si>
-    <t>GROTON</t>
-  </si>
-  <si>
-    <t>DANVILLE</t>
-  </si>
-  <si>
-    <t>BURKE</t>
-  </si>
-  <si>
-    <t>BARNET</t>
-  </si>
-  <si>
-    <t>WOODFORD</t>
-  </si>
-  <si>
     <t>Bennington County</t>
   </si>
   <si>
-    <t>WINHALL</t>
-  </si>
-  <si>
-    <t>SUNDERLAND</t>
-  </si>
-  <si>
-    <t>STAMFORD</t>
-  </si>
-  <si>
-    <t>SHAFTSBURY</t>
-  </si>
-  <si>
-    <t>SEARSBURG</t>
-  </si>
-  <si>
-    <t>SANDGATE</t>
-  </si>
-  <si>
-    <t>RUPERT</t>
-  </si>
-  <si>
-    <t>READSBORO</t>
-  </si>
-  <si>
-    <t>POWNAL</t>
-  </si>
-  <si>
-    <t>PERU</t>
-  </si>
-  <si>
-    <t>MANCHESTER</t>
-  </si>
-  <si>
-    <t>LANDGROVE</t>
-  </si>
-  <si>
-    <t>DORSET</t>
-  </si>
-  <si>
-    <t>BENNINGTON</t>
-  </si>
-  <si>
-    <t>ARLINGTON</t>
-  </si>
-  <si>
-    <t>WHITING</t>
-  </si>
-  <si>
     <t>Addison County</t>
   </si>
   <si>
-    <t>WEYBRIDGE</t>
-  </si>
-  <si>
-    <t>VERGENNES</t>
-  </si>
-  <si>
-    <t>STARKSBORO</t>
-  </si>
-  <si>
-    <t>SHOREHAM</t>
-  </si>
-  <si>
-    <t>SALISBURY</t>
-  </si>
-  <si>
-    <t>RIPTON</t>
-  </si>
-  <si>
-    <t>PANTON</t>
-  </si>
-  <si>
-    <t>ORWELL</t>
-  </si>
-  <si>
-    <t>NEW HAVEN</t>
-  </si>
-  <si>
-    <t>MONKTON</t>
-  </si>
-  <si>
-    <t>MIDDLEBURY</t>
-  </si>
-  <si>
-    <t>LINCOLN</t>
-  </si>
-  <si>
-    <t>LEICESTER</t>
-  </si>
-  <si>
-    <t>HANCOCK</t>
-  </si>
-  <si>
-    <t>GRANVILLE</t>
-  </si>
-  <si>
-    <t>GOSHEN</t>
-  </si>
-  <si>
-    <t>FERRISBURG</t>
-  </si>
-  <si>
-    <t>CORNWALL</t>
-  </si>
-  <si>
-    <t>BRISTOL</t>
-  </si>
-  <si>
-    <t>BRIDPORT</t>
-  </si>
-  <si>
-    <t>ADDISON</t>
+    <t>Addison</t>
+  </si>
+  <si>
+    <t>Bridport</t>
+  </si>
+  <si>
+    <t>Cornwall</t>
+  </si>
+  <si>
+    <t>Ferrisburg</t>
+  </si>
+  <si>
+    <t>Middlebury</t>
+  </si>
+  <si>
+    <t>Monkton</t>
+  </si>
+  <si>
+    <t>New Haven</t>
+  </si>
+  <si>
+    <t>Orwell</t>
+  </si>
+  <si>
+    <t>Panton</t>
+  </si>
+  <si>
+    <t>Ripton</t>
+  </si>
+  <si>
+    <t>Shoreham</t>
+  </si>
+  <si>
+    <t>Starksboro</t>
+  </si>
+  <si>
+    <t>Vergennes</t>
+  </si>
+  <si>
+    <t>Waltham</t>
+  </si>
+  <si>
+    <t>Weybridge</t>
+  </si>
+  <si>
+    <t>Whiting</t>
+  </si>
+  <si>
+    <t>Dorset</t>
+  </si>
+  <si>
+    <t>Landgrove</t>
+  </si>
+  <si>
+    <t>Pownal</t>
+  </si>
+  <si>
+    <t>Readsboro</t>
+  </si>
+  <si>
+    <t>Rupert</t>
+  </si>
+  <si>
+    <t>Sandgate</t>
+  </si>
+  <si>
+    <t>Searsburg</t>
+  </si>
+  <si>
+    <t>Shaftsbury</t>
+  </si>
+  <si>
+    <t>Stamford</t>
+  </si>
+  <si>
+    <t>Winhall</t>
+  </si>
+  <si>
+    <t>Woodford</t>
+  </si>
+  <si>
+    <t>Barnet</t>
+  </si>
+  <si>
+    <t>Burke</t>
+  </si>
+  <si>
+    <t>Kirby</t>
+  </si>
+  <si>
+    <t>Lyndon</t>
+  </si>
+  <si>
+    <t>Newark</t>
+  </si>
+  <si>
+    <t>Peacham</t>
+  </si>
+  <si>
+    <t>Ryegate</t>
+  </si>
+  <si>
+    <t>St. Johnsbury</t>
+  </si>
+  <si>
+    <t>Stannard</t>
+  </si>
+  <si>
+    <t>Walden</t>
+  </si>
+  <si>
+    <t>Waterford</t>
+  </si>
+  <si>
+    <t>Wheelock</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Colchester</t>
+  </si>
+  <si>
+    <t>Hinesburg</t>
+  </si>
+  <si>
+    <t>Jericho</t>
+  </si>
+  <si>
+    <t>St. George</t>
+  </si>
+  <si>
+    <t>South Burlington</t>
+  </si>
+  <si>
+    <t>Underhill</t>
+  </si>
+  <si>
+    <t>Williston</t>
+  </si>
+  <si>
+    <t>Winooski</t>
+  </si>
+  <si>
+    <t>Bloomfield</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Brunswick</t>
+  </si>
+  <si>
+    <t>East Haven</t>
+  </si>
+  <si>
+    <t>Guildhall</t>
+  </si>
+  <si>
+    <t>Lemington</t>
+  </si>
+  <si>
+    <t>Maidstone</t>
+  </si>
+  <si>
+    <t>Victory</t>
+  </si>
+  <si>
+    <t>Bakersfield</t>
+  </si>
+  <si>
+    <t>Berkshire</t>
+  </si>
+  <si>
+    <t>Enosburgh</t>
+  </si>
+  <si>
+    <t>Fairfax</t>
+  </si>
+  <si>
+    <t>Fairfield</t>
+  </si>
+  <si>
+    <t>Fletcher</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Highgate</t>
+  </si>
+  <si>
+    <t>Richford</t>
+  </si>
+  <si>
+    <t>St. Albans</t>
+  </si>
+  <si>
+    <t>St. Albans Town</t>
+  </si>
+  <si>
+    <t>Sheldon</t>
+  </si>
+  <si>
+    <t>Swanton</t>
+  </si>
+  <si>
+    <t>Alburgh</t>
+  </si>
+  <si>
+    <t>Grand Isle</t>
+  </si>
+  <si>
+    <t>Isle La Motte</t>
+  </si>
+  <si>
+    <t>North Hero</t>
+  </si>
+  <si>
+    <t>South Hero</t>
+  </si>
+  <si>
+    <t>Belvidere</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>Eden</t>
+  </si>
+  <si>
+    <t>Elmore</t>
+  </si>
+  <si>
+    <t>Hyde Park</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Morristown</t>
+  </si>
+  <si>
+    <t>Stowe</t>
+  </si>
+  <si>
+    <t>Waterville</t>
+  </si>
+  <si>
+    <t>Wolcott</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Corinth</t>
+  </si>
+  <si>
+    <t>Fairlee</t>
+  </si>
+  <si>
+    <t>Thetford</t>
+  </si>
+  <si>
+    <t>Topsham</t>
+  </si>
+  <si>
+    <t>Tunbridge</t>
+  </si>
+  <si>
+    <t>Vershire</t>
+  </si>
+  <si>
+    <t>West Fairlee</t>
+  </si>
+  <si>
+    <t>Barton</t>
+  </si>
+  <si>
+    <t>Brownington</t>
+  </si>
+  <si>
+    <t>Charleston</t>
+  </si>
+  <si>
+    <t>Coventry</t>
+  </si>
+  <si>
+    <t>Craftsbury</t>
+  </si>
+  <si>
+    <t>Derby</t>
+  </si>
+  <si>
+    <t>Glover</t>
+  </si>
+  <si>
+    <t>Greensboro</t>
+  </si>
+  <si>
+    <t>Irasburg</t>
+  </si>
+  <si>
+    <t>Jay</t>
+  </si>
+  <si>
+    <t>Lowell</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>Newport Town</t>
+  </si>
+  <si>
+    <t>Westfield</t>
+  </si>
+  <si>
+    <t>Westmore</t>
+  </si>
+  <si>
+    <t>Benson</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>Castleton</t>
+  </si>
+  <si>
+    <t>Chittenden</t>
+  </si>
+  <si>
+    <t>Clarendon</t>
+  </si>
+  <si>
+    <t>Danby</t>
+  </si>
+  <si>
+    <t>Fair Haven</t>
+  </si>
+  <si>
+    <t>Hubbardton</t>
+  </si>
+  <si>
+    <t>Ira</t>
+  </si>
+  <si>
+    <t>Killington</t>
+  </si>
+  <si>
+    <t>Middletown Springs</t>
+  </si>
+  <si>
+    <t>Mount Holly</t>
+  </si>
+  <si>
+    <t>Mount Tabor</t>
+  </si>
+  <si>
+    <t>Pawlet</t>
+  </si>
+  <si>
+    <t>Pittsford</t>
+  </si>
+  <si>
+    <t>Poultney</t>
+  </si>
+  <si>
+    <t>Proctor</t>
+  </si>
+  <si>
+    <t>Tinmouth</t>
+  </si>
+  <si>
+    <t>Wallingford</t>
+  </si>
+  <si>
+    <t>Wells</t>
+  </si>
+  <si>
+    <t>West Haven</t>
+  </si>
+  <si>
+    <t>West Rutland</t>
+  </si>
+  <si>
+    <t>Barre Town</t>
+  </si>
+  <si>
+    <t>Cabot</t>
+  </si>
+  <si>
+    <t>Calais</t>
+  </si>
+  <si>
+    <t>East Montpelier</t>
+  </si>
+  <si>
+    <t>Fayston</t>
+  </si>
+  <si>
+    <t>Middlesex</t>
+  </si>
+  <si>
+    <t>Montpelier</t>
+  </si>
+  <si>
+    <t>Moretown</t>
+  </si>
+  <si>
+    <t>Waitsfield</t>
+  </si>
+  <si>
+    <t>Waterbury</t>
+  </si>
+  <si>
+    <t>Woodbury</t>
+  </si>
+  <si>
+    <t>Worcester</t>
+  </si>
+  <si>
+    <t>Athens</t>
+  </si>
+  <si>
+    <t>Brattleboro</t>
+  </si>
+  <si>
+    <t>Dummerston</t>
+  </si>
+  <si>
+    <t>Guilford</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Marlboro</t>
+  </si>
+  <si>
+    <t>Newfane</t>
+  </si>
+  <si>
+    <t>Putney</t>
+  </si>
+  <si>
+    <t>Stratton</t>
+  </si>
+  <si>
+    <t>Townshend</t>
+  </si>
+  <si>
+    <t>Vernon</t>
+  </si>
+  <si>
+    <t>Wardsboro</t>
+  </si>
+  <si>
+    <t>Whitingham</t>
+  </si>
+  <si>
+    <t>Baltimore</t>
+  </si>
+  <si>
+    <t>Barnard</t>
+  </si>
+  <si>
+    <t>Bethel</t>
+  </si>
+  <si>
+    <t>Cavendish</t>
+  </si>
+  <si>
+    <t>Hartford</t>
+  </si>
+  <si>
+    <t>Hartland</t>
+  </si>
+  <si>
+    <t>Norwich</t>
+  </si>
+  <si>
+    <t>Pomfret</t>
+  </si>
+  <si>
+    <t>Royalton</t>
+  </si>
+  <si>
+    <t>Weathersfield</t>
+  </si>
+  <si>
+    <t>West Windsor</t>
+  </si>
+  <si>
+    <t>Harts Location</t>
+  </si>
+  <si>
+    <t>Dixville</t>
+  </si>
+  <si>
+    <t>Millsfield</t>
+  </si>
+  <si>
+    <t>Wentworth's Location</t>
   </si>
 </sst>
 </file>
@@ -2781,159 +2571,159 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B8" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B9" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B12" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>529</v>
+      </c>
+      <c r="B14" t="s">
         <v>531</v>
-      </c>
-      <c r="B14" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B15" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B16" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B17" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B18" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B19" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -2941,223 +2731,223 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B21" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B23" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B24" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B25" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B28" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B30" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B31" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B32" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B33" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B34" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B35" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B36" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B37" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B38" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B40" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B41" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B42" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B43" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B44" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>503</v>
+      </c>
+      <c r="B46" t="s">
         <v>505</v>
-      </c>
-      <c r="B46" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B47" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
@@ -3165,1463 +2955,1463 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B49" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B50" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B51" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B52" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B53" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B54" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B55" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B56" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B57" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B58" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B59" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B60" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B61" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B62" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B63" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B64" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B65" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B66" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B67" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B68" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B69" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B70" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B71" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B72" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B73" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B74" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B75" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B76" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B77" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B78" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B79" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B80" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B81" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B82" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B83" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B84" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B85" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B86" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B87" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B88" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B89" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B90" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B91" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B92" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B93" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B94" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B95" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B96" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B97" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B98" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B99" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B100" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B101" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B102" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B103" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B104" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B105" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B106" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
+        <v>445</v>
+      </c>
+      <c r="B107" t="s">
         <v>447</v>
-      </c>
-      <c r="B107" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B108" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B109" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B110" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B111" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B112" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B113" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B114" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B115" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B116" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B117" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B118" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B119" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B120" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B121" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B122" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B123" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B124" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B125" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B126" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B127" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B128" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B129" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B130" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B131" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B132" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
+        <v>425</v>
+      </c>
+      <c r="B133" t="s">
         <v>427</v>
-      </c>
-      <c r="B133" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B134" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B135" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B136" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B137" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B138" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B139" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B140" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B141" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B142" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B143" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B144" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B145" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B146" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B147" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B148" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B149" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B150" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B151" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B152" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B153" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B154" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B155" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
+        <v>402</v>
+      </c>
+      <c r="B156" t="s">
         <v>404</v>
-      </c>
-      <c r="B156" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B157" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B158" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B159" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B160" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B161" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B162" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B163" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B164" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B165" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B166" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B167" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B168" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B169" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B170" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B171" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B172" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B173" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B174" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B175" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
+        <v>386</v>
+      </c>
+      <c r="B176" t="s">
         <v>388</v>
-      </c>
-      <c r="B176" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B177" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B178" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B179" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B180" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B181" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B182" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B183" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B184" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B185" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B186" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B187" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B188" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B189" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B190" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B191" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B192" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B193" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B194" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B195" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B196" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B197" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B198" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B199" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B200" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B201" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B202" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B203" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B204" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B205" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B206" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B207" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B208" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B209" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B210" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B211" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B212" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B213" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B214" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B215" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B216" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B217" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B218" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B219" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B220" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B221" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B222" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B223" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B224" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B225" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B226" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B227" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B228" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
+        <v>342</v>
+      </c>
+      <c r="B229" t="s">
         <v>344</v>
-      </c>
-      <c r="B229" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B230" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B231" t="s">
         <v>8</v>
@@ -4629,623 +4419,623 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B232" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B233" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B234" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B235" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B236" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B237" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B238" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B239" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B240" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B241" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B242" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B243" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B244" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B245" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B246" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B247" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B248" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B249" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B250" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B251" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B252" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B253" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B254" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B255" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B256" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B257" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B258" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
+        <v>318</v>
+      </c>
+      <c r="B259" t="s">
         <v>320</v>
-      </c>
-      <c r="B259" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B260" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B261" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B262" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B263" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B264" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B265" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B266" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B267" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B268" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B269" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B270" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B271" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B272" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B273" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B274" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B275" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B276" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B277" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B278" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B279" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B280" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B281" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B282" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B283" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B284" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B285" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
+        <v>296</v>
+      </c>
+      <c r="B286" t="s">
         <v>298</v>
-      </c>
-      <c r="B286" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B287" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B288" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B289" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
+        <v>291</v>
+      </c>
+      <c r="B290" t="s">
         <v>293</v>
-      </c>
-      <c r="B290" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B291" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B293" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B294" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B295" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B296" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B297" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B298" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B299" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B300" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B301" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B302" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B303" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B304" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B305" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B306" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B307" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B308" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B309" t="s">
         <v>1</v>
@@ -5253,295 +5043,295 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B310" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B311" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B312" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B313" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B314" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B315" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B316" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B317" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B318" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B319" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B320" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B321" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B322" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B323" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B324" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B325" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B326" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B327" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B328" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B329" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B330" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B331" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B332" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B333" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B334" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B335" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B336" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B337" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B338" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B339" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B340" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B341" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B342" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B343" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B344" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B345" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B346" t="s">
         <v>17</v>
@@ -5549,50 +5339,50 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B347" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B348" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B349" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
+        <v>239</v>
+      </c>
+      <c r="B350" t="s">
         <v>241</v>
-      </c>
-      <c r="B350" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B351" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B352" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -5602,10 +5392,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF005B98-571D-441D-9D78-6945E23FD06D}">
-  <dimension ref="A1:B235"/>
+  <dimension ref="A1:B238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="A230" sqref="A230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5616,18 +5406,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -5635,7 +5425,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -5643,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -5651,7 +5441,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -5659,15 +5449,15 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -5675,7 +5465,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -5683,7 +5473,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -5691,7 +5481,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -5699,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -5707,7 +5497,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -5715,23 +5505,23 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -5739,7 +5529,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -5747,7 +5537,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -5755,15 +5545,15 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -5771,7 +5561,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -5779,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -5787,7 +5577,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -5795,7 +5585,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -5803,7 +5593,7 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -5811,7 +5601,7 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -5819,7 +5609,7 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -5827,7 +5617,7 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -5835,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -5843,7 +5633,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -5851,7 +5641,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -5859,7 +5649,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -5867,7 +5657,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -5875,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -5883,7 +5673,7 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -5891,7 +5681,7 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -5904,18 +5694,18 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -5923,7 +5713,7 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -5931,7 +5721,7 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -5939,7 +5729,7 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -5947,15 +5737,15 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -5963,7 +5753,7 @@
         <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -5971,7 +5761,7 @@
         <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -5979,7 +5769,7 @@
         <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -5987,7 +5777,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -5995,23 +5785,23 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -6019,7 +5809,7 @@
         <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -6027,7 +5817,7 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -6035,7 +5825,7 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -6043,7 +5833,7 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -6051,7 +5841,7 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -6059,79 +5849,79 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>183</v>
+        <v>721</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -6139,15 +5929,15 @@
         <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -6155,199 +5945,199 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>1</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>154</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -6355,7 +6145,7 @@
         <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -6363,47 +6153,47 @@
         <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B97" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>142</v>
+        <v>720</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -6416,7 +6206,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B101" t="s">
         <v>140</v>
@@ -6432,23 +6222,23 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>138</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B105" t="s">
         <v>137</v>
@@ -6456,7 +6246,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B106" t="s">
         <v>136</v>
@@ -6464,7 +6254,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B107" t="s">
         <v>135</v>
@@ -6480,7 +6270,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B109" t="s">
         <v>133</v>
@@ -6488,7 +6278,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B110" t="s">
         <v>132</v>
@@ -6496,7 +6286,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B111" t="s">
         <v>131</v>
@@ -6504,7 +6294,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B112" t="s">
         <v>130</v>
@@ -6512,7 +6302,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B113" t="s">
         <v>129</v>
@@ -6520,7 +6310,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B114" t="s">
         <v>128</v>
@@ -6536,7 +6326,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B116" t="s">
         <v>126</v>
@@ -6544,7 +6334,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B117" t="s">
         <v>125</v>
@@ -6552,7 +6342,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B118" t="s">
         <v>124</v>
@@ -6560,7 +6350,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B119" t="s">
         <v>123</v>
@@ -6568,7 +6358,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B120" t="s">
         <v>122</v>
@@ -6576,7 +6366,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B121" t="s">
         <v>121</v>
@@ -6584,7 +6374,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B122" t="s">
         <v>120</v>
@@ -6592,7 +6382,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B123" t="s">
         <v>119</v>
@@ -6608,7 +6398,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B125" t="s">
         <v>117</v>
@@ -6616,7 +6406,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B126" t="s">
         <v>116</v>
@@ -6624,7 +6414,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B127" t="s">
         <v>115</v>
@@ -6632,7 +6422,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B128" t="s">
         <v>114</v>
@@ -6640,7 +6430,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B129" t="s">
         <v>113</v>
@@ -6656,7 +6446,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B131" t="s">
         <v>111</v>
@@ -6664,7 +6454,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B132" t="s">
         <v>110</v>
@@ -6672,7 +6462,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B133" t="s">
         <v>109</v>
@@ -6680,7 +6470,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B134" t="s">
         <v>108</v>
@@ -6688,7 +6478,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B135" t="s">
         <v>107</v>
@@ -6704,7 +6494,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B137" t="s">
         <v>105</v>
@@ -6712,7 +6502,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B138" t="s">
         <v>104</v>
@@ -6720,23 +6510,23 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B140" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B141" t="s">
         <v>102</v>
@@ -6744,7 +6534,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B142" t="s">
         <v>101</v>
@@ -6752,7 +6542,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B143" t="s">
         <v>100</v>
@@ -6760,26 +6550,26 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>99</v>
+        <v>722</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B145" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B146" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
@@ -6787,15 +6577,15 @@
         <v>5</v>
       </c>
       <c r="B147" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B148" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
@@ -6803,71 +6593,71 @@
         <v>5</v>
       </c>
       <c r="B149" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B151" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B152" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B153" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B154" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B155" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B156" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B157" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
@@ -6875,15 +6665,15 @@
         <v>7</v>
       </c>
       <c r="B158" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B159" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
@@ -6891,87 +6681,87 @@
         <v>7</v>
       </c>
       <c r="B160" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B161" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B162" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B163" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B164" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B165" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B166" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B167" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B168" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B169" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B170" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
@@ -6979,55 +6769,55 @@
         <v>5</v>
       </c>
       <c r="B171" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B172" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B173" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B174" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B175" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B176" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B177" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
@@ -7035,15 +6825,15 @@
         <v>7</v>
       </c>
       <c r="B178" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B179" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
@@ -7051,103 +6841,103 @@
         <v>7</v>
       </c>
       <c r="B180" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B181" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B182" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B183" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B184" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B185" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B186" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B187" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B188" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B189" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B190" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B191" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B192" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
@@ -7155,116 +6945,116 @@
         <v>7</v>
       </c>
       <c r="B193" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B194" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B195" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B196" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B197" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B198" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B199" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B200" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B201" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B202" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B204" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B205" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B206" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B207" t="s">
         <v>37</v>
@@ -7275,15 +7065,15 @@
         <v>9</v>
       </c>
       <c r="B208" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B209" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
@@ -7291,63 +7081,63 @@
         <v>9</v>
       </c>
       <c r="B210" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B211" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B212" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B213" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B214" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B215" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B216" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B217" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
@@ -7355,39 +7145,39 @@
         <v>3</v>
       </c>
       <c r="B218" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B219" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B220" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B221" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B222" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
@@ -7395,79 +7185,79 @@
         <v>1</v>
       </c>
       <c r="B223" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B224" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B225" t="s">
-        <v>17</v>
+        <v>637</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B226" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B227" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B228" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B229" t="s">
-        <v>11</v>
+        <v>723</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B230" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
@@ -7475,22 +7265,46 @@
         <v>5</v>
       </c>
       <c r="B233" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B234" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
+        <v>7</v>
+      </c>
+      <c r="B235" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>5</v>
+      </c>
+      <c r="B236" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>3</v>
+      </c>
+      <c r="B237" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
         <v>1</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B238" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7503,7 +7317,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A8DCE4-66C8-493B-8FD5-7B82DB4224C4}">
   <dimension ref="A1:B247"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="B241" sqref="B241"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -7513,1119 +7329,1119 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>772</v>
+        <v>554</v>
       </c>
       <c r="B2" t="s">
-        <v>793</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>772</v>
+        <v>554</v>
       </c>
       <c r="B3" t="s">
-        <v>792</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>772</v>
+        <v>554</v>
       </c>
       <c r="B4" t="s">
-        <v>791</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>772</v>
+        <v>554</v>
       </c>
       <c r="B5" t="s">
-        <v>790</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>772</v>
+        <v>554</v>
       </c>
       <c r="B6" t="s">
-        <v>789</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>772</v>
+        <v>554</v>
       </c>
       <c r="B7" t="s">
-        <v>788</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>772</v>
+        <v>554</v>
       </c>
       <c r="B8" t="s">
-        <v>787</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>772</v>
+        <v>554</v>
       </c>
       <c r="B9" t="s">
-        <v>786</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>772</v>
+        <v>554</v>
       </c>
       <c r="B10" t="s">
-        <v>785</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>772</v>
+        <v>554</v>
       </c>
       <c r="B11" t="s">
-        <v>784</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>772</v>
+        <v>554</v>
       </c>
       <c r="B12" t="s">
-        <v>783</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>772</v>
+        <v>554</v>
       </c>
       <c r="B13" t="s">
-        <v>782</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>772</v>
+        <v>554</v>
       </c>
       <c r="B14" t="s">
-        <v>781</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>772</v>
+        <v>554</v>
       </c>
       <c r="B15" t="s">
-        <v>780</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>772</v>
+        <v>554</v>
       </c>
       <c r="B16" t="s">
-        <v>779</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>772</v>
+        <v>554</v>
       </c>
       <c r="B17" t="s">
-        <v>778</v>
+        <v>564</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>772</v>
+        <v>554</v>
       </c>
       <c r="B18" t="s">
-        <v>777</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>772</v>
+        <v>554</v>
       </c>
       <c r="B19" t="s">
-        <v>776</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>772</v>
+        <v>554</v>
       </c>
       <c r="B20" t="s">
-        <v>775</v>
+        <v>566</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>772</v>
+        <v>554</v>
       </c>
       <c r="B21" t="s">
-        <v>774</v>
+        <v>567</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>772</v>
+        <v>554</v>
       </c>
       <c r="B22" t="s">
-        <v>350</v>
+        <v>568</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>772</v>
+        <v>554</v>
       </c>
       <c r="B23" t="s">
-        <v>773</v>
+        <v>569</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>772</v>
+        <v>554</v>
       </c>
       <c r="B24" t="s">
-        <v>771</v>
+        <v>570</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>755</v>
+        <v>553</v>
       </c>
       <c r="B25" t="s">
-        <v>770</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>755</v>
+        <v>553</v>
       </c>
       <c r="B26" t="s">
-        <v>769</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>755</v>
+        <v>553</v>
       </c>
       <c r="B27" t="s">
-        <v>768</v>
+        <v>571</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>755</v>
+        <v>553</v>
       </c>
       <c r="B28" t="s">
-        <v>767</v>
+        <v>572</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>755</v>
+        <v>553</v>
       </c>
       <c r="B29" t="s">
-        <v>766</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>755</v>
+        <v>553</v>
       </c>
       <c r="B30" t="s">
-        <v>765</v>
+        <v>512</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>755</v>
+        <v>553</v>
       </c>
       <c r="B31" t="s">
-        <v>764</v>
+        <v>573</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>755</v>
+        <v>553</v>
       </c>
       <c r="B32" t="s">
-        <v>763</v>
+        <v>574</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>755</v>
+        <v>553</v>
       </c>
       <c r="B33" t="s">
-        <v>762</v>
+        <v>575</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>755</v>
+        <v>553</v>
       </c>
       <c r="B34" t="s">
-        <v>761</v>
+        <v>576</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>755</v>
+        <v>553</v>
       </c>
       <c r="B35" t="s">
-        <v>760</v>
+        <v>577</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>755</v>
+        <v>553</v>
       </c>
       <c r="B36" t="s">
-        <v>759</v>
+        <v>578</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>755</v>
+        <v>553</v>
       </c>
       <c r="B37" t="s">
-        <v>758</v>
+        <v>579</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>755</v>
+        <v>553</v>
       </c>
       <c r="B38" t="s">
-        <v>757</v>
+        <v>428</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>755</v>
+        <v>553</v>
       </c>
       <c r="B39" t="s">
-        <v>756</v>
+        <v>580</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>755</v>
+        <v>553</v>
       </c>
       <c r="B40" t="s">
-        <v>754</v>
+        <v>581</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>737</v>
+        <v>552</v>
       </c>
       <c r="B41" t="s">
-        <v>753</v>
+        <v>582</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>737</v>
+        <v>552</v>
       </c>
       <c r="B42" t="s">
-        <v>752</v>
+        <v>583</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>737</v>
+        <v>552</v>
       </c>
       <c r="B43" t="s">
-        <v>751</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>737</v>
+        <v>552</v>
       </c>
       <c r="B44" t="s">
-        <v>750</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>737</v>
+        <v>552</v>
       </c>
       <c r="B45" t="s">
-        <v>749</v>
+        <v>276</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>737</v>
+        <v>552</v>
       </c>
       <c r="B46" t="s">
-        <v>748</v>
+        <v>584</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>737</v>
+        <v>552</v>
       </c>
       <c r="B47" t="s">
-        <v>747</v>
+        <v>585</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>737</v>
+        <v>552</v>
       </c>
       <c r="B48" t="s">
-        <v>746</v>
+        <v>586</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>737</v>
+        <v>552</v>
       </c>
       <c r="B49" t="s">
-        <v>745</v>
+        <v>587</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>737</v>
+        <v>552</v>
       </c>
       <c r="B50" t="s">
-        <v>744</v>
+        <v>588</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>737</v>
+        <v>552</v>
       </c>
       <c r="B51" t="s">
-        <v>743</v>
+        <v>589</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>737</v>
+        <v>552</v>
       </c>
       <c r="B52" t="s">
-        <v>742</v>
+        <v>508</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>737</v>
+        <v>552</v>
       </c>
       <c r="B53" t="s">
-        <v>741</v>
+        <v>590</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>737</v>
+        <v>552</v>
       </c>
       <c r="B54" t="s">
-        <v>740</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>737</v>
+        <v>552</v>
       </c>
       <c r="B55" t="s">
-        <v>739</v>
+        <v>591</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>737</v>
+        <v>552</v>
       </c>
       <c r="B56" t="s">
-        <v>738</v>
+        <v>592</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>737</v>
+        <v>552</v>
       </c>
       <c r="B57" t="s">
-        <v>736</v>
+        <v>593</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>719</v>
+        <v>551</v>
       </c>
       <c r="B58" t="s">
-        <v>735</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>719</v>
+        <v>551</v>
       </c>
       <c r="B59" t="s">
-        <v>734</v>
+        <v>378</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>719</v>
+        <v>551</v>
       </c>
       <c r="B60" t="s">
-        <v>733</v>
+        <v>594</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>719</v>
+        <v>551</v>
       </c>
       <c r="B61" t="s">
-        <v>732</v>
+        <v>595</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>719</v>
+        <v>551</v>
       </c>
       <c r="B62" t="s">
-        <v>731</v>
+        <v>470</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>719</v>
+        <v>551</v>
       </c>
       <c r="B63" t="s">
-        <v>730</v>
+        <v>596</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>719</v>
+        <v>551</v>
       </c>
       <c r="B64" t="s">
-        <v>729</v>
+        <v>394</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>719</v>
+        <v>551</v>
       </c>
       <c r="B65" t="s">
-        <v>728</v>
+        <v>597</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>719</v>
+        <v>551</v>
       </c>
       <c r="B66" t="s">
-        <v>727</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>719</v>
+        <v>551</v>
       </c>
       <c r="B67" t="s">
-        <v>726</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>719</v>
+        <v>551</v>
       </c>
       <c r="B68" t="s">
-        <v>725</v>
+        <v>598</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>719</v>
+        <v>551</v>
       </c>
       <c r="B69" t="s">
-        <v>724</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>719</v>
+        <v>551</v>
       </c>
       <c r="B70" t="s">
-        <v>723</v>
+        <v>599</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>719</v>
+        <v>551</v>
       </c>
       <c r="B71" t="s">
-        <v>722</v>
+        <v>600</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>719</v>
+        <v>551</v>
       </c>
       <c r="B72" t="s">
-        <v>721</v>
+        <v>345</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>719</v>
+        <v>551</v>
       </c>
       <c r="B73" t="s">
-        <v>720</v>
+        <v>601</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>719</v>
+        <v>551</v>
       </c>
       <c r="B74" t="s">
-        <v>718</v>
+        <v>602</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B75" t="s">
-        <v>717</v>
+        <v>603</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B76" t="s">
-        <v>716</v>
+        <v>604</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B77" t="s">
-        <v>715</v>
+        <v>605</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B78" t="s">
-        <v>714</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B79" t="s">
-        <v>713</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B80" t="s">
-        <v>712</v>
+        <v>606</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B81" t="s">
-        <v>711</v>
+        <v>397</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B82" t="s">
-        <v>710</v>
+        <v>607</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B83" t="s">
-        <v>709</v>
+        <v>608</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B84" t="s">
-        <v>708</v>
+        <v>269</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B85" t="s">
-        <v>707</v>
+        <v>609</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B86" t="s">
-        <v>706</v>
+        <v>487</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B87" t="s">
-        <v>705</v>
+        <v>610</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B88" t="s">
-        <v>704</v>
+        <v>611</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B89" t="s">
-        <v>703</v>
+        <v>612</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B90" t="s">
-        <v>702</v>
+        <v>613</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B91" t="s">
-        <v>701</v>
+        <v>614</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B92" t="s">
-        <v>700</v>
+        <v>615</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B93" t="s">
-        <v>699</v>
+        <v>616</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B94" t="s">
-        <v>698</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B95" t="s">
-        <v>697</v>
+        <v>617</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B96" t="s">
-        <v>696</v>
+        <v>618</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B97" t="s">
-        <v>695</v>
+        <v>411</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B98" t="s">
-        <v>694</v>
+        <v>619</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B99" t="s">
-        <v>693</v>
+        <v>620</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B100" t="s">
-        <v>692</v>
+        <v>621</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B101" t="s">
-        <v>691</v>
+        <v>622</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B102" t="s">
-        <v>690</v>
+        <v>623</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>685</v>
+        <v>550</v>
       </c>
       <c r="B103" t="s">
-        <v>689</v>
+        <v>624</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>685</v>
+        <v>550</v>
       </c>
       <c r="B104" t="s">
-        <v>688</v>
+        <v>625</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>685</v>
+        <v>550</v>
       </c>
       <c r="B105" t="s">
-        <v>687</v>
+        <v>626</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>685</v>
+        <v>550</v>
       </c>
       <c r="B106" t="s">
-        <v>686</v>
+        <v>627</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>685</v>
+        <v>550</v>
       </c>
       <c r="B107" t="s">
-        <v>684</v>
+        <v>628</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>675</v>
+        <v>549</v>
       </c>
       <c r="B108" t="s">
-        <v>683</v>
+        <v>629</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>675</v>
+        <v>549</v>
       </c>
       <c r="B109" t="s">
-        <v>379</v>
+        <v>630</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>675</v>
+        <v>549</v>
       </c>
       <c r="B110" t="s">
-        <v>682</v>
+        <v>631</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>675</v>
+        <v>549</v>
       </c>
       <c r="B111" t="s">
-        <v>681</v>
+        <v>632</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>675</v>
+        <v>549</v>
       </c>
       <c r="B112" t="s">
-        <v>680</v>
+        <v>633</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>675</v>
+        <v>549</v>
       </c>
       <c r="B113" t="s">
-        <v>679</v>
+        <v>634</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>675</v>
+        <v>549</v>
       </c>
       <c r="B114" t="s">
-        <v>678</v>
+        <v>635</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>675</v>
+        <v>549</v>
       </c>
       <c r="B115" t="s">
-        <v>677</v>
+        <v>636</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>675</v>
+        <v>549</v>
       </c>
       <c r="B116" t="s">
-        <v>676</v>
+        <v>637</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>675</v>
+        <v>549</v>
       </c>
       <c r="B117" t="s">
-        <v>674</v>
+        <v>638</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>658</v>
+        <v>548</v>
       </c>
       <c r="B118" t="s">
-        <v>673</v>
+        <v>211</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>658</v>
+        <v>548</v>
       </c>
       <c r="B119" t="s">
-        <v>672</v>
+        <v>336</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>658</v>
+        <v>548</v>
       </c>
       <c r="B120" t="s">
-        <v>671</v>
+        <v>207</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>658</v>
+        <v>548</v>
       </c>
       <c r="B121" t="s">
-        <v>295</v>
+        <v>639</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>658</v>
+        <v>548</v>
       </c>
       <c r="B122" t="s">
-        <v>670</v>
+        <v>640</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>658</v>
+        <v>548</v>
       </c>
       <c r="B123" t="s">
-        <v>669</v>
+        <v>641</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>658</v>
+        <v>548</v>
       </c>
       <c r="B124" t="s">
-        <v>668</v>
+        <v>87</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>658</v>
+        <v>548</v>
       </c>
       <c r="B125" t="s">
-        <v>667</v>
+        <v>76</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>658</v>
+        <v>548</v>
       </c>
       <c r="B126" t="s">
-        <v>666</v>
+        <v>63</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>658</v>
+        <v>548</v>
       </c>
       <c r="B127" t="s">
-        <v>665</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>658</v>
+        <v>548</v>
       </c>
       <c r="B128" t="s">
-        <v>664</v>
+        <v>642</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>658</v>
+        <v>548</v>
       </c>
       <c r="B129" t="s">
-        <v>663</v>
+        <v>643</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>658</v>
+        <v>548</v>
       </c>
       <c r="B130" t="s">
-        <v>662</v>
+        <v>644</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>658</v>
+        <v>548</v>
       </c>
       <c r="B131" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>658</v>
+        <v>548</v>
       </c>
       <c r="B132" t="s">
-        <v>660</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>658</v>
+        <v>548</v>
       </c>
       <c r="B133" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>658</v>
+        <v>548</v>
       </c>
       <c r="B134" t="s">
-        <v>657</v>
+        <v>504</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>640</v>
+        <v>547</v>
       </c>
       <c r="B135" t="s">
-        <v>656</v>
+        <v>234</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>640</v>
+        <v>547</v>
       </c>
       <c r="B136" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>640</v>
+        <v>547</v>
       </c>
       <c r="B137" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>640</v>
+        <v>547</v>
       </c>
       <c r="B138" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>640</v>
+        <v>547</v>
       </c>
       <c r="B139" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>640</v>
+        <v>547</v>
       </c>
       <c r="B140" t="s">
         <v>651</v>
@@ -8633,858 +8449,858 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>640</v>
+        <v>547</v>
       </c>
       <c r="B141" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>640</v>
+        <v>547</v>
       </c>
       <c r="B142" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>640</v>
+        <v>547</v>
       </c>
       <c r="B143" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>640</v>
+        <v>547</v>
       </c>
       <c r="B144" t="s">
-        <v>647</v>
+        <v>416</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>640</v>
+        <v>547</v>
       </c>
       <c r="B145" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>640</v>
+        <v>547</v>
       </c>
       <c r="B146" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>640</v>
+        <v>547</v>
       </c>
       <c r="B147" t="s">
-        <v>370</v>
+        <v>657</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>640</v>
+        <v>547</v>
       </c>
       <c r="B148" t="s">
-        <v>644</v>
+        <v>658</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>640</v>
+        <v>547</v>
       </c>
       <c r="B149" t="s">
-        <v>643</v>
+        <v>83</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>640</v>
+        <v>547</v>
       </c>
       <c r="B150" t="s">
-        <v>642</v>
+        <v>659</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>640</v>
+        <v>547</v>
       </c>
       <c r="B151" t="s">
-        <v>641</v>
+        <v>27</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>640</v>
+        <v>547</v>
       </c>
       <c r="B152" t="s">
-        <v>405</v>
+        <v>660</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>640</v>
+        <v>547</v>
       </c>
       <c r="B153" t="s">
-        <v>639</v>
+        <v>661</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
       <c r="B154" t="s">
-        <v>638</v>
+        <v>662</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
       <c r="B155" t="s">
-        <v>637</v>
+        <v>663</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
       <c r="B156" t="s">
-        <v>636</v>
+        <v>664</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
       <c r="B157" t="s">
-        <v>635</v>
+        <v>665</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
       <c r="B158" t="s">
-        <v>634</v>
+        <v>666</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
       <c r="B159" t="s">
-        <v>633</v>
+        <v>667</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
       <c r="B160" t="s">
-        <v>632</v>
+        <v>668</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
       <c r="B161" t="s">
-        <v>631</v>
+        <v>669</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
       <c r="B162" t="s">
-        <v>630</v>
+        <v>670</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
       <c r="B163" t="s">
-        <v>629</v>
+        <v>671</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
       <c r="B164" t="s">
-        <v>628</v>
+        <v>268</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
       <c r="B165" t="s">
-        <v>627</v>
+        <v>672</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
       <c r="B166" t="s">
-        <v>626</v>
+        <v>673</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
       <c r="B167" t="s">
-        <v>625</v>
+        <v>674</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
       <c r="B168" t="s">
-        <v>624</v>
+        <v>675</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
       <c r="B169" t="s">
-        <v>513</v>
+        <v>68</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
       <c r="B170" t="s">
-        <v>623</v>
+        <v>676</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
       <c r="B171" t="s">
-        <v>622</v>
+        <v>677</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
       <c r="B172" t="s">
-        <v>621</v>
+        <v>678</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
       <c r="B173" t="s">
-        <v>620</v>
+        <v>254</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
       <c r="B174" t="s">
-        <v>619</v>
+        <v>546</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
       <c r="B175" t="s">
-        <v>618</v>
+        <v>253</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
       <c r="B176" t="s">
-        <v>617</v>
+        <v>352</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
       <c r="B177" t="s">
-        <v>616</v>
+        <v>679</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
       <c r="B178" t="s">
-        <v>615</v>
+        <v>680</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
       <c r="B179" t="s">
-        <v>614</v>
+        <v>681</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
       <c r="B180" t="s">
-        <v>613</v>
+        <v>682</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
       <c r="B181" t="s">
-        <v>611</v>
+        <v>683</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>591</v>
+        <v>544</v>
       </c>
       <c r="B182" t="s">
-        <v>610</v>
+        <v>287</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>591</v>
+        <v>544</v>
       </c>
       <c r="B183" t="s">
-        <v>609</v>
+        <v>684</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>591</v>
+        <v>544</v>
       </c>
       <c r="B184" t="s">
-        <v>608</v>
+        <v>215</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>591</v>
+        <v>544</v>
       </c>
       <c r="B185" t="s">
-        <v>607</v>
+        <v>685</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>591</v>
+        <v>544</v>
       </c>
       <c r="B186" t="s">
-        <v>606</v>
+        <v>686</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>591</v>
+        <v>544</v>
       </c>
       <c r="B187" t="s">
-        <v>605</v>
+        <v>313</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>591</v>
+        <v>544</v>
       </c>
       <c r="B188" t="s">
-        <v>604</v>
+        <v>687</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>591</v>
+        <v>544</v>
       </c>
       <c r="B189" t="s">
-        <v>603</v>
+        <v>688</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>591</v>
+        <v>544</v>
       </c>
       <c r="B190" t="s">
-        <v>602</v>
+        <v>305</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>591</v>
+        <v>544</v>
       </c>
       <c r="B191" t="s">
-        <v>601</v>
+        <v>689</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>591</v>
+        <v>544</v>
       </c>
       <c r="B192" t="s">
-        <v>600</v>
+        <v>690</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>591</v>
+        <v>544</v>
       </c>
       <c r="B193" t="s">
-        <v>599</v>
+        <v>691</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>591</v>
+        <v>544</v>
       </c>
       <c r="B194" t="s">
-        <v>598</v>
+        <v>80</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>591</v>
+        <v>544</v>
       </c>
       <c r="B195" t="s">
-        <v>597</v>
+        <v>67</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>591</v>
+        <v>544</v>
       </c>
       <c r="B196" t="s">
-        <v>596</v>
+        <v>57</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>591</v>
+        <v>544</v>
       </c>
       <c r="B197" t="s">
-        <v>595</v>
+        <v>692</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>591</v>
+        <v>544</v>
       </c>
       <c r="B198" t="s">
-        <v>594</v>
+        <v>21</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>591</v>
+        <v>544</v>
       </c>
       <c r="B199" t="s">
-        <v>593</v>
+        <v>693</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>591</v>
+        <v>544</v>
       </c>
       <c r="B200" t="s">
-        <v>592</v>
+        <v>694</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>591</v>
+        <v>544</v>
       </c>
       <c r="B201" t="s">
-        <v>240</v>
+        <v>695</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="B202" t="s">
-        <v>590</v>
+        <v>696</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="B203" t="s">
-        <v>589</v>
+        <v>697</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="B204" t="s">
-        <v>588</v>
+        <v>206</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="B205" t="s">
-        <v>587</v>
+        <v>180</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="B206" t="s">
-        <v>586</v>
+        <v>698</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="B207" t="s">
-        <v>585</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="B208" t="s">
-        <v>584</v>
+        <v>699</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="B209" t="s">
-        <v>583</v>
+        <v>311</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="B210" t="s">
-        <v>582</v>
+        <v>700</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="B211" t="s">
-        <v>581</v>
+        <v>114</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="B212" t="s">
-        <v>580</v>
+        <v>701</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="B213" t="s">
-        <v>579</v>
+        <v>702</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="B214" t="s">
-        <v>578</v>
+        <v>703</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="B215" t="s">
-        <v>577</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="B216" t="s">
-        <v>576</v>
+        <v>704</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="B217" t="s">
-        <v>575</v>
+        <v>705</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="B218" t="s">
-        <v>574</v>
+        <v>706</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="B219" t="s">
-        <v>573</v>
+        <v>707</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="B220" t="s">
-        <v>572</v>
+        <v>241</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="B221" t="s">
-        <v>571</v>
+        <v>708</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="B222" t="s">
-        <v>570</v>
+        <v>343</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="B223" t="s">
-        <v>568</v>
+        <v>6</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B224" t="s">
-        <v>567</v>
+        <v>228</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B225" t="s">
-        <v>566</v>
+        <v>709</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B226" t="s">
-        <v>565</v>
+        <v>710</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B227" t="s">
-        <v>564</v>
+        <v>711</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B228" t="s">
-        <v>563</v>
+        <v>209</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B229" t="s">
-        <v>562</v>
+        <v>712</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B230" t="s">
-        <v>561</v>
+        <v>198</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B231" t="s">
-        <v>560</v>
+        <v>713</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B232" t="s">
-        <v>559</v>
+        <v>714</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B233" t="s">
-        <v>558</v>
+        <v>413</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B234" t="s">
-        <v>557</v>
+        <v>715</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B235" t="s">
-        <v>556</v>
+        <v>65</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B236" t="s">
-        <v>555</v>
+        <v>716</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B237" t="s">
-        <v>554</v>
+        <v>358</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B238" t="s">
-        <v>553</v>
+        <v>59</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B239" t="s">
-        <v>552</v>
+        <v>717</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B240" t="s">
-        <v>551</v>
+        <v>48</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B241" t="s">
-        <v>409</v>
+        <v>44</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B242" t="s">
-        <v>550</v>
+        <v>507</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B243" t="s">
-        <v>549</v>
+        <v>718</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B244" t="s">
-        <v>548</v>
+        <v>719</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B245" t="s">
-        <v>547</v>
+        <v>344</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B246" t="s">
-        <v>546</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B247" t="s">
-        <v>544</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/counties_towns.xlsx
+++ b/counties_towns.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WesleyOke_apuylaw\Google Drive\Share\School\Waterloo\Statistics\ds2_project\election_2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74875816-ADC6-475E-8A1C-6B6CBB19115B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7380BC15-FA7E-4B91-ABA3-5D30633D05FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16430" yWindow="2470" windowWidth="19960" windowHeight="12700" activeTab="1" xr2:uid="{1CE7BFA9-C5EC-4750-BE10-2D699AFF6846}"/>
+    <workbookView xWindow="17240" yWindow="2850" windowWidth="19960" windowHeight="12700" activeTab="2" xr2:uid="{1CE7BFA9-C5EC-4750-BE10-2D699AFF6846}"/>
   </bookViews>
   <sheets>
     <sheet name="MA" sheetId="4" r:id="rId1"/>
     <sheet name="NH" sheetId="3" r:id="rId2"/>
-    <sheet name="VT" sheetId="5" r:id="rId3"/>
+    <sheet name="CT" sheetId="6" r:id="rId3"/>
+    <sheet name="VT" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="805">
   <si>
     <t>Woodstock</t>
   </si>
@@ -2208,13 +2209,256 @@
   </si>
   <si>
     <t>Wentworth's Location</t>
+  </si>
+  <si>
+    <t>Ansonia</t>
+  </si>
+  <si>
+    <t>Ashford</t>
+  </si>
+  <si>
+    <t>Barkhamsted</t>
+  </si>
+  <si>
+    <t>Beacon Falls</t>
+  </si>
+  <si>
+    <t>Bethany</t>
+  </si>
+  <si>
+    <t>Woodbridge</t>
+  </si>
+  <si>
+    <t>Bozrah</t>
+  </si>
+  <si>
+    <t>Branford</t>
+  </si>
+  <si>
+    <t>Bridgeport</t>
+  </si>
+  <si>
+    <t>New Milford</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
+  </si>
+  <si>
+    <t>Simsbury</t>
+  </si>
+  <si>
+    <t>Chaplin</t>
+  </si>
+  <si>
+    <t>Killingworth</t>
+  </si>
+  <si>
+    <t>Cromwell</t>
+  </si>
+  <si>
+    <t>Middletown</t>
+  </si>
+  <si>
+    <t>Darien</t>
+  </si>
+  <si>
+    <t>Deep River</t>
+  </si>
+  <si>
+    <t>East Granby</t>
+  </si>
+  <si>
+    <t>East Haddam</t>
+  </si>
+  <si>
+    <t>Haddam</t>
+  </si>
+  <si>
+    <t>East Hampton</t>
+  </si>
+  <si>
+    <t>East Hartford</t>
+  </si>
+  <si>
+    <t>East Lyme</t>
+  </si>
+  <si>
+    <t>East Windsor</t>
+  </si>
+  <si>
+    <t>Eastford</t>
+  </si>
+  <si>
+    <t>Ellington</t>
+  </si>
+  <si>
+    <t>Glastonbury</t>
+  </si>
+  <si>
+    <t>Wethersfield</t>
+  </si>
+  <si>
+    <t>Greenwich</t>
+  </si>
+  <si>
+    <t>Griswold</t>
+  </si>
+  <si>
+    <t>Preston</t>
+  </si>
+  <si>
+    <t>Hamden</t>
+  </si>
+  <si>
+    <t>Harwinton</t>
+  </si>
+  <si>
+    <t>Kent</t>
+  </si>
+  <si>
+    <t>Killingly</t>
+  </si>
+  <si>
+    <t>Ledyard</t>
+  </si>
+  <si>
+    <t>Meriden</t>
+  </si>
+  <si>
+    <t>Montville</t>
+  </si>
+  <si>
+    <t>Morris</t>
+  </si>
+  <si>
+    <t>Naugatuck</t>
+  </si>
+  <si>
+    <t>New Britain</t>
+  </si>
+  <si>
+    <t>New Canaan</t>
+  </si>
+  <si>
+    <t>New Fairfield</t>
+  </si>
+  <si>
+    <t>New Hartford</t>
+  </si>
+  <si>
+    <t>Newtown</t>
+  </si>
+  <si>
+    <t>North Branford</t>
+  </si>
+  <si>
+    <t>North Canaan</t>
+  </si>
+  <si>
+    <t>North Haven</t>
+  </si>
+  <si>
+    <t>North Stonington</t>
+  </si>
+  <si>
+    <t>Stonington</t>
+  </si>
+  <si>
+    <t>Norwalk</t>
+  </si>
+  <si>
+    <t>Old Lyme</t>
+  </si>
+  <si>
+    <t>Old Saybrook</t>
+  </si>
+  <si>
+    <t>Portland</t>
+  </si>
+  <si>
+    <t>Prospect</t>
+  </si>
+  <si>
+    <t>Putnam</t>
+  </si>
+  <si>
+    <t>Redding</t>
+  </si>
+  <si>
+    <t>Ridgefield</t>
+  </si>
+  <si>
+    <t>Rocky Hill</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Seymour</t>
+  </si>
+  <si>
+    <t>Shelton</t>
+  </si>
+  <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Somers</t>
+  </si>
+  <si>
+    <t>South Windsor</t>
+  </si>
+  <si>
+    <t>Southbury</t>
+  </si>
+  <si>
+    <t>Southington</t>
+  </si>
+  <si>
+    <t>Sprague</t>
+  </si>
+  <si>
+    <t>Stafford</t>
+  </si>
+  <si>
+    <t>Voluntown</t>
+  </si>
+  <si>
+    <t>Suffield</t>
+  </si>
+  <si>
+    <t>Thomaston</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Torrington</t>
+  </si>
+  <si>
+    <t>Trumbull</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>West Hartford</t>
+  </si>
+  <si>
+    <t>Westbrook</t>
+  </si>
+  <si>
+    <t>Willington</t>
+  </si>
+  <si>
+    <t>Windsor Locks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2222,16 +2466,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF111111"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF111111"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2239,12 +2507,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2563,13 +2852,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="16.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>236</v>
       </c>
@@ -2577,7 +2866,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>529</v>
       </c>
@@ -2585,7 +2874,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>529</v>
       </c>
@@ -2593,7 +2882,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>529</v>
       </c>
@@ -2601,7 +2890,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>529</v>
       </c>
@@ -2609,7 +2898,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>529</v>
       </c>
@@ -2617,7 +2906,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>529</v>
       </c>
@@ -2625,7 +2914,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>529</v>
       </c>
@@ -2633,7 +2922,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>529</v>
       </c>
@@ -2641,7 +2930,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>529</v>
       </c>
@@ -2649,7 +2938,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>529</v>
       </c>
@@ -2657,7 +2946,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>529</v>
       </c>
@@ -2665,7 +2954,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>529</v>
       </c>
@@ -2673,7 +2962,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>529</v>
       </c>
@@ -2681,7 +2970,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>529</v>
       </c>
@@ -2689,7 +2978,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>529</v>
       </c>
@@ -2697,7 +2986,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>503</v>
       </c>
@@ -2705,7 +2994,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>503</v>
       </c>
@@ -2713,7 +3002,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>503</v>
       </c>
@@ -2721,7 +3010,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>503</v>
       </c>
@@ -2729,7 +3018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>503</v>
       </c>
@@ -2737,7 +3026,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>503</v>
       </c>
@@ -2745,7 +3034,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>503</v>
       </c>
@@ -2753,7 +3042,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>503</v>
       </c>
@@ -2761,7 +3050,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>503</v>
       </c>
@@ -2769,7 +3058,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>503</v>
       </c>
@@ -2777,7 +3066,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>503</v>
       </c>
@@ -2785,7 +3074,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>503</v>
       </c>
@@ -2793,7 +3082,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>503</v>
       </c>
@@ -2801,7 +3090,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>503</v>
       </c>
@@ -2809,7 +3098,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>503</v>
       </c>
@@ -2817,7 +3106,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>503</v>
       </c>
@@ -2825,7 +3114,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>503</v>
       </c>
@@ -2833,7 +3122,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>503</v>
       </c>
@@ -2841,7 +3130,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>503</v>
       </c>
@@ -2849,7 +3138,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>503</v>
       </c>
@@ -2857,7 +3146,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>503</v>
       </c>
@@ -2865,7 +3154,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>503</v>
       </c>
@@ -2873,7 +3162,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>503</v>
       </c>
@@ -2881,7 +3170,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>503</v>
       </c>
@@ -2889,7 +3178,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>503</v>
       </c>
@@ -2897,7 +3186,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>503</v>
       </c>
@@ -2905,7 +3194,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>503</v>
       </c>
@@ -2913,7 +3202,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>503</v>
       </c>
@@ -2921,7 +3210,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>503</v>
       </c>
@@ -2929,7 +3218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>503</v>
       </c>
@@ -2937,7 +3226,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>503</v>
       </c>
@@ -2945,7 +3234,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>503</v>
       </c>
@@ -2953,7 +3242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>476</v>
       </c>
@@ -2961,7 +3250,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>478</v>
       </c>
@@ -2969,7 +3258,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>476</v>
       </c>
@@ -2977,7 +3266,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>476</v>
       </c>
@@ -2985,7 +3274,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>478</v>
       </c>
@@ -2993,7 +3282,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>476</v>
       </c>
@@ -3001,7 +3290,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>476</v>
       </c>
@@ -3009,7 +3298,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>476</v>
       </c>
@@ -3017,7 +3306,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>478</v>
       </c>
@@ -3025,7 +3314,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>476</v>
       </c>
@@ -3033,7 +3322,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>476</v>
       </c>
@@ -3041,7 +3330,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>476</v>
       </c>
@@ -3049,7 +3338,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>478</v>
       </c>
@@ -3057,7 +3346,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>476</v>
       </c>
@@ -3065,7 +3354,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>476</v>
       </c>
@@ -3073,7 +3362,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>476</v>
       </c>
@@ -3081,7 +3370,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>476</v>
       </c>
@@ -3089,7 +3378,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>478</v>
       </c>
@@ -3097,7 +3386,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>476</v>
       </c>
@@ -3105,7 +3394,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>476</v>
       </c>
@@ -3113,7 +3402,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>476</v>
       </c>
@@ -3121,7 +3410,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>476</v>
       </c>
@@ -3129,7 +3418,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>476</v>
       </c>
@@ -3137,7 +3426,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>476</v>
       </c>
@@ -3145,7 +3434,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>478</v>
       </c>
@@ -3153,7 +3442,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>478</v>
       </c>
@@ -3161,7 +3450,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>476</v>
       </c>
@@ -3169,7 +3458,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>445</v>
       </c>
@@ -3177,7 +3466,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>445</v>
       </c>
@@ -3185,7 +3474,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>445</v>
       </c>
@@ -3193,7 +3482,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>445</v>
       </c>
@@ -3201,7 +3490,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>445</v>
       </c>
@@ -3209,7 +3498,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>445</v>
       </c>
@@ -3217,7 +3506,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>445</v>
       </c>
@@ -3225,7 +3514,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>445</v>
       </c>
@@ -3233,7 +3522,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>445</v>
       </c>
@@ -3241,7 +3530,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>445</v>
       </c>
@@ -3249,7 +3538,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>445</v>
       </c>
@@ -3257,7 +3546,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>445</v>
       </c>
@@ -3265,7 +3554,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>445</v>
       </c>
@@ -3273,7 +3562,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>445</v>
       </c>
@@ -3281,7 +3570,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>445</v>
       </c>
@@ -3289,7 +3578,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>445</v>
       </c>
@@ -3297,7 +3586,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>445</v>
       </c>
@@ -3305,7 +3594,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>445</v>
       </c>
@@ -3313,7 +3602,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>445</v>
       </c>
@@ -3321,7 +3610,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>445</v>
       </c>
@@ -3329,7 +3618,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>445</v>
       </c>
@@ -3337,7 +3626,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>445</v>
       </c>
@@ -3345,7 +3634,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>445</v>
       </c>
@@ -3353,7 +3642,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>445</v>
       </c>
@@ -3361,7 +3650,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>445</v>
       </c>
@@ -3369,7 +3658,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>445</v>
       </c>
@@ -3377,7 +3666,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>445</v>
       </c>
@@ -3385,7 +3674,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>445</v>
       </c>
@@ -3393,7 +3682,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>445</v>
       </c>
@@ -3401,7 +3690,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>445</v>
       </c>
@@ -3409,7 +3698,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>445</v>
       </c>
@@ -3417,7 +3706,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>445</v>
       </c>
@@ -3425,7 +3714,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>445</v>
       </c>
@@ -3433,7 +3722,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>445</v>
       </c>
@@ -3441,7 +3730,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>425</v>
       </c>
@@ -3449,7 +3738,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>425</v>
       </c>
@@ -3457,7 +3746,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>425</v>
       </c>
@@ -3465,7 +3754,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>425</v>
       </c>
@@ -3473,7 +3762,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>425</v>
       </c>
@@ -3481,7 +3770,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>425</v>
       </c>
@@ -3489,7 +3778,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>425</v>
       </c>
@@ -3497,7 +3786,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>425</v>
       </c>
@@ -3505,7 +3794,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>425</v>
       </c>
@@ -3513,7 +3802,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>425</v>
       </c>
@@ -3521,7 +3810,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>425</v>
       </c>
@@ -3529,7 +3818,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>425</v>
       </c>
@@ -3537,7 +3826,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>425</v>
       </c>
@@ -3545,7 +3834,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>425</v>
       </c>
@@ -3553,7 +3842,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>425</v>
       </c>
@@ -3561,7 +3850,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>425</v>
       </c>
@@ -3569,7 +3858,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>425</v>
       </c>
@@ -3577,7 +3866,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>425</v>
       </c>
@@ -3585,7 +3874,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>425</v>
       </c>
@@ -3593,7 +3882,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>425</v>
       </c>
@@ -3601,7 +3890,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>425</v>
       </c>
@@ -3609,7 +3898,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>425</v>
       </c>
@@ -3617,7 +3906,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>425</v>
       </c>
@@ -3625,7 +3914,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>425</v>
       </c>
@@ -3633,7 +3922,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>425</v>
       </c>
@@ -3641,7 +3930,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>425</v>
       </c>
@@ -3649,7 +3938,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>402</v>
       </c>
@@ -3657,7 +3946,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>402</v>
       </c>
@@ -3665,7 +3954,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>402</v>
       </c>
@@ -3673,7 +3962,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>402</v>
       </c>
@@ -3681,7 +3970,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>402</v>
       </c>
@@ -3689,7 +3978,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>402</v>
       </c>
@@ -3697,7 +3986,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>402</v>
       </c>
@@ -3705,7 +3994,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>402</v>
       </c>
@@ -3713,7 +4002,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>402</v>
       </c>
@@ -3721,7 +4010,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>402</v>
       </c>
@@ -3729,7 +4018,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>402</v>
       </c>
@@ -3737,7 +4026,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>402</v>
       </c>
@@ -3745,7 +4034,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>402</v>
       </c>
@@ -3753,7 +4042,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>402</v>
       </c>
@@ -3761,7 +4050,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>402</v>
       </c>
@@ -3769,7 +4058,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>402</v>
       </c>
@@ -3777,7 +4066,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>402</v>
       </c>
@@ -3785,7 +4074,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>402</v>
       </c>
@@ -3793,7 +4082,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>402</v>
       </c>
@@ -3801,7 +4090,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>402</v>
       </c>
@@ -3809,7 +4098,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>402</v>
       </c>
@@ -3817,7 +4106,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>402</v>
       </c>
@@ -3825,7 +4114,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>402</v>
       </c>
@@ -3833,7 +4122,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>386</v>
       </c>
@@ -3841,7 +4130,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>386</v>
       </c>
@@ -3849,7 +4138,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>386</v>
       </c>
@@ -3857,7 +4146,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>386</v>
       </c>
@@ -3865,7 +4154,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>386</v>
       </c>
@@ -3873,7 +4162,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>386</v>
       </c>
@@ -3881,7 +4170,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>386</v>
       </c>
@@ -3889,7 +4178,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>386</v>
       </c>
@@ -3897,7 +4186,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>386</v>
       </c>
@@ -3905,7 +4194,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>386</v>
       </c>
@@ -3913,7 +4202,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>386</v>
       </c>
@@ -3921,7 +4210,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>386</v>
       </c>
@@ -3929,7 +4218,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>386</v>
       </c>
@@ -3937,7 +4226,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>386</v>
       </c>
@@ -3945,7 +4234,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>386</v>
       </c>
@@ -3953,7 +4242,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
         <v>386</v>
       </c>
@@ -3961,7 +4250,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
         <v>386</v>
       </c>
@@ -3969,7 +4258,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
         <v>386</v>
       </c>
@@ -3977,7 +4266,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>386</v>
       </c>
@@ -3985,7 +4274,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>386</v>
       </c>
@@ -3993,7 +4282,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
         <v>342</v>
       </c>
@@ -4001,7 +4290,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>342</v>
       </c>
@@ -4009,7 +4298,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>342</v>
       </c>
@@ -4017,7 +4306,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>342</v>
       </c>
@@ -4025,7 +4314,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>342</v>
       </c>
@@ -4033,7 +4322,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>342</v>
       </c>
@@ -4041,7 +4330,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>342</v>
       </c>
@@ -4049,7 +4338,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>342</v>
       </c>
@@ -4057,7 +4346,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>342</v>
       </c>
@@ -4065,7 +4354,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>342</v>
       </c>
@@ -4073,7 +4362,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>342</v>
       </c>
@@ -4081,7 +4370,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>342</v>
       </c>
@@ -4089,7 +4378,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>342</v>
       </c>
@@ -4097,7 +4386,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>342</v>
       </c>
@@ -4105,7 +4394,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>342</v>
       </c>
@@ -4113,7 +4402,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>342</v>
       </c>
@@ -4121,7 +4410,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>342</v>
       </c>
@@ -4129,7 +4418,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>342</v>
       </c>
@@ -4137,7 +4426,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>342</v>
       </c>
@@ -4145,7 +4434,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>342</v>
       </c>
@@ -4153,7 +4442,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>342</v>
       </c>
@@ -4161,7 +4450,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>342</v>
       </c>
@@ -4169,7 +4458,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
         <v>342</v>
       </c>
@@ -4177,7 +4466,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
         <v>342</v>
       </c>
@@ -4185,7 +4474,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
         <v>342</v>
       </c>
@@ -4193,7 +4482,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
         <v>342</v>
       </c>
@@ -4201,7 +4490,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
         <v>342</v>
       </c>
@@ -4209,7 +4498,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
         <v>342</v>
       </c>
@@ -4217,7 +4506,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
         <v>342</v>
       </c>
@@ -4225,7 +4514,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
         <v>342</v>
       </c>
@@ -4233,7 +4522,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
         <v>342</v>
       </c>
@@ -4241,7 +4530,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
         <v>342</v>
       </c>
@@ -4249,7 +4538,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2">
       <c r="A211" t="s">
         <v>342</v>
       </c>
@@ -4257,7 +4546,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2">
       <c r="A212" t="s">
         <v>342</v>
       </c>
@@ -4265,7 +4554,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2">
       <c r="A213" t="s">
         <v>342</v>
       </c>
@@ -4273,7 +4562,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2">
       <c r="A214" t="s">
         <v>342</v>
       </c>
@@ -4281,7 +4570,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2">
       <c r="A215" t="s">
         <v>342</v>
       </c>
@@ -4289,7 +4578,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2">
       <c r="A216" t="s">
         <v>342</v>
       </c>
@@ -4297,7 +4586,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2">
       <c r="A217" t="s">
         <v>342</v>
       </c>
@@ -4305,7 +4594,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2">
       <c r="A218" t="s">
         <v>342</v>
       </c>
@@ -4313,7 +4602,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2">
       <c r="A219" t="s">
         <v>342</v>
       </c>
@@ -4321,7 +4610,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2">
       <c r="A220" t="s">
         <v>342</v>
       </c>
@@ -4329,7 +4618,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2">
       <c r="A221" t="s">
         <v>342</v>
       </c>
@@ -4337,7 +4626,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2">
       <c r="A222" t="s">
         <v>342</v>
       </c>
@@ -4345,7 +4634,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2">
       <c r="A223" t="s">
         <v>342</v>
       </c>
@@ -4353,7 +4642,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2">
       <c r="A224" t="s">
         <v>342</v>
       </c>
@@ -4361,7 +4650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2">
       <c r="A225" t="s">
         <v>342</v>
       </c>
@@ -4369,7 +4658,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2">
       <c r="A226" t="s">
         <v>342</v>
       </c>
@@ -4377,7 +4666,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2">
       <c r="A227" t="s">
         <v>342</v>
       </c>
@@ -4385,7 +4674,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2">
       <c r="A228" t="s">
         <v>342</v>
       </c>
@@ -4393,7 +4682,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2">
       <c r="A229" t="s">
         <v>342</v>
       </c>
@@ -4401,7 +4690,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2">
       <c r="A230" t="s">
         <v>342</v>
       </c>
@@ -4409,7 +4698,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2">
       <c r="A231" t="s">
         <v>342</v>
       </c>
@@ -4417,7 +4706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2">
       <c r="A232" t="s">
         <v>342</v>
       </c>
@@ -4425,7 +4714,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2">
       <c r="A233" t="s">
         <v>340</v>
       </c>
@@ -4433,7 +4722,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2">
       <c r="A234" t="s">
         <v>318</v>
       </c>
@@ -4441,7 +4730,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2">
       <c r="A235" t="s">
         <v>318</v>
       </c>
@@ -4449,7 +4738,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2">
       <c r="A236" t="s">
         <v>318</v>
       </c>
@@ -4457,7 +4746,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2">
       <c r="A237" t="s">
         <v>318</v>
       </c>
@@ -4465,7 +4754,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2">
       <c r="A238" t="s">
         <v>318</v>
       </c>
@@ -4473,7 +4762,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2">
       <c r="A239" t="s">
         <v>318</v>
       </c>
@@ -4481,7 +4770,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2">
       <c r="A240" t="s">
         <v>318</v>
       </c>
@@ -4489,7 +4778,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2">
       <c r="A241" t="s">
         <v>318</v>
       </c>
@@ -4497,7 +4786,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2">
       <c r="A242" t="s">
         <v>318</v>
       </c>
@@ -4505,7 +4794,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2">
       <c r="A243" t="s">
         <v>318</v>
       </c>
@@ -4513,7 +4802,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2">
       <c r="A244" t="s">
         <v>318</v>
       </c>
@@ -4521,7 +4810,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2">
       <c r="A245" t="s">
         <v>318</v>
       </c>
@@ -4529,7 +4818,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2">
       <c r="A246" t="s">
         <v>318</v>
       </c>
@@ -4537,7 +4826,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2">
       <c r="A247" t="s">
         <v>318</v>
       </c>
@@ -4545,7 +4834,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2">
       <c r="A248" t="s">
         <v>318</v>
       </c>
@@ -4553,7 +4842,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2">
       <c r="A249" t="s">
         <v>318</v>
       </c>
@@ -4561,7 +4850,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2">
       <c r="A250" t="s">
         <v>318</v>
       </c>
@@ -4569,7 +4858,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2">
       <c r="A251" t="s">
         <v>318</v>
       </c>
@@ -4577,7 +4866,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2">
       <c r="A252" t="s">
         <v>318</v>
       </c>
@@ -4585,7 +4874,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2">
       <c r="A253" t="s">
         <v>318</v>
       </c>
@@ -4593,7 +4882,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2">
       <c r="A254" t="s">
         <v>318</v>
       </c>
@@ -4601,7 +4890,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2">
       <c r="A255" t="s">
         <v>318</v>
       </c>
@@ -4609,7 +4898,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2">
       <c r="A256" t="s">
         <v>318</v>
       </c>
@@ -4617,7 +4906,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2">
       <c r="A257" t="s">
         <v>318</v>
       </c>
@@ -4625,7 +4914,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2">
       <c r="A258" t="s">
         <v>318</v>
       </c>
@@ -4633,7 +4922,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2">
       <c r="A259" t="s">
         <v>318</v>
       </c>
@@ -4641,7 +4930,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2">
       <c r="A260" t="s">
         <v>318</v>
       </c>
@@ -4649,7 +4938,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2">
       <c r="A261" t="s">
         <v>318</v>
       </c>
@@ -4657,7 +4946,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2">
       <c r="A262" t="s">
         <v>296</v>
       </c>
@@ -4665,7 +4954,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2">
       <c r="A263" t="s">
         <v>296</v>
       </c>
@@ -4673,7 +4962,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2">
       <c r="A264" t="s">
         <v>296</v>
       </c>
@@ -4681,7 +4970,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2">
       <c r="A265" t="s">
         <v>296</v>
       </c>
@@ -4689,7 +4978,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2">
       <c r="A266" t="s">
         <v>296</v>
       </c>
@@ -4697,7 +4986,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2">
       <c r="A267" t="s">
         <v>296</v>
       </c>
@@ -4705,7 +4994,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2">
       <c r="A268" t="s">
         <v>296</v>
       </c>
@@ -4713,7 +5002,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2">
       <c r="A269" t="s">
         <v>296</v>
       </c>
@@ -4721,7 +5010,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2">
       <c r="A270" t="s">
         <v>296</v>
       </c>
@@ -4729,7 +5018,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2">
       <c r="A271" t="s">
         <v>296</v>
       </c>
@@ -4737,7 +5026,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2">
       <c r="A272" t="s">
         <v>296</v>
       </c>
@@ -4745,7 +5034,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2">
       <c r="A273" t="s">
         <v>296</v>
       </c>
@@ -4753,7 +5042,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2">
       <c r="A274" t="s">
         <v>296</v>
       </c>
@@ -4761,7 +5050,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2">
       <c r="A275" t="s">
         <v>296</v>
       </c>
@@ -4769,7 +5058,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2">
       <c r="A276" t="s">
         <v>296</v>
       </c>
@@ -4777,7 +5066,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2">
       <c r="A277" t="s">
         <v>296</v>
       </c>
@@ -4785,7 +5074,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2">
       <c r="A278" t="s">
         <v>296</v>
       </c>
@@ -4793,7 +5082,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2">
       <c r="A279" t="s">
         <v>296</v>
       </c>
@@ -4801,7 +5090,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2">
       <c r="A280" t="s">
         <v>296</v>
       </c>
@@ -4809,7 +5098,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2">
       <c r="A281" t="s">
         <v>296</v>
       </c>
@@ -4817,7 +5106,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2">
       <c r="A282" t="s">
         <v>296</v>
       </c>
@@ -4825,7 +5114,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2">
       <c r="A283" t="s">
         <v>296</v>
       </c>
@@ -4833,7 +5122,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2">
       <c r="A284" t="s">
         <v>296</v>
       </c>
@@ -4841,7 +5130,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2">
       <c r="A285" t="s">
         <v>296</v>
       </c>
@@ -4849,7 +5138,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2">
       <c r="A286" t="s">
         <v>296</v>
       </c>
@@ -4857,7 +5146,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2">
       <c r="A287" t="s">
         <v>296</v>
       </c>
@@ -4865,7 +5154,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2">
       <c r="A288" t="s">
         <v>296</v>
       </c>
@@ -4873,7 +5162,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2">
       <c r="A289" t="s">
         <v>291</v>
       </c>
@@ -4881,7 +5170,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2">
       <c r="A290" t="s">
         <v>291</v>
       </c>
@@ -4889,7 +5178,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2">
       <c r="A291" t="s">
         <v>291</v>
       </c>
@@ -4897,7 +5186,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -4905,7 +5194,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2">
       <c r="A293" t="s">
         <v>239</v>
       </c>
@@ -4913,7 +5202,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2">
       <c r="A294" t="s">
         <v>239</v>
       </c>
@@ -4921,7 +5210,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2">
       <c r="A295" t="s">
         <v>239</v>
       </c>
@@ -4929,7 +5218,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2">
       <c r="A296" t="s">
         <v>239</v>
       </c>
@@ -4937,7 +5226,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2">
       <c r="A297" t="s">
         <v>239</v>
       </c>
@@ -4945,7 +5234,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2">
       <c r="A298" t="s">
         <v>239</v>
       </c>
@@ -4953,7 +5242,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2">
       <c r="A299" t="s">
         <v>239</v>
       </c>
@@ -4961,7 +5250,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2">
       <c r="A300" t="s">
         <v>239</v>
       </c>
@@ -4969,7 +5258,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2">
       <c r="A301" t="s">
         <v>239</v>
       </c>
@@ -4977,7 +5266,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:2">
       <c r="A302" t="s">
         <v>239</v>
       </c>
@@ -4985,7 +5274,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:2">
       <c r="A303" t="s">
         <v>239</v>
       </c>
@@ -4993,7 +5282,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:2">
       <c r="A304" t="s">
         <v>239</v>
       </c>
@@ -5001,7 +5290,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:2">
       <c r="A305" t="s">
         <v>239</v>
       </c>
@@ -5009,7 +5298,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:2">
       <c r="A306" t="s">
         <v>239</v>
       </c>
@@ -5017,7 +5306,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:2">
       <c r="A307" t="s">
         <v>239</v>
       </c>
@@ -5025,7 +5314,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:2">
       <c r="A308" t="s">
         <v>239</v>
       </c>
@@ -5033,7 +5322,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:2">
       <c r="A309" t="s">
         <v>239</v>
       </c>
@@ -5041,7 +5330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:2">
       <c r="A310" t="s">
         <v>239</v>
       </c>
@@ -5049,7 +5338,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:2">
       <c r="A311" t="s">
         <v>239</v>
       </c>
@@ -5057,7 +5346,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:2">
       <c r="A312" t="s">
         <v>239</v>
       </c>
@@ -5065,7 +5354,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:2">
       <c r="A313" t="s">
         <v>239</v>
       </c>
@@ -5073,7 +5362,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:2">
       <c r="A314" t="s">
         <v>239</v>
       </c>
@@ -5081,7 +5370,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:2">
       <c r="A315" t="s">
         <v>239</v>
       </c>
@@ -5089,7 +5378,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:2">
       <c r="A316" t="s">
         <v>239</v>
       </c>
@@ -5097,7 +5386,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:2">
       <c r="A317" t="s">
         <v>239</v>
       </c>
@@ -5105,7 +5394,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:2">
       <c r="A318" t="s">
         <v>239</v>
       </c>
@@ -5113,7 +5402,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:2">
       <c r="A319" t="s">
         <v>239</v>
       </c>
@@ -5121,7 +5410,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:2">
       <c r="A320" t="s">
         <v>239</v>
       </c>
@@ -5129,7 +5418,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:2">
       <c r="A321" t="s">
         <v>239</v>
       </c>
@@ -5137,7 +5426,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:2">
       <c r="A322" t="s">
         <v>239</v>
       </c>
@@ -5145,7 +5434,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:2">
       <c r="A323" t="s">
         <v>239</v>
       </c>
@@ -5153,7 +5442,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:2">
       <c r="A324" t="s">
         <v>239</v>
       </c>
@@ -5161,7 +5450,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:2">
       <c r="A325" t="s">
         <v>239</v>
       </c>
@@ -5169,7 +5458,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:2">
       <c r="A326" t="s">
         <v>239</v>
       </c>
@@ -5177,7 +5466,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:2">
       <c r="A327" t="s">
         <v>239</v>
       </c>
@@ -5185,7 +5474,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:2">
       <c r="A328" t="s">
         <v>239</v>
       </c>
@@ -5193,7 +5482,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:2">
       <c r="A329" t="s">
         <v>239</v>
       </c>
@@ -5201,7 +5490,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:2">
       <c r="A330" t="s">
         <v>239</v>
       </c>
@@ -5209,7 +5498,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:2">
       <c r="A331" t="s">
         <v>239</v>
       </c>
@@ -5217,7 +5506,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:2">
       <c r="A332" t="s">
         <v>239</v>
       </c>
@@ -5225,7 +5514,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:2">
       <c r="A333" t="s">
         <v>239</v>
       </c>
@@ -5233,7 +5522,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:2">
       <c r="A334" t="s">
         <v>239</v>
       </c>
@@ -5241,7 +5530,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:2">
       <c r="A335" t="s">
         <v>239</v>
       </c>
@@ -5249,7 +5538,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:2">
       <c r="A336" t="s">
         <v>239</v>
       </c>
@@ -5257,7 +5546,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:2">
       <c r="A337" t="s">
         <v>239</v>
       </c>
@@ -5265,7 +5554,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:2">
       <c r="A338" t="s">
         <v>239</v>
       </c>
@@ -5273,7 +5562,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:2">
       <c r="A339" t="s">
         <v>239</v>
       </c>
@@ -5281,7 +5570,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:2">
       <c r="A340" t="s">
         <v>239</v>
       </c>
@@ -5289,7 +5578,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:2">
       <c r="A341" t="s">
         <v>239</v>
       </c>
@@ -5297,7 +5586,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:2">
       <c r="A342" t="s">
         <v>239</v>
       </c>
@@ -5305,7 +5594,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:2">
       <c r="A343" t="s">
         <v>239</v>
       </c>
@@ -5313,7 +5602,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:2">
       <c r="A344" t="s">
         <v>239</v>
       </c>
@@ -5321,7 +5610,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:2">
       <c r="A345" t="s">
         <v>239</v>
       </c>
@@ -5329,7 +5618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:2">
       <c r="A346" t="s">
         <v>239</v>
       </c>
@@ -5337,7 +5626,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:2">
       <c r="A347" t="s">
         <v>239</v>
       </c>
@@ -5345,7 +5634,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:2">
       <c r="A348" t="s">
         <v>239</v>
       </c>
@@ -5353,7 +5642,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:2">
       <c r="A349" t="s">
         <v>239</v>
       </c>
@@ -5361,7 +5650,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:2">
       <c r="A350" t="s">
         <v>239</v>
       </c>
@@ -5369,7 +5658,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:2">
       <c r="A351" t="s">
         <v>239</v>
       </c>
@@ -5377,7 +5666,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:2">
       <c r="A352" t="s">
         <v>239</v>
       </c>
@@ -5394,17 +5683,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF005B98-571D-441D-9D78-6945E23FD06D}">
   <dimension ref="A1:B238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="A230" sqref="A230"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="13.54296875" customWidth="1"/>
     <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>236</v>
       </c>
@@ -5412,7 +5701,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -5420,7 +5709,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5428,7 +5717,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -5436,7 +5725,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -5444,7 +5733,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -5452,7 +5741,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -5460,7 +5749,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -5468,7 +5757,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -5476,7 +5765,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -5484,7 +5773,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -5492,7 +5781,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -5500,7 +5789,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -5508,7 +5797,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -5516,7 +5805,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -5524,7 +5813,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -5532,7 +5821,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -5540,7 +5829,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -5548,7 +5837,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -5556,7 +5845,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -5564,7 +5853,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -5572,7 +5861,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -5580,7 +5869,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -5588,7 +5877,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -5596,7 +5885,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -5604,7 +5893,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -5612,7 +5901,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -5620,7 +5909,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -5628,7 +5917,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -5636,7 +5925,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -5644,7 +5933,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -5652,7 +5941,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -5660,7 +5949,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -5668,7 +5957,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -5676,7 +5965,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -5684,7 +5973,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -5692,7 +5981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -5700,7 +5989,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -5708,7 +5997,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -5716,7 +6005,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -5724,7 +6013,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -5732,7 +6021,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -5740,7 +6029,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -5748,7 +6037,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -5756,7 +6045,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -5764,7 +6053,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -5772,7 +6061,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -5780,7 +6069,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -5788,7 +6077,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -5796,7 +6085,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -5804,7 +6093,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -5812,7 +6101,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -5820,7 +6109,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -5828,7 +6117,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -5836,7 +6125,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -5844,7 +6133,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -5852,7 +6141,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -5860,7 +6149,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -5868,7 +6157,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>40</v>
       </c>
@@ -5876,7 +6165,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -5884,7 +6173,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -5892,7 +6181,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -5900,7 +6189,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>40</v>
       </c>
@@ -5908,7 +6197,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -5916,7 +6205,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -5924,7 +6213,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -5932,7 +6221,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -5940,7 +6229,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -5948,7 +6237,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -5956,7 +6245,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -5964,7 +6253,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -5972,7 +6261,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -5980,7 +6269,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -5988,7 +6277,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>40</v>
       </c>
@@ -5996,7 +6285,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -6004,7 +6293,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -6012,7 +6301,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -6020,7 +6309,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -6028,7 +6317,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -6036,7 +6325,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -6044,7 +6333,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>29</v>
       </c>
@@ -6052,7 +6341,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>29</v>
       </c>
@@ -6060,7 +6349,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -6068,7 +6357,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -6076,7 +6365,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -6084,7 +6373,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -6092,7 +6381,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>1</v>
       </c>
@@ -6100,7 +6389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -6108,7 +6397,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -6116,7 +6405,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -6124,7 +6413,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -6132,7 +6421,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>1</v>
       </c>
@@ -6140,7 +6429,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -6148,7 +6437,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -6156,7 +6445,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -6164,7 +6453,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -6172,7 +6461,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>1</v>
       </c>
@@ -6180,7 +6469,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -6188,7 +6477,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -6196,7 +6485,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -6204,7 +6493,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>1</v>
       </c>
@@ -6212,7 +6501,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>12</v>
       </c>
@@ -6220,7 +6509,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>12</v>
       </c>
@@ -6228,7 +6517,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -6236,7 +6525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -6244,7 +6533,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>1</v>
       </c>
@@ -6252,7 +6541,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -6260,7 +6549,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>12</v>
       </c>
@@ -6268,7 +6557,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>12</v>
       </c>
@@ -6276,7 +6565,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -6284,7 +6573,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>3</v>
       </c>
@@ -6292,7 +6581,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -6300,7 +6589,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>14</v>
       </c>
@@ -6308,7 +6597,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -6316,7 +6605,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -6324,7 +6613,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -6332,7 +6621,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>29</v>
       </c>
@@ -6340,7 +6629,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>14</v>
       </c>
@@ -6348,7 +6637,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>1</v>
       </c>
@@ -6356,7 +6645,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -6364,7 +6653,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>1</v>
       </c>
@@ -6372,7 +6661,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>40</v>
       </c>
@@ -6380,7 +6669,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>20</v>
       </c>
@@ -6388,7 +6677,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>1</v>
       </c>
@@ -6396,7 +6685,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>1</v>
       </c>
@@ -6404,7 +6693,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -6412,7 +6701,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>1</v>
       </c>
@@ -6420,7 +6709,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -6428,7 +6717,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -6436,7 +6725,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>1</v>
       </c>
@@ -6444,7 +6733,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>1</v>
       </c>
@@ -6452,7 +6741,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -6460,7 +6749,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>40</v>
       </c>
@@ -6468,7 +6757,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>3</v>
       </c>
@@ -6476,7 +6765,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -6484,7 +6773,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>9</v>
       </c>
@@ -6492,7 +6781,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -6500,7 +6789,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -6508,7 +6797,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>29</v>
       </c>
@@ -6516,7 +6805,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -6524,7 +6813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>40</v>
       </c>
@@ -6532,7 +6821,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>14</v>
       </c>
@@ -6540,7 +6829,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -6548,7 +6837,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>14</v>
       </c>
@@ -6556,7 +6845,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>40</v>
       </c>
@@ -6564,7 +6853,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>1</v>
       </c>
@@ -6572,7 +6861,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -6580,7 +6869,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>3</v>
       </c>
@@ -6588,7 +6877,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -6596,7 +6885,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -6604,7 +6893,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -6612,7 +6901,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -6620,7 +6909,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>40</v>
       </c>
@@ -6628,7 +6917,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>29</v>
       </c>
@@ -6636,7 +6925,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>5</v>
       </c>
@@ -6644,7 +6933,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>12</v>
       </c>
@@ -6652,7 +6941,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>12</v>
       </c>
@@ -6660,7 +6949,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -6668,7 +6957,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -6676,7 +6965,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -6684,7 +6973,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>20</v>
       </c>
@@ -6692,7 +6981,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -6700,7 +6989,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -6708,7 +6997,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>12</v>
       </c>
@@ -6716,7 +7005,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>14</v>
       </c>
@@ -6724,7 +7013,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -6732,7 +7021,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -6740,7 +7029,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>1</v>
       </c>
@@ -6748,7 +7037,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>1</v>
       </c>
@@ -6756,7 +7045,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>3</v>
       </c>
@@ -6764,7 +7053,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>5</v>
       </c>
@@ -6772,7 +7061,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>12</v>
       </c>
@@ -6780,7 +7069,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>5</v>
       </c>
@@ -6788,7 +7077,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -6796,7 +7085,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
         <v>14</v>
       </c>
@@ -6804,7 +7093,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
         <v>12</v>
       </c>
@@ -6812,7 +7101,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>20</v>
       </c>
@@ -6820,7 +7109,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>7</v>
       </c>
@@ -6828,7 +7117,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
         <v>1</v>
       </c>
@@ -6836,7 +7125,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -6844,7 +7133,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>14</v>
       </c>
@@ -6852,7 +7141,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -6860,7 +7149,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>9</v>
       </c>
@@ -6868,7 +7157,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>9</v>
       </c>
@@ -6876,7 +7165,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>40</v>
       </c>
@@ -6884,7 +7173,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>40</v>
       </c>
@@ -6892,7 +7181,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>9</v>
       </c>
@@ -6900,7 +7189,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>1</v>
       </c>
@@ -6908,7 +7197,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -6916,7 +7205,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -6924,7 +7213,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>12</v>
       </c>
@@ -6932,7 +7221,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>29</v>
       </c>
@@ -6940,7 +7229,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -6948,7 +7237,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>3</v>
       </c>
@@ -6956,7 +7245,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -6964,7 +7253,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>5</v>
       </c>
@@ -6972,7 +7261,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>14</v>
       </c>
@@ -6980,7 +7269,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>40</v>
       </c>
@@ -6988,7 +7277,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -6996,7 +7285,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>20</v>
       </c>
@@ -7004,7 +7293,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
         <v>14</v>
       </c>
@@ -7012,7 +7301,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
         <v>14</v>
       </c>
@@ -7020,7 +7309,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
         <v>9</v>
       </c>
@@ -7028,7 +7317,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
         <v>40</v>
       </c>
@@ -7036,7 +7325,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
         <v>14</v>
       </c>
@@ -7044,7 +7333,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -7052,7 +7341,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
         <v>1</v>
       </c>
@@ -7060,7 +7349,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
         <v>9</v>
       </c>
@@ -7068,7 +7357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
         <v>20</v>
       </c>
@@ -7076,7 +7365,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
         <v>9</v>
       </c>
@@ -7084,7 +7373,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2">
       <c r="A211" t="s">
         <v>12</v>
       </c>
@@ -7092,7 +7381,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2">
       <c r="A212" t="s">
         <v>9</v>
       </c>
@@ -7100,7 +7389,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2">
       <c r="A213" t="s">
         <v>3</v>
       </c>
@@ -7108,7 +7397,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2">
       <c r="A214" t="s">
         <v>5</v>
       </c>
@@ -7116,7 +7405,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2">
       <c r="A215" t="s">
         <v>1</v>
       </c>
@@ -7124,7 +7413,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2">
       <c r="A216" t="s">
         <v>29</v>
       </c>
@@ -7132,7 +7421,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2">
       <c r="A217" t="s">
         <v>9</v>
       </c>
@@ -7140,7 +7429,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2">
       <c r="A218" t="s">
         <v>3</v>
       </c>
@@ -7148,7 +7437,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2">
       <c r="A219" t="s">
         <v>20</v>
       </c>
@@ -7156,7 +7445,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2">
       <c r="A220" t="s">
         <v>3</v>
       </c>
@@ -7164,7 +7453,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2">
       <c r="A221" t="s">
         <v>9</v>
       </c>
@@ -7172,7 +7461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2">
       <c r="A222" t="s">
         <v>12</v>
       </c>
@@ -7180,7 +7469,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2">
       <c r="A223" t="s">
         <v>1</v>
       </c>
@@ -7188,7 +7477,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2">
       <c r="A224" t="s">
         <v>20</v>
       </c>
@@ -7196,7 +7485,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2">
       <c r="A225" t="s">
         <v>1</v>
       </c>
@@ -7204,7 +7493,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2">
       <c r="A226" t="s">
         <v>5</v>
       </c>
@@ -7212,7 +7501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2">
       <c r="A227" t="s">
         <v>12</v>
       </c>
@@ -7220,7 +7509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2">
       <c r="A228" t="s">
         <v>1</v>
       </c>
@@ -7228,7 +7517,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2">
       <c r="A229" t="s">
         <v>14</v>
       </c>
@@ -7236,7 +7525,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2">
       <c r="A230" t="s">
         <v>9</v>
       </c>
@@ -7244,7 +7533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2">
       <c r="A231" t="s">
         <v>14</v>
       </c>
@@ -7252,7 +7541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2">
       <c r="A232" t="s">
         <v>12</v>
       </c>
@@ -7260,7 +7549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2">
       <c r="A233" t="s">
         <v>5</v>
       </c>
@@ -7268,7 +7557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2">
       <c r="A234" t="s">
         <v>9</v>
       </c>
@@ -7276,7 +7565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2">
       <c r="A235" t="s">
         <v>7</v>
       </c>
@@ -7284,7 +7573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2">
       <c r="A236" t="s">
         <v>5</v>
       </c>
@@ -7292,7 +7581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2">
       <c r="A237" t="s">
         <v>3</v>
       </c>
@@ -7300,7 +7589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2">
       <c r="A238" t="s">
         <v>1</v>
       </c>
@@ -7314,6 +7603,1386 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5CCCA1-32B8-4B9B-8D9A-58DCC5AAE456}">
+  <dimension ref="A1:B170"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1">
+      <c r="A11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1">
+      <c r="A21" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1">
+      <c r="A22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" thickBot="1">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" thickBot="1">
+      <c r="A24" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" thickBot="1">
+      <c r="A25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" thickBot="1">
+      <c r="A26" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" thickBot="1">
+      <c r="A27" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" thickBot="1">
+      <c r="A28" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" thickBot="1">
+      <c r="A29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" thickBot="1">
+      <c r="A30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" thickBot="1">
+      <c r="A31" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" thickBot="1">
+      <c r="A32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" thickBot="1">
+      <c r="A33" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" thickBot="1">
+      <c r="A34" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" thickBot="1">
+      <c r="A35" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" thickBot="1">
+      <c r="A36" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" thickBot="1">
+      <c r="A37" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" thickBot="1">
+      <c r="A38" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" thickBot="1">
+      <c r="A39" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" thickBot="1">
+      <c r="A40" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" thickBot="1">
+      <c r="A41" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" thickBot="1">
+      <c r="A42" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" thickBot="1">
+      <c r="A43" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" thickBot="1">
+      <c r="A44" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" thickBot="1">
+      <c r="A45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" thickBot="1">
+      <c r="A46" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" thickBot="1">
+      <c r="A47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" thickBot="1">
+      <c r="A48" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" thickBot="1">
+      <c r="A49" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" thickBot="1">
+      <c r="A50" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" thickBot="1">
+      <c r="A51" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" thickBot="1">
+      <c r="A52" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" thickBot="1">
+      <c r="A53" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" thickBot="1">
+      <c r="A54" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15" thickBot="1">
+      <c r="A55" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15" thickBot="1">
+      <c r="A56" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15" thickBot="1">
+      <c r="A57" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15" thickBot="1">
+      <c r="A58" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15" thickBot="1">
+      <c r="A59" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15" thickBot="1">
+      <c r="A60" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15" thickBot="1">
+      <c r="A61" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" thickBot="1">
+      <c r="A62" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15" thickBot="1">
+      <c r="A63" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15" thickBot="1">
+      <c r="A64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" thickBot="1">
+      <c r="A65" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" thickBot="1">
+      <c r="A66" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15" thickBot="1">
+      <c r="A67" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15" thickBot="1">
+      <c r="A68" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15" thickBot="1">
+      <c r="A69" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" thickBot="1">
+      <c r="A70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" thickBot="1">
+      <c r="A71" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15" thickBot="1">
+      <c r="A72" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15" thickBot="1">
+      <c r="A73" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" thickBot="1">
+      <c r="A74" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15" thickBot="1">
+      <c r="A75" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15" thickBot="1">
+      <c r="A76" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15" thickBot="1">
+      <c r="A77" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15" thickBot="1">
+      <c r="A78" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15" thickBot="1">
+      <c r="A79" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15" thickBot="1">
+      <c r="A80" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15" thickBot="1">
+      <c r="A81" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15" thickBot="1">
+      <c r="A82" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15" thickBot="1">
+      <c r="A83" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15" thickBot="1">
+      <c r="A84" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15" thickBot="1">
+      <c r="A85" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15" thickBot="1">
+      <c r="A86" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15" thickBot="1">
+      <c r="A87" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15" thickBot="1">
+      <c r="A88" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15" thickBot="1">
+      <c r="A89" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15" thickBot="1">
+      <c r="A90" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15" thickBot="1">
+      <c r="A91" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15" thickBot="1">
+      <c r="A92" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15" thickBot="1">
+      <c r="A93" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15" thickBot="1">
+      <c r="A94" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15" thickBot="1">
+      <c r="A95" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15" thickBot="1">
+      <c r="A96" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15" thickBot="1">
+      <c r="A97" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15" thickBot="1">
+      <c r="A98" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15" thickBot="1">
+      <c r="A99" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15" thickBot="1">
+      <c r="A100" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15" thickBot="1">
+      <c r="A101" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15" thickBot="1">
+      <c r="A102" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15" thickBot="1">
+      <c r="A103" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15" thickBot="1">
+      <c r="A104" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15" thickBot="1">
+      <c r="A105" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15" thickBot="1">
+      <c r="A106" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15" thickBot="1">
+      <c r="A107" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15" thickBot="1">
+      <c r="A108" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15" thickBot="1">
+      <c r="A109" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15" thickBot="1">
+      <c r="A110" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15" thickBot="1">
+      <c r="A111" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15" thickBot="1">
+      <c r="A112" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15" thickBot="1">
+      <c r="A113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15" thickBot="1">
+      <c r="A114" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15" thickBot="1">
+      <c r="A115" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15" thickBot="1">
+      <c r="A116" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15" thickBot="1">
+      <c r="A117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15" thickBot="1">
+      <c r="A118" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15" thickBot="1">
+      <c r="A119" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15" thickBot="1">
+      <c r="A120" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15" thickBot="1">
+      <c r="A121" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15" thickBot="1">
+      <c r="A122" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15" thickBot="1">
+      <c r="A123" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15" thickBot="1">
+      <c r="A124" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15" thickBot="1">
+      <c r="A125" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15" thickBot="1">
+      <c r="A126" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15" thickBot="1">
+      <c r="A127" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15" thickBot="1">
+      <c r="A128" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15" thickBot="1">
+      <c r="A129" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15" thickBot="1">
+      <c r="A130" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15" thickBot="1">
+      <c r="A131" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15" thickBot="1">
+      <c r="A132" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15" thickBot="1">
+      <c r="A133" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15" thickBot="1">
+      <c r="A134" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15" thickBot="1">
+      <c r="A135" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15" thickBot="1">
+      <c r="A136" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15" thickBot="1">
+      <c r="A137" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15" thickBot="1">
+      <c r="A138" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15" thickBot="1">
+      <c r="A139" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15" thickBot="1">
+      <c r="A140" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15" thickBot="1">
+      <c r="A141" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15" thickBot="1">
+      <c r="A142" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15" thickBot="1">
+      <c r="A143" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15" thickBot="1">
+      <c r="A144" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15" thickBot="1">
+      <c r="A145" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15" thickBot="1">
+      <c r="A146" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15" thickBot="1">
+      <c r="A147" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15" thickBot="1">
+      <c r="A148" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="15" thickBot="1">
+      <c r="A149" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15" thickBot="1">
+      <c r="A150" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="15" thickBot="1">
+      <c r="A151" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15" thickBot="1">
+      <c r="A152" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15" thickBot="1">
+      <c r="A153" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="15" thickBot="1">
+      <c r="A154" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15" thickBot="1">
+      <c r="A155" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="15" thickBot="1">
+      <c r="A156" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="15" thickBot="1">
+      <c r="A157" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="15" thickBot="1">
+      <c r="A158" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="15" thickBot="1">
+      <c r="A159" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="15" thickBot="1">
+      <c r="A160" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="15" thickBot="1">
+      <c r="A161" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="15" thickBot="1">
+      <c r="A162" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="15" thickBot="1">
+      <c r="A163" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="15" thickBot="1">
+      <c r="A164" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="15" thickBot="1">
+      <c r="A165" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="15" thickBot="1">
+      <c r="A166" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="15" thickBot="1">
+      <c r="A167" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="15" thickBot="1">
+      <c r="A168" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="15" thickBot="1">
+      <c r="A169" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="15" thickBot="1">
+      <c r="A170" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A8DCE4-66C8-493B-8FD5-7B82DB4224C4}">
   <dimension ref="A1:B247"/>
   <sheetViews>
@@ -7321,13 +8990,13 @@
       <selection activeCell="B241" sqref="B241"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="25.36328125" customWidth="1"/>
     <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>236</v>
       </c>
@@ -7335,7 +9004,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>554</v>
       </c>
@@ -7343,7 +9012,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>554</v>
       </c>
@@ -7351,7 +9020,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>554</v>
       </c>
@@ -7359,7 +9028,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>554</v>
       </c>
@@ -7367,7 +9036,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>554</v>
       </c>
@@ -7375,7 +9044,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>554</v>
       </c>
@@ -7383,7 +9052,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>554</v>
       </c>
@@ -7391,7 +9060,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>554</v>
       </c>
@@ -7399,7 +9068,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>554</v>
       </c>
@@ -7407,7 +9076,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>554</v>
       </c>
@@ -7415,7 +9084,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>554</v>
       </c>
@@ -7423,7 +9092,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>554</v>
       </c>
@@ -7431,7 +9100,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>554</v>
       </c>
@@ -7439,7 +9108,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>554</v>
       </c>
@@ -7447,7 +9116,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>554</v>
       </c>
@@ -7455,7 +9124,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>554</v>
       </c>
@@ -7463,7 +9132,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>554</v>
       </c>
@@ -7471,7 +9140,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>554</v>
       </c>
@@ -7479,7 +9148,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>554</v>
       </c>
@@ -7487,7 +9156,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>554</v>
       </c>
@@ -7495,7 +9164,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>554</v>
       </c>
@@ -7503,7 +9172,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>554</v>
       </c>
@@ -7511,7 +9180,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>554</v>
       </c>
@@ -7519,7 +9188,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>553</v>
       </c>
@@ -7527,7 +9196,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>553</v>
       </c>
@@ -7535,7 +9204,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>553</v>
       </c>
@@ -7543,7 +9212,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>553</v>
       </c>
@@ -7551,7 +9220,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>553</v>
       </c>
@@ -7559,7 +9228,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>553</v>
       </c>
@@ -7567,7 +9236,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>553</v>
       </c>
@@ -7575,7 +9244,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>553</v>
       </c>
@@ -7583,7 +9252,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>553</v>
       </c>
@@ -7591,7 +9260,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>553</v>
       </c>
@@ -7599,7 +9268,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>553</v>
       </c>
@@ -7607,7 +9276,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>553</v>
       </c>
@@ -7615,7 +9284,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>553</v>
       </c>
@@ -7623,7 +9292,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>553</v>
       </c>
@@ -7631,7 +9300,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>553</v>
       </c>
@@ -7639,7 +9308,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>553</v>
       </c>
@@ -7647,7 +9316,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>552</v>
       </c>
@@ -7655,7 +9324,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>552</v>
       </c>
@@ -7663,7 +9332,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>552</v>
       </c>
@@ -7671,7 +9340,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>552</v>
       </c>
@@ -7679,7 +9348,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>552</v>
       </c>
@@ -7687,7 +9356,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>552</v>
       </c>
@@ -7695,7 +9364,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>552</v>
       </c>
@@ -7703,7 +9372,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>552</v>
       </c>
@@ -7711,7 +9380,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>552</v>
       </c>
@@ -7719,7 +9388,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>552</v>
       </c>
@@ -7727,7 +9396,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>552</v>
       </c>
@@ -7735,7 +9404,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>552</v>
       </c>
@@ -7743,7 +9412,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>552</v>
       </c>
@@ -7751,7 +9420,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>552</v>
       </c>
@@ -7759,7 +9428,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>552</v>
       </c>
@@ -7767,7 +9436,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>552</v>
       </c>
@@ -7775,7 +9444,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>552</v>
       </c>
@@ -7783,7 +9452,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>551</v>
       </c>
@@ -7791,7 +9460,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>551</v>
       </c>
@@ -7799,7 +9468,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>551</v>
       </c>
@@ -7807,7 +9476,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>551</v>
       </c>
@@ -7815,7 +9484,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>551</v>
       </c>
@@ -7823,7 +9492,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>551</v>
       </c>
@@ -7831,7 +9500,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>551</v>
       </c>
@@ -7839,7 +9508,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>551</v>
       </c>
@@ -7847,7 +9516,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>551</v>
       </c>
@@ -7855,7 +9524,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>551</v>
       </c>
@@ -7863,7 +9532,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>551</v>
       </c>
@@ -7871,7 +9540,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>551</v>
       </c>
@@ -7879,7 +9548,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>551</v>
       </c>
@@ -7887,7 +9556,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>551</v>
       </c>
@@ -7895,7 +9564,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>551</v>
       </c>
@@ -7903,7 +9572,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>551</v>
       </c>
@@ -7911,7 +9580,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>551</v>
       </c>
@@ -7919,7 +9588,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>445</v>
       </c>
@@ -7927,7 +9596,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>445</v>
       </c>
@@ -7935,7 +9604,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>445</v>
       </c>
@@ -7943,7 +9612,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>445</v>
       </c>
@@ -7951,7 +9620,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>445</v>
       </c>
@@ -7959,7 +9628,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>445</v>
       </c>
@@ -7967,7 +9636,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>445</v>
       </c>
@@ -7975,7 +9644,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>445</v>
       </c>
@@ -7983,7 +9652,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>445</v>
       </c>
@@ -7991,7 +9660,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>445</v>
       </c>
@@ -7999,7 +9668,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>445</v>
       </c>
@@ -8007,7 +9676,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>445</v>
       </c>
@@ -8015,7 +9684,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>445</v>
       </c>
@@ -8023,7 +9692,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>425</v>
       </c>
@@ -8031,7 +9700,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>425</v>
       </c>
@@ -8039,7 +9708,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>425</v>
       </c>
@@ -8047,7 +9716,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>425</v>
       </c>
@@ -8055,7 +9724,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>425</v>
       </c>
@@ -8063,7 +9732,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>425</v>
       </c>
@@ -8071,7 +9740,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>425</v>
       </c>
@@ -8079,7 +9748,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>425</v>
       </c>
@@ -8087,7 +9756,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>425</v>
       </c>
@@ -8095,7 +9764,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>425</v>
       </c>
@@ -8103,7 +9772,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>425</v>
       </c>
@@ -8111,7 +9780,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>425</v>
       </c>
@@ -8119,7 +9788,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>425</v>
       </c>
@@ -8127,7 +9796,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>425</v>
       </c>
@@ -8135,7 +9804,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>425</v>
       </c>
@@ -8143,7 +9812,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>550</v>
       </c>
@@ -8151,7 +9820,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>550</v>
       </c>
@@ -8159,7 +9828,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>550</v>
       </c>
@@ -8167,7 +9836,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>550</v>
       </c>
@@ -8175,7 +9844,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>550</v>
       </c>
@@ -8183,7 +9852,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>549</v>
       </c>
@@ -8191,7 +9860,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>549</v>
       </c>
@@ -8199,7 +9868,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>549</v>
       </c>
@@ -8207,7 +9876,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>549</v>
       </c>
@@ -8215,7 +9884,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>549</v>
       </c>
@@ -8223,7 +9892,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>549</v>
       </c>
@@ -8231,7 +9900,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>549</v>
       </c>
@@ -8239,7 +9908,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>549</v>
       </c>
@@ -8247,7 +9916,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>549</v>
       </c>
@@ -8255,7 +9924,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>549</v>
       </c>
@@ -8263,7 +9932,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>548</v>
       </c>
@@ -8271,7 +9940,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>548</v>
       </c>
@@ -8279,7 +9948,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>548</v>
       </c>
@@ -8287,7 +9956,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>548</v>
       </c>
@@ -8295,7 +9964,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>548</v>
       </c>
@@ -8303,7 +9972,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>548</v>
       </c>
@@ -8311,7 +9980,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>548</v>
       </c>
@@ -8319,7 +9988,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>548</v>
       </c>
@@ -8327,7 +9996,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>548</v>
       </c>
@@ -8335,7 +10004,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>548</v>
       </c>
@@ -8343,7 +10012,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>548</v>
       </c>
@@ -8351,7 +10020,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>548</v>
       </c>
@@ -8359,7 +10028,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>548</v>
       </c>
@@ -8367,7 +10036,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>548</v>
       </c>
@@ -8375,7 +10044,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>548</v>
       </c>
@@ -8383,7 +10052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>548</v>
       </c>
@@ -8391,7 +10060,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>548</v>
       </c>
@@ -8399,7 +10068,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>547</v>
       </c>
@@ -8407,7 +10076,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>547</v>
       </c>
@@ -8415,7 +10084,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>547</v>
       </c>
@@ -8423,7 +10092,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>547</v>
       </c>
@@ -8431,7 +10100,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>547</v>
       </c>
@@ -8439,7 +10108,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>547</v>
       </c>
@@ -8447,7 +10116,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>547</v>
       </c>
@@ -8455,7 +10124,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>547</v>
       </c>
@@ -8463,7 +10132,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>547</v>
       </c>
@@ -8471,7 +10140,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>547</v>
       </c>
@@ -8479,7 +10148,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>547</v>
       </c>
@@ -8487,7 +10156,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>547</v>
       </c>
@@ -8495,7 +10164,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>547</v>
       </c>
@@ -8503,7 +10172,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>547</v>
       </c>
@@ -8511,7 +10180,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>547</v>
       </c>
@@ -8519,7 +10188,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>547</v>
       </c>
@@ -8527,7 +10196,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>547</v>
       </c>
@@ -8535,7 +10204,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>547</v>
       </c>
@@ -8543,7 +10212,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>547</v>
       </c>
@@ -8551,7 +10220,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>545</v>
       </c>
@@ -8559,7 +10228,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>545</v>
       </c>
@@ -8567,7 +10236,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>545</v>
       </c>
@@ -8575,7 +10244,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>545</v>
       </c>
@@ -8583,7 +10252,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>545</v>
       </c>
@@ -8591,7 +10260,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>545</v>
       </c>
@@ -8599,7 +10268,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>545</v>
       </c>
@@ -8607,7 +10276,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>545</v>
       </c>
@@ -8615,7 +10284,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>545</v>
       </c>
@@ -8623,7 +10292,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>545</v>
       </c>
@@ -8631,7 +10300,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>545</v>
       </c>
@@ -8639,7 +10308,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>545</v>
       </c>
@@ -8647,7 +10316,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>545</v>
       </c>
@@ -8655,7 +10324,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>545</v>
       </c>
@@ -8663,7 +10332,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>545</v>
       </c>
@@ -8671,7 +10340,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>545</v>
       </c>
@@ -8679,7 +10348,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>545</v>
       </c>
@@ -8687,7 +10356,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>545</v>
       </c>
@@ -8695,7 +10364,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>545</v>
       </c>
@@ -8703,7 +10372,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>545</v>
       </c>
@@ -8711,7 +10380,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
         <v>545</v>
       </c>
@@ -8719,7 +10388,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
         <v>545</v>
       </c>
@@ -8727,7 +10396,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
         <v>545</v>
       </c>
@@ -8735,7 +10404,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>545</v>
       </c>
@@ -8743,7 +10412,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>545</v>
       </c>
@@ -8751,7 +10420,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
         <v>545</v>
       </c>
@@ -8759,7 +10428,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>545</v>
       </c>
@@ -8767,7 +10436,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>545</v>
       </c>
@@ -8775,7 +10444,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>544</v>
       </c>
@@ -8783,7 +10452,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>544</v>
       </c>
@@ -8791,7 +10460,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>544</v>
       </c>
@@ -8799,7 +10468,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>544</v>
       </c>
@@ -8807,7 +10476,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>544</v>
       </c>
@@ -8815,7 +10484,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>544</v>
       </c>
@@ -8823,7 +10492,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>544</v>
       </c>
@@ -8831,7 +10500,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>544</v>
       </c>
@@ -8839,7 +10508,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>544</v>
       </c>
@@ -8847,7 +10516,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>544</v>
       </c>
@@ -8855,7 +10524,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>544</v>
       </c>
@@ -8863,7 +10532,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>544</v>
       </c>
@@ -8871,7 +10540,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>544</v>
       </c>
@@ -8879,7 +10548,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>544</v>
       </c>
@@ -8887,7 +10556,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>544</v>
       </c>
@@ -8895,7 +10564,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>544</v>
       </c>
@@ -8903,7 +10572,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>544</v>
       </c>
@@ -8911,7 +10580,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>544</v>
       </c>
@@ -8919,7 +10588,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>544</v>
       </c>
@@ -8927,7 +10596,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
         <v>544</v>
       </c>
@@ -8935,7 +10604,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
         <v>543</v>
       </c>
@@ -8943,7 +10612,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
         <v>543</v>
       </c>
@@ -8951,7 +10620,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
         <v>543</v>
       </c>
@@ -8959,7 +10628,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
         <v>543</v>
       </c>
@@ -8967,7 +10636,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
         <v>543</v>
       </c>
@@ -8975,7 +10644,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
         <v>543</v>
       </c>
@@ -8983,7 +10652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
         <v>543</v>
       </c>
@@ -8991,7 +10660,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
         <v>543</v>
       </c>
@@ -8999,7 +10668,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
         <v>543</v>
       </c>
@@ -9007,7 +10676,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2">
       <c r="A211" t="s">
         <v>543</v>
       </c>
@@ -9015,7 +10684,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2">
       <c r="A212" t="s">
         <v>543</v>
       </c>
@@ -9023,7 +10692,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2">
       <c r="A213" t="s">
         <v>543</v>
       </c>
@@ -9031,7 +10700,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2">
       <c r="A214" t="s">
         <v>543</v>
       </c>
@@ -9039,7 +10708,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2">
       <c r="A215" t="s">
         <v>543</v>
       </c>
@@ -9047,7 +10716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2">
       <c r="A216" t="s">
         <v>543</v>
       </c>
@@ -9055,7 +10724,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2">
       <c r="A217" t="s">
         <v>543</v>
       </c>
@@ -9063,7 +10732,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2">
       <c r="A218" t="s">
         <v>543</v>
       </c>
@@ -9071,7 +10740,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2">
       <c r="A219" t="s">
         <v>543</v>
       </c>
@@ -9079,7 +10748,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2">
       <c r="A220" t="s">
         <v>543</v>
       </c>
@@ -9087,7 +10756,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2">
       <c r="A221" t="s">
         <v>543</v>
       </c>
@@ -9095,7 +10764,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2">
       <c r="A222" t="s">
         <v>543</v>
       </c>
@@ -9103,7 +10772,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2">
       <c r="A223" t="s">
         <v>543</v>
       </c>
@@ -9111,7 +10780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2">
       <c r="A224" t="s">
         <v>542</v>
       </c>
@@ -9119,7 +10788,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2">
       <c r="A225" t="s">
         <v>542</v>
       </c>
@@ -9127,7 +10796,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2">
       <c r="A226" t="s">
         <v>542</v>
       </c>
@@ -9135,7 +10804,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2">
       <c r="A227" t="s">
         <v>542</v>
       </c>
@@ -9143,7 +10812,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2">
       <c r="A228" t="s">
         <v>542</v>
       </c>
@@ -9151,7 +10820,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2">
       <c r="A229" t="s">
         <v>542</v>
       </c>
@@ -9159,7 +10828,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2">
       <c r="A230" t="s">
         <v>542</v>
       </c>
@@ -9167,7 +10836,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2">
       <c r="A231" t="s">
         <v>542</v>
       </c>
@@ -9175,7 +10844,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2">
       <c r="A232" t="s">
         <v>542</v>
       </c>
@@ -9183,7 +10852,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2">
       <c r="A233" t="s">
         <v>542</v>
       </c>
@@ -9191,7 +10860,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2">
       <c r="A234" t="s">
         <v>542</v>
       </c>
@@ -9199,7 +10868,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2">
       <c r="A235" t="s">
         <v>542</v>
       </c>
@@ -9207,7 +10876,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2">
       <c r="A236" t="s">
         <v>542</v>
       </c>
@@ -9215,7 +10884,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2">
       <c r="A237" t="s">
         <v>542</v>
       </c>
@@ -9223,7 +10892,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2">
       <c r="A238" t="s">
         <v>542</v>
       </c>
@@ -9231,7 +10900,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2">
       <c r="A239" t="s">
         <v>542</v>
       </c>
@@ -9239,7 +10908,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2">
       <c r="A240" t="s">
         <v>542</v>
       </c>
@@ -9247,7 +10916,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2">
       <c r="A241" t="s">
         <v>542</v>
       </c>
@@ -9255,7 +10924,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2">
       <c r="A242" t="s">
         <v>542</v>
       </c>
@@ -9263,7 +10932,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2">
       <c r="A243" t="s">
         <v>542</v>
       </c>
@@ -9271,7 +10940,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2">
       <c r="A244" t="s">
         <v>542</v>
       </c>
@@ -9279,7 +10948,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2">
       <c r="A245" t="s">
         <v>542</v>
       </c>
@@ -9287,7 +10956,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2">
       <c r="A246" t="s">
         <v>542</v>
       </c>
@@ -9295,7 +10964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2">
       <c r="A247" t="s">
         <v>542</v>
       </c>

--- a/counties_towns.xlsx
+++ b/counties_towns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WesleyOke_apuylaw\Google Drive\Share\School\Waterloo\Statistics\ds2_project\election_2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2E8644-197C-448F-A4E4-C1B66371C225}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEADA33-1FDA-487B-A445-B024BE999D81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17240" yWindow="2850" windowWidth="19960" windowHeight="12700" activeTab="4" xr2:uid="{1CE7BFA9-C5EC-4750-BE10-2D699AFF6846}"/>
+    <workbookView xWindow="17240" yWindow="2850" windowWidth="19960" windowHeight="12700" activeTab="3" xr2:uid="{1CE7BFA9-C5EC-4750-BE10-2D699AFF6846}"/>
   </bookViews>
   <sheets>
     <sheet name="MA" sheetId="4" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="VT" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ME!$A$1:$C$531</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ME (2)'!$A$1:$B$531</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ME!$A$1:$B$531</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ME (2)'!$A$1:$C$531</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4669" uniqueCount="1213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4669" uniqueCount="1253">
   <si>
     <t>Woodstock</t>
   </si>
@@ -3682,6 +3682,126 @@
   </si>
   <si>
     <t>Waterboro</t>
+  </si>
+  <si>
+    <t>Baring Plt.</t>
+  </si>
+  <si>
+    <t>Brighton Plt.</t>
+  </si>
+  <si>
+    <t>Carroll Plt.</t>
+  </si>
+  <si>
+    <t>Central Aroostook (incl. Oxbow Plt.)</t>
+  </si>
+  <si>
+    <t>Codyville Plt.</t>
+  </si>
+  <si>
+    <t>Coplin Plt.</t>
+  </si>
+  <si>
+    <t>Cyr Plt.</t>
+  </si>
+  <si>
+    <t>Dallas Plt.</t>
+  </si>
+  <si>
+    <t>Dennistown Plt.</t>
+  </si>
+  <si>
+    <t>Drew Plt.</t>
+  </si>
+  <si>
+    <t>Garfield Plt.</t>
+  </si>
+  <si>
+    <t>Glenwood Plt.</t>
+  </si>
+  <si>
+    <t>Highland Plt.</t>
+  </si>
+  <si>
+    <t>Kingsbury Plt.</t>
+  </si>
+  <si>
+    <t>Lake View Plt.</t>
+  </si>
+  <si>
+    <t>Lincoln Plt.</t>
+  </si>
+  <si>
+    <t>Macwahoc Plt.</t>
+  </si>
+  <si>
+    <t>Magalloway Plt.</t>
+  </si>
+  <si>
+    <t>Matinicus Isle Plt.</t>
+  </si>
+  <si>
+    <t>Monhegan Plt.</t>
+  </si>
+  <si>
+    <t>Moro Plt.</t>
+  </si>
+  <si>
+    <t>Nashville Plt.</t>
+  </si>
+  <si>
+    <t>Pleasant Ridge Plt.</t>
+  </si>
+  <si>
+    <t>Rangeley Plt.</t>
+  </si>
+  <si>
+    <t>Reed Plt.</t>
+  </si>
+  <si>
+    <t>Sandy River Plt.</t>
+  </si>
+  <si>
+    <t>Seboeis Plt.</t>
+  </si>
+  <si>
+    <t>South Aroostook (incl. Cary Plt.)</t>
+  </si>
+  <si>
+    <t>St. John Plt.</t>
+  </si>
+  <si>
+    <t>The Forks Plt.</t>
+  </si>
+  <si>
+    <t>Webster Plt.</t>
+  </si>
+  <si>
+    <t>West Forks Plt.</t>
+  </si>
+  <si>
+    <t>Winterville Plt.</t>
+  </si>
+  <si>
+    <t>Grand Lake Stream Plt</t>
+  </si>
+  <si>
+    <t>LaGrange</t>
+  </si>
+  <si>
+    <t>Old Orchard Bch</t>
+  </si>
+  <si>
+    <t>Owl's Head</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>Swan's Island</t>
+  </si>
+  <si>
+    <t>Saint Agatha</t>
   </si>
 </sst>
 </file>
@@ -10214,10 +10334,4278 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A36454-2C03-4177-B871-36FBD533C74E}">
+  <dimension ref="A1:B531"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
+      <selection activeCell="A436" sqref="A436"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="32.54296875" customWidth="1"/>
+    <col min="2" max="2" width="27.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>957</v>
+      </c>
+      <c r="B5" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>820</v>
+      </c>
+      <c r="B8" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>990</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>821</v>
+      </c>
+      <c r="B12" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B14" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>978</v>
+      </c>
+      <c r="B15" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B16" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B19" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>696</v>
+      </c>
+      <c r="B20" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>958</v>
+      </c>
+      <c r="B22" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>925</v>
+      </c>
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>338</v>
+      </c>
+      <c r="B24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>886</v>
+      </c>
+      <c r="B26" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>822</v>
+      </c>
+      <c r="B27" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B28" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>926</v>
+      </c>
+      <c r="B29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>959</v>
+      </c>
+      <c r="B36" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>218</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>711</v>
+      </c>
+      <c r="B40" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B42" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>824</v>
+      </c>
+      <c r="B43" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>927</v>
+      </c>
+      <c r="B45" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>991</v>
+      </c>
+      <c r="B46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>992</v>
+      </c>
+      <c r="B47" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>211</v>
+      </c>
+      <c r="B51" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B52" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>993</v>
+      </c>
+      <c r="B53" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B54" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>209</v>
+      </c>
+      <c r="B55" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>887</v>
+      </c>
+      <c r="B56" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B57" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>208</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>928</v>
+      </c>
+      <c r="B59" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>929</v>
+      </c>
+      <c r="B61" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B62" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>605</v>
+      </c>
+      <c r="B64" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B65" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>930</v>
+      </c>
+      <c r="B66" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>378</v>
+      </c>
+      <c r="B67" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B70" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>686</v>
+      </c>
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>630</v>
+      </c>
+      <c r="B72" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>979</v>
+      </c>
+      <c r="B73" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>204</v>
+      </c>
+      <c r="B74" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>335</v>
+      </c>
+      <c r="B75" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>888</v>
+      </c>
+      <c r="B76" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B77" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>825</v>
+      </c>
+      <c r="B78" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B79" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>904</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B81" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>905</v>
+      </c>
+      <c r="B82" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>889</v>
+      </c>
+      <c r="B83" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>931</v>
+      </c>
+      <c r="B84" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>826</v>
+      </c>
+      <c r="B85" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>827</v>
+      </c>
+      <c r="B86" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B87" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>932</v>
+      </c>
+      <c r="B88" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B89" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>829</v>
+      </c>
+      <c r="B90" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>649</v>
+      </c>
+      <c r="B91" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>594</v>
+      </c>
+      <c r="B92" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>890</v>
+      </c>
+      <c r="B93" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>639</v>
+      </c>
+      <c r="B94" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B95" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>198</v>
+      </c>
+      <c r="B96" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>906</v>
+      </c>
+      <c r="B97" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>960</v>
+      </c>
+      <c r="B98" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B99" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>282</v>
+      </c>
+      <c r="B100" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B101" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>192</v>
+      </c>
+      <c r="B102" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>830</v>
+      </c>
+      <c r="B104" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B105" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B106" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B107" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>640</v>
+      </c>
+      <c r="B108" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>189</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B110" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>933</v>
+      </c>
+      <c r="B111" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B112" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>980</v>
+      </c>
+      <c r="B113" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>831</v>
+      </c>
+      <c r="B114" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>885</v>
+      </c>
+      <c r="B115" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>981</v>
+      </c>
+      <c r="B116" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B117" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B118" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B119" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>994</v>
+      </c>
+      <c r="B120" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B121" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B123" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>333</v>
+      </c>
+      <c r="B124" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>934</v>
+      </c>
+      <c r="B125" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B126" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B127" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B128" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B129" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B130" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B131" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B132" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>995</v>
+      </c>
+      <c r="B134" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B135" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>176</v>
+      </c>
+      <c r="B136" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>834</v>
+      </c>
+      <c r="B137" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>835</v>
+      </c>
+      <c r="B138" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>909</v>
+      </c>
+      <c r="B139" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B140" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B141" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>936</v>
+      </c>
+      <c r="B142" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B143" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B144" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>935</v>
+      </c>
+      <c r="B145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>174</v>
+      </c>
+      <c r="B146" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B147" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B148" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>996</v>
+      </c>
+      <c r="B149" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B150" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>171</v>
+      </c>
+      <c r="B152" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B153" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>170</v>
+      </c>
+      <c r="B154" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B155" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>910</v>
+      </c>
+      <c r="B156" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>166</v>
+      </c>
+      <c r="B157" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>615</v>
+      </c>
+      <c r="B158" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>536</v>
+      </c>
+      <c r="B159" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>961</v>
+      </c>
+      <c r="B160" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>165</v>
+      </c>
+      <c r="B161" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>962</v>
+      </c>
+      <c r="B162" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>836</v>
+      </c>
+      <c r="B163" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>837</v>
+      </c>
+      <c r="B164" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>161</v>
+      </c>
+      <c r="B166" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>160</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>891</v>
+      </c>
+      <c r="B168" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>937</v>
+      </c>
+      <c r="B169" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>838</v>
+      </c>
+      <c r="B170" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>982</v>
+      </c>
+      <c r="B171" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>892</v>
+      </c>
+      <c r="B172" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B173" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>963</v>
+      </c>
+      <c r="B174" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B175" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B176" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>469</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B178" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B179" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B180" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>154</v>
+      </c>
+      <c r="B181" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>938</v>
+      </c>
+      <c r="B182" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>625</v>
+      </c>
+      <c r="B183" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B184" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>893</v>
+      </c>
+      <c r="B185" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>939</v>
+      </c>
+      <c r="B186" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B187" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>809</v>
+      </c>
+      <c r="B188" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>149</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B190" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>699</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>964</v>
+      </c>
+      <c r="B192" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>841</v>
+      </c>
+      <c r="B193" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>842</v>
+      </c>
+      <c r="B194" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>417</v>
+      </c>
+      <c r="B195" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>144</v>
+      </c>
+      <c r="B196" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>143</v>
+      </c>
+      <c r="B197" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B198" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>894</v>
+      </c>
+      <c r="B199" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B200" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>895</v>
+      </c>
+      <c r="B201" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>713</v>
+      </c>
+      <c r="B202" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>714</v>
+      </c>
+      <c r="B203" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>843</v>
+      </c>
+      <c r="B204" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>140</v>
+      </c>
+      <c r="B205" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B206" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>844</v>
+      </c>
+      <c r="B207" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>997</v>
+      </c>
+      <c r="B208" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B209" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B210" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>845</v>
+      </c>
+      <c r="B211" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>274</v>
+      </c>
+      <c r="B212" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>135</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>983</v>
+      </c>
+      <c r="B214" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>846</v>
+      </c>
+      <c r="B215" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B216" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>132</v>
+      </c>
+      <c r="B217" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>911</v>
+      </c>
+      <c r="B218" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>847</v>
+      </c>
+      <c r="B219" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>984</v>
+      </c>
+      <c r="B220" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B222" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>131</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>656</v>
+      </c>
+      <c r="B224" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>129</v>
+      </c>
+      <c r="B225" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B226" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B227" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B228" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>912</v>
+      </c>
+      <c r="B231" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B232" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>977</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B236" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>307</v>
+      </c>
+      <c r="B238" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>940</v>
+      </c>
+      <c r="B239" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>121</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>120</v>
+      </c>
+      <c r="B241" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>810</v>
+      </c>
+      <c r="B242" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B243" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>811</v>
+      </c>
+      <c r="B244" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>848</v>
+      </c>
+      <c r="B247" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>118</v>
+      </c>
+      <c r="B249" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B250" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>849</v>
+      </c>
+      <c r="B252" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>117</v>
+      </c>
+      <c r="B253" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>116</v>
+      </c>
+      <c r="B254" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>115</v>
+      </c>
+      <c r="B255" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>812</v>
+      </c>
+      <c r="B256" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>813</v>
+      </c>
+      <c r="B257" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>896</v>
+      </c>
+      <c r="B258" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>999</v>
+      </c>
+      <c r="B259" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B260" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>657</v>
+      </c>
+      <c r="B261" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B262" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>413</v>
+      </c>
+      <c r="B263" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>112</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B265" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B266" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B267" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>851</v>
+      </c>
+      <c r="B268" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>108</v>
+      </c>
+      <c r="B269" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B270" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>107</v>
+      </c>
+      <c r="B271" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>852</v>
+      </c>
+      <c r="B272" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>941</v>
+      </c>
+      <c r="B273" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>853</v>
+      </c>
+      <c r="B274" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>942</v>
+      </c>
+      <c r="B275" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
+        <v>305</v>
+      </c>
+      <c r="B276" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>854</v>
+      </c>
+      <c r="B277" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B278" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B279" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B280" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>814</v>
+      </c>
+      <c r="B281" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B282" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>329</v>
+      </c>
+      <c r="B284" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B285" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>855</v>
+      </c>
+      <c r="B286" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B287" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B288" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>100</v>
+      </c>
+      <c r="B289" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B290" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>99</v>
+      </c>
+      <c r="B292" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>815</v>
+      </c>
+      <c r="B293" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B294" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
+        <v>965</v>
+      </c>
+      <c r="B295" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
+        <v>98</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
+        <v>412</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
+        <v>856</v>
+      </c>
+      <c r="B298" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
+        <v>762</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B300" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B301" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B303" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B304" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
+        <v>943</v>
+      </c>
+      <c r="B305" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
+        <v>966</v>
+      </c>
+      <c r="B306" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
+        <v>986</v>
+      </c>
+      <c r="B307" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
+        <v>897</v>
+      </c>
+      <c r="B308" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B309" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>859</v>
+      </c>
+      <c r="B310" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
+        <v>898</v>
+      </c>
+      <c r="B311" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" t="s">
+        <v>860</v>
+      </c>
+      <c r="B312" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B313" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" t="s">
+        <v>913</v>
+      </c>
+      <c r="B314" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
+        <v>861</v>
+      </c>
+      <c r="B315" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
+        <v>914</v>
+      </c>
+      <c r="B316" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B317" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B318" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
+        <v>83</v>
+      </c>
+      <c r="B320" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B321" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B322" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B323" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" t="s">
+        <v>915</v>
+      </c>
+      <c r="B325" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" t="s">
+        <v>772</v>
+      </c>
+      <c r="B326" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B327" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B328" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B329" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" t="s">
+        <v>899</v>
+      </c>
+      <c r="B330" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B332" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" t="s">
+        <v>80</v>
+      </c>
+      <c r="B333" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" t="s">
+        <v>862</v>
+      </c>
+      <c r="B335" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" t="s">
+        <v>944</v>
+      </c>
+      <c r="B336" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B338" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B339" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" t="s">
+        <v>863</v>
+      </c>
+      <c r="B340" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" t="s">
+        <v>967</v>
+      </c>
+      <c r="B341" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B344" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" t="s">
+        <v>864</v>
+      </c>
+      <c r="B345" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" t="s">
+        <v>945</v>
+      </c>
+      <c r="B346" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B347" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B348" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" t="s">
+        <v>946</v>
+      </c>
+      <c r="B349" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" t="s">
+        <v>513</v>
+      </c>
+      <c r="B350" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B351" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B352" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" t="s">
+        <v>260</v>
+      </c>
+      <c r="B353" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B355" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B356" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B359" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B360" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B361" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B362" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" t="s">
+        <v>72</v>
+      </c>
+      <c r="B363" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" t="s">
+        <v>947</v>
+      </c>
+      <c r="B364" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" t="s">
+        <v>865</v>
+      </c>
+      <c r="B365" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" t="s">
+        <v>865</v>
+      </c>
+      <c r="B366" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" t="s">
+        <v>867</v>
+      </c>
+      <c r="B367" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B369" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" t="s">
+        <v>512</v>
+      </c>
+      <c r="B370" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" t="s">
+        <v>916</v>
+      </c>
+      <c r="B371" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" t="s">
+        <v>68</v>
+      </c>
+      <c r="B373" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" t="s">
+        <v>968</v>
+      </c>
+      <c r="B374" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B375" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" t="s">
+        <v>65</v>
+      </c>
+      <c r="B376" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" t="s">
+        <v>816</v>
+      </c>
+      <c r="B377" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" t="s">
+        <v>868</v>
+      </c>
+      <c r="B378" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B379" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" t="s">
+        <v>778</v>
+      </c>
+      <c r="B380" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" t="s">
+        <v>573</v>
+      </c>
+      <c r="B381" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B382" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" t="s">
+        <v>869</v>
+      </c>
+      <c r="B383" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" t="s">
+        <v>256</v>
+      </c>
+      <c r="B384" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" t="s">
+        <v>779</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" t="s">
+        <v>63</v>
+      </c>
+      <c r="B386" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" t="s">
+        <v>917</v>
+      </c>
+      <c r="B387" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B388" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" t="s">
+        <v>62</v>
+      </c>
+      <c r="B389" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" t="s">
+        <v>969</v>
+      </c>
+      <c r="B390" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B391" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" t="s">
+        <v>61</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B393" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B394" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" t="s">
+        <v>300</v>
+      </c>
+      <c r="B395" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" t="s">
+        <v>452</v>
+      </c>
+      <c r="B396" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" t="s">
+        <v>970</v>
+      </c>
+      <c r="B397" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B398" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" t="s">
+        <v>57</v>
+      </c>
+      <c r="B399" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B400" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" t="s">
+        <v>817</v>
+      </c>
+      <c r="B401" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B403" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" t="s">
+        <v>900</v>
+      </c>
+      <c r="B406" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" t="s">
+        <v>901</v>
+      </c>
+      <c r="B409" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B411" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B412" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" t="s">
+        <v>948</v>
+      </c>
+      <c r="B413" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" t="s">
+        <v>787</v>
+      </c>
+      <c r="B415" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" t="s">
+        <v>356</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" t="s">
+        <v>971</v>
+      </c>
+      <c r="B417" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B418" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B419" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" t="s">
+        <v>871</v>
+      </c>
+      <c r="B420" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B421" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B422" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" t="s">
+        <v>949</v>
+      </c>
+      <c r="B423" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B424" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B426" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" t="s">
+        <v>920</v>
+      </c>
+      <c r="B427" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B428" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" t="s">
+        <v>902</v>
+      </c>
+      <c r="B429" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" t="s">
+        <v>988</v>
+      </c>
+      <c r="B430" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B432" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" t="s">
+        <v>950</v>
+      </c>
+      <c r="B433" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" t="s">
+        <v>44</v>
+      </c>
+      <c r="B434" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" t="s">
+        <v>873</v>
+      </c>
+      <c r="B435" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B436" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" t="s">
+        <v>620</v>
+      </c>
+      <c r="B437" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" t="s">
+        <v>875</v>
+      </c>
+      <c r="B438" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" t="s">
+        <v>598</v>
+      </c>
+      <c r="B439" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B440" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B441" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" t="s">
+        <v>903</v>
+      </c>
+      <c r="B442" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B443" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B444" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B445" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" t="s">
+        <v>877</v>
+      </c>
+      <c r="B446" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" t="s">
+        <v>354</v>
+      </c>
+      <c r="B448" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" t="s">
+        <v>774</v>
+      </c>
+      <c r="B449" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" t="s">
+        <v>353</v>
+      </c>
+      <c r="B450" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" t="s">
+        <v>921</v>
+      </c>
+      <c r="B451" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" t="s">
+        <v>20</v>
+      </c>
+      <c r="B452" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B453" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" t="s">
+        <v>35</v>
+      </c>
+      <c r="B454" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B455" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B457" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B458" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" t="s">
+        <v>31</v>
+      </c>
+      <c r="B459" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B460" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" t="s">
+        <v>796</v>
+      </c>
+      <c r="B461" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" t="s">
+        <v>447</v>
+      </c>
+      <c r="B463" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" t="s">
+        <v>643</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" t="s">
+        <v>952</v>
+      </c>
+      <c r="B465" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" t="s">
+        <v>953</v>
+      </c>
+      <c r="B466" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" t="s">
+        <v>27</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" t="s">
+        <v>818</v>
+      </c>
+      <c r="B468" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B469" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" t="s">
+        <v>800</v>
+      </c>
+      <c r="B470" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" t="s">
+        <v>25</v>
+      </c>
+      <c r="B471" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" t="s">
+        <v>25</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" t="s">
+        <v>246</v>
+      </c>
+      <c r="B473" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" t="s">
+        <v>878</v>
+      </c>
+      <c r="B474" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B475" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" t="s">
+        <v>972</v>
+      </c>
+      <c r="B476" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B477" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B478" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" t="s">
+        <v>973</v>
+      </c>
+      <c r="B479" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" t="s">
+        <v>989</v>
+      </c>
+      <c r="B480" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" t="s">
+        <v>879</v>
+      </c>
+      <c r="B481" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B482" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B484" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" t="s">
+        <v>405</v>
+      </c>
+      <c r="B485" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" t="s">
+        <v>880</v>
+      </c>
+      <c r="B486" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" t="s">
+        <v>568</v>
+      </c>
+      <c r="B487" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" t="s">
+        <v>21</v>
+      </c>
+      <c r="B488" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" t="s">
+        <v>881</v>
+      </c>
+      <c r="B489" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" t="s">
+        <v>19</v>
+      </c>
+      <c r="B490" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" t="s">
+        <v>592</v>
+      </c>
+      <c r="B492" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" t="s">
+        <v>637</v>
+      </c>
+      <c r="B493" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" t="s">
+        <v>974</v>
+      </c>
+      <c r="B494" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B495" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" t="s">
+        <v>922</v>
+      </c>
+      <c r="B496" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" t="s">
+        <v>681</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B499" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" t="s">
+        <v>923</v>
+      </c>
+      <c r="B501" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B502" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" t="s">
+        <v>975</v>
+      </c>
+      <c r="B503" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B504" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" t="s">
+        <v>802</v>
+      </c>
+      <c r="B505" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" t="s">
+        <v>660</v>
+      </c>
+      <c r="B506" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" t="s">
+        <v>882</v>
+      </c>
+      <c r="B507" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" t="s">
+        <v>344</v>
+      </c>
+      <c r="B508" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B509" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" t="s">
+        <v>13</v>
+      </c>
+      <c r="B510" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" t="s">
+        <v>570</v>
+      </c>
+      <c r="B511" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B512" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B513" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" t="s">
+        <v>10</v>
+      </c>
+      <c r="B515" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" t="s">
+        <v>6</v>
+      </c>
+      <c r="B516" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" t="s">
+        <v>4</v>
+      </c>
+      <c r="B517" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B518" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" t="s">
+        <v>976</v>
+      </c>
+      <c r="B519" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" t="s">
+        <v>955</v>
+      </c>
+      <c r="B520" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B522" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" t="s">
+        <v>290</v>
+      </c>
+      <c r="B523" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B524" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" t="s">
+        <v>884</v>
+      </c>
+      <c r="B525" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" t="s">
+        <v>0</v>
+      </c>
+      <c r="B526" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B527" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" t="s">
+        <v>924</v>
+      </c>
+      <c r="B529" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" t="s">
+        <v>528</v>
+      </c>
+      <c r="B530" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B531" xr:uid="{8EDD63D5-A3EB-4C6D-ABB6-6048262A8C1E}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFEB7C53-F7AB-49CB-A5D7-0AF827E69AD0}">
   <dimension ref="A1:C531"/>
   <sheetViews>
-    <sheetView topLeftCell="A503" workbookViewId="0">
-      <selection activeCell="B508" sqref="B508"/>
+    <sheetView topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="A210" sqref="A210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -16070,4274 +20458,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C531" xr:uid="{8EDD63D5-A3EB-4C6D-ABB6-6048262A8C1E}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFEB7C53-F7AB-49CB-A5D7-0AF827E69AD0}">
-  <dimension ref="A1:B531"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A503" workbookViewId="0">
-      <selection activeCell="B516" sqref="B516"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="39.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>384</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>555</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>957</v>
-      </c>
-      <c r="B5" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>820</v>
-      </c>
-      <c r="B8" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>990</v>
-      </c>
-      <c r="B9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B10" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>229</v>
-      </c>
-      <c r="B11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>821</v>
-      </c>
-      <c r="B12" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>228</v>
-      </c>
-      <c r="B13" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B14" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>978</v>
-      </c>
-      <c r="B15" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B16" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>226</v>
-      </c>
-      <c r="B19" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>696</v>
-      </c>
-      <c r="B20" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>224</v>
-      </c>
-      <c r="B21" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>958</v>
-      </c>
-      <c r="B22" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>925</v>
-      </c>
-      <c r="B23" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>338</v>
-      </c>
-      <c r="B24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>886</v>
-      </c>
-      <c r="B26" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>822</v>
-      </c>
-      <c r="B27" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B28" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>926</v>
-      </c>
-      <c r="B29" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>220</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>959</v>
-      </c>
-      <c r="B36" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>218</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>216</v>
-      </c>
-      <c r="B38" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>711</v>
-      </c>
-      <c r="B40" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B42" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>824</v>
-      </c>
-      <c r="B43" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>927</v>
-      </c>
-      <c r="B45" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>991</v>
-      </c>
-      <c r="B46" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>992</v>
-      </c>
-      <c r="B47" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>211</v>
-      </c>
-      <c r="B51" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B52" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>993</v>
-      </c>
-      <c r="B53" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B54" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>209</v>
-      </c>
-      <c r="B55" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>887</v>
-      </c>
-      <c r="B56" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B57" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>208</v>
-      </c>
-      <c r="B58" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>928</v>
-      </c>
-      <c r="B59" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>929</v>
-      </c>
-      <c r="B61" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B62" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>605</v>
-      </c>
-      <c r="B64" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B65" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>930</v>
-      </c>
-      <c r="B66" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>378</v>
-      </c>
-      <c r="B67" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B70" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>686</v>
-      </c>
-      <c r="B71" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>630</v>
-      </c>
-      <c r="B72" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>979</v>
-      </c>
-      <c r="B73" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>204</v>
-      </c>
-      <c r="B74" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>335</v>
-      </c>
-      <c r="B75" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>888</v>
-      </c>
-      <c r="B76" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B77" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>825</v>
-      </c>
-      <c r="B78" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B79" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>904</v>
-      </c>
-      <c r="B80" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B81" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>905</v>
-      </c>
-      <c r="B82" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>889</v>
-      </c>
-      <c r="B83" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>931</v>
-      </c>
-      <c r="B84" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>826</v>
-      </c>
-      <c r="B85" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>827</v>
-      </c>
-      <c r="B86" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>828</v>
-      </c>
-      <c r="B87" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>932</v>
-      </c>
-      <c r="B88" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B89" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>829</v>
-      </c>
-      <c r="B90" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>649</v>
-      </c>
-      <c r="B91" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>594</v>
-      </c>
-      <c r="B92" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>890</v>
-      </c>
-      <c r="B93" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>639</v>
-      </c>
-      <c r="B94" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B95" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>198</v>
-      </c>
-      <c r="B96" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>906</v>
-      </c>
-      <c r="B97" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>960</v>
-      </c>
-      <c r="B98" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B99" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>282</v>
-      </c>
-      <c r="B100" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B101" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>192</v>
-      </c>
-      <c r="B102" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B103" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>830</v>
-      </c>
-      <c r="B104" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B105" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>907</v>
-      </c>
-      <c r="B106" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B107" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>640</v>
-      </c>
-      <c r="B108" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>189</v>
-      </c>
-      <c r="B109" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B110" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>933</v>
-      </c>
-      <c r="B111" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>980</v>
-      </c>
-      <c r="B113" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>831</v>
-      </c>
-      <c r="B114" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>885</v>
-      </c>
-      <c r="B115" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>981</v>
-      </c>
-      <c r="B116" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B117" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>832</v>
-      </c>
-      <c r="B118" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>908</v>
-      </c>
-      <c r="B119" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>994</v>
-      </c>
-      <c r="B120" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B121" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B122" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B123" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>333</v>
-      </c>
-      <c r="B124" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>934</v>
-      </c>
-      <c r="B125" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B126" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B127" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B128" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B129" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B130" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B131" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B132" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B133" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
-        <v>995</v>
-      </c>
-      <c r="B134" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B135" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
-        <v>176</v>
-      </c>
-      <c r="B136" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
-        <v>834</v>
-      </c>
-      <c r="B137" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
-        <v>835</v>
-      </c>
-      <c r="B138" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
-        <v>909</v>
-      </c>
-      <c r="B139" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B140" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B141" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
-        <v>936</v>
-      </c>
-      <c r="B142" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B143" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B144" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
-        <v>935</v>
-      </c>
-      <c r="B145" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
-        <v>174</v>
-      </c>
-      <c r="B146" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B147" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B148" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
-        <v>996</v>
-      </c>
-      <c r="B149" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B150" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B151" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
-        <v>171</v>
-      </c>
-      <c r="B152" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B153" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="s">
-        <v>170</v>
-      </c>
-      <c r="B154" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B155" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
-        <v>910</v>
-      </c>
-      <c r="B156" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
-        <v>166</v>
-      </c>
-      <c r="B157" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
-        <v>615</v>
-      </c>
-      <c r="B158" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
-        <v>536</v>
-      </c>
-      <c r="B159" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="s">
-        <v>961</v>
-      </c>
-      <c r="B160" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="s">
-        <v>165</v>
-      </c>
-      <c r="B161" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" t="s">
-        <v>962</v>
-      </c>
-      <c r="B162" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="s">
-        <v>836</v>
-      </c>
-      <c r="B163" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" t="s">
-        <v>837</v>
-      </c>
-      <c r="B164" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B165" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" t="s">
-        <v>161</v>
-      </c>
-      <c r="B166" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" t="s">
-        <v>160</v>
-      </c>
-      <c r="B167" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" t="s">
-        <v>891</v>
-      </c>
-      <c r="B168" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" t="s">
-        <v>937</v>
-      </c>
-      <c r="B169" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" t="s">
-        <v>838</v>
-      </c>
-      <c r="B170" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" t="s">
-        <v>982</v>
-      </c>
-      <c r="B171" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" t="s">
-        <v>892</v>
-      </c>
-      <c r="B172" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B173" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" t="s">
-        <v>963</v>
-      </c>
-      <c r="B174" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" t="s">
-        <v>839</v>
-      </c>
-      <c r="B175" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B176" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" t="s">
-        <v>469</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B178" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B179" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" t="s">
-        <v>840</v>
-      </c>
-      <c r="B180" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" t="s">
-        <v>154</v>
-      </c>
-      <c r="B181" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" t="s">
-        <v>938</v>
-      </c>
-      <c r="B182" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" t="s">
-        <v>625</v>
-      </c>
-      <c r="B183" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B184" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" t="s">
-        <v>893</v>
-      </c>
-      <c r="B185" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" t="s">
-        <v>939</v>
-      </c>
-      <c r="B186" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B187" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" t="s">
-        <v>809</v>
-      </c>
-      <c r="B188" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" t="s">
-        <v>149</v>
-      </c>
-      <c r="B189" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B190" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" t="s">
-        <v>699</v>
-      </c>
-      <c r="B191" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" t="s">
-        <v>964</v>
-      </c>
-      <c r="B192" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" t="s">
-        <v>841</v>
-      </c>
-      <c r="B193" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" t="s">
-        <v>842</v>
-      </c>
-      <c r="B194" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" t="s">
-        <v>417</v>
-      </c>
-      <c r="B195" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" t="s">
-        <v>144</v>
-      </c>
-      <c r="B196" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" t="s">
-        <v>143</v>
-      </c>
-      <c r="B197" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B198" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" t="s">
-        <v>894</v>
-      </c>
-      <c r="B199" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B200" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" t="s">
-        <v>895</v>
-      </c>
-      <c r="B201" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" t="s">
-        <v>713</v>
-      </c>
-      <c r="B202" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" t="s">
-        <v>714</v>
-      </c>
-      <c r="B203" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" t="s">
-        <v>843</v>
-      </c>
-      <c r="B204" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" t="s">
-        <v>140</v>
-      </c>
-      <c r="B205" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B206" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" t="s">
-        <v>844</v>
-      </c>
-      <c r="B207" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" t="s">
-        <v>997</v>
-      </c>
-      <c r="B208" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B209" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B210" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" t="s">
-        <v>845</v>
-      </c>
-      <c r="B211" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" t="s">
-        <v>274</v>
-      </c>
-      <c r="B212" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" t="s">
-        <v>135</v>
-      </c>
-      <c r="B213" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" t="s">
-        <v>983</v>
-      </c>
-      <c r="B214" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" t="s">
-        <v>846</v>
-      </c>
-      <c r="B215" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B216" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" t="s">
-        <v>132</v>
-      </c>
-      <c r="B217" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" t="s">
-        <v>911</v>
-      </c>
-      <c r="B218" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" t="s">
-        <v>847</v>
-      </c>
-      <c r="B219" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" t="s">
-        <v>984</v>
-      </c>
-      <c r="B220" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B221" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B222" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" t="s">
-        <v>131</v>
-      </c>
-      <c r="B223" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" t="s">
-        <v>656</v>
-      </c>
-      <c r="B224" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" t="s">
-        <v>129</v>
-      </c>
-      <c r="B225" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B226" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B227" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B228" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B229" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B230" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" t="s">
-        <v>912</v>
-      </c>
-      <c r="B231" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B232" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B233" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B234" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" t="s">
-        <v>977</v>
-      </c>
-      <c r="B235" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B236" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B237" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" t="s">
-        <v>307</v>
-      </c>
-      <c r="B238" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" t="s">
-        <v>940</v>
-      </c>
-      <c r="B239" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" t="s">
-        <v>121</v>
-      </c>
-      <c r="B240" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" t="s">
-        <v>120</v>
-      </c>
-      <c r="B241" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" t="s">
-        <v>810</v>
-      </c>
-      <c r="B242" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B243" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" t="s">
-        <v>811</v>
-      </c>
-      <c r="B244" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B245" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B246" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247" t="s">
-        <v>848</v>
-      </c>
-      <c r="B247" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B248" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249" t="s">
-        <v>118</v>
-      </c>
-      <c r="B249" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B250" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B251" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" t="s">
-        <v>849</v>
-      </c>
-      <c r="B252" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253" t="s">
-        <v>117</v>
-      </c>
-      <c r="B253" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" t="s">
-        <v>116</v>
-      </c>
-      <c r="B254" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255" t="s">
-        <v>115</v>
-      </c>
-      <c r="B255" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256" t="s">
-        <v>812</v>
-      </c>
-      <c r="B256" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" t="s">
-        <v>813</v>
-      </c>
-      <c r="B257" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" t="s">
-        <v>896</v>
-      </c>
-      <c r="B258" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" t="s">
-        <v>999</v>
-      </c>
-      <c r="B259" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B260" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" t="s">
-        <v>657</v>
-      </c>
-      <c r="B261" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B262" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" t="s">
-        <v>413</v>
-      </c>
-      <c r="B263" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" t="s">
-        <v>112</v>
-      </c>
-      <c r="B264" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B265" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B266" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" t="s">
-        <v>850</v>
-      </c>
-      <c r="B267" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" t="s">
-        <v>851</v>
-      </c>
-      <c r="B268" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" t="s">
-        <v>108</v>
-      </c>
-      <c r="B269" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B270" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271" t="s">
-        <v>107</v>
-      </c>
-      <c r="B271" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" t="s">
-        <v>852</v>
-      </c>
-      <c r="B272" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" t="s">
-        <v>941</v>
-      </c>
-      <c r="B273" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" t="s">
-        <v>853</v>
-      </c>
-      <c r="B274" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275" t="s">
-        <v>942</v>
-      </c>
-      <c r="B275" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" t="s">
-        <v>305</v>
-      </c>
-      <c r="B276" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" t="s">
-        <v>854</v>
-      </c>
-      <c r="B277" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" t="s">
-        <v>985</v>
-      </c>
-      <c r="B278" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B279" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B280" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" t="s">
-        <v>814</v>
-      </c>
-      <c r="B281" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
-      <c r="A282" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B282" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B283" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
-      <c r="A284" t="s">
-        <v>329</v>
-      </c>
-      <c r="B284" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
-      <c r="A285" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B285" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
-      <c r="A286" t="s">
-        <v>855</v>
-      </c>
-      <c r="B286" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B287" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="A288" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B288" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
-      <c r="A289" t="s">
-        <v>100</v>
-      </c>
-      <c r="B289" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
-      <c r="A290" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B290" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
-      <c r="A291" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B291" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
-      <c r="A292" t="s">
-        <v>99</v>
-      </c>
-      <c r="B292" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
-      <c r="A293" t="s">
-        <v>815</v>
-      </c>
-      <c r="B293" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
-      <c r="A294" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B294" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
-      <c r="A295" t="s">
-        <v>965</v>
-      </c>
-      <c r="B295" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
-      <c r="A296" t="s">
-        <v>98</v>
-      </c>
-      <c r="B296" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
-      <c r="A297" t="s">
-        <v>412</v>
-      </c>
-      <c r="B297" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2">
-      <c r="A298" t="s">
-        <v>856</v>
-      </c>
-      <c r="B298" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
-      <c r="A299" t="s">
-        <v>762</v>
-      </c>
-      <c r="B299" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
-      <c r="A300" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B300" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
-      <c r="A301" t="s">
-        <v>857</v>
-      </c>
-      <c r="B301" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
-      <c r="A302" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B302" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2">
-      <c r="A303" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B303" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2">
-      <c r="A304" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B304" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2">
-      <c r="A305" t="s">
-        <v>943</v>
-      </c>
-      <c r="B305" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2">
-      <c r="A306" t="s">
-        <v>966</v>
-      </c>
-      <c r="B306" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
-      <c r="A307" t="s">
-        <v>986</v>
-      </c>
-      <c r="B307" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2">
-      <c r="A308" t="s">
-        <v>897</v>
-      </c>
-      <c r="B308" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2">
-      <c r="A309" t="s">
-        <v>858</v>
-      </c>
-      <c r="B309" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2">
-      <c r="A310" t="s">
-        <v>859</v>
-      </c>
-      <c r="B310" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2">
-      <c r="A311" t="s">
-        <v>898</v>
-      </c>
-      <c r="B311" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2">
-      <c r="A312" t="s">
-        <v>860</v>
-      </c>
-      <c r="B312" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2">
-      <c r="A313" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B313" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2">
-      <c r="A314" t="s">
-        <v>913</v>
-      </c>
-      <c r="B314" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2">
-      <c r="A315" t="s">
-        <v>861</v>
-      </c>
-      <c r="B315" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2">
-      <c r="A316" t="s">
-        <v>914</v>
-      </c>
-      <c r="B316" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2">
-      <c r="A317" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B317" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
-      <c r="A318" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B318" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2">
-      <c r="A319" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B319" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2">
-      <c r="A320" t="s">
-        <v>83</v>
-      </c>
-      <c r="B320" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2">
-      <c r="A321" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B321" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2">
-      <c r="A322" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B322" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2">
-      <c r="A323" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B323" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2">
-      <c r="A324" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B324" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2">
-      <c r="A325" t="s">
-        <v>915</v>
-      </c>
-      <c r="B325" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2">
-      <c r="A326" t="s">
-        <v>772</v>
-      </c>
-      <c r="B326" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2">
-      <c r="A327" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B327" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2">
-      <c r="A328" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B328" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2">
-      <c r="A329" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B329" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2">
-      <c r="A330" t="s">
-        <v>899</v>
-      </c>
-      <c r="B330" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2">
-      <c r="A331" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B331" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2">
-      <c r="A332" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B332" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2">
-      <c r="A333" t="s">
-        <v>80</v>
-      </c>
-      <c r="B333" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2">
-      <c r="A334" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B334" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2">
-      <c r="A335" t="s">
-        <v>862</v>
-      </c>
-      <c r="B335" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2">
-      <c r="A336" t="s">
-        <v>944</v>
-      </c>
-      <c r="B336" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2">
-      <c r="A337" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B337" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2">
-      <c r="A338" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B338" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2">
-      <c r="A339" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B339" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2">
-      <c r="A340" t="s">
-        <v>863</v>
-      </c>
-      <c r="B340" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2">
-      <c r="A341" t="s">
-        <v>967</v>
-      </c>
-      <c r="B341" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2">
-      <c r="A342" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B342" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2">
-      <c r="A343" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B343" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2">
-      <c r="A344" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B344" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2">
-      <c r="A345" t="s">
-        <v>864</v>
-      </c>
-      <c r="B345" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2">
-      <c r="A346" t="s">
-        <v>945</v>
-      </c>
-      <c r="B346" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2">
-      <c r="A347" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B347" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2">
-      <c r="A348" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B348" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2">
-      <c r="A349" t="s">
-        <v>946</v>
-      </c>
-      <c r="B349" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2">
-      <c r="A350" t="s">
-        <v>513</v>
-      </c>
-      <c r="B350" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2">
-      <c r="A351" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B351" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2">
-      <c r="A352" t="s">
-        <v>987</v>
-      </c>
-      <c r="B352" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2">
-      <c r="A353" t="s">
-        <v>260</v>
-      </c>
-      <c r="B353" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2">
-      <c r="A354" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B354" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2">
-      <c r="A355" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B355" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2">
-      <c r="A356" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B356" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2">
-      <c r="A357" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B357" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2">
-      <c r="A358" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B358" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2">
-      <c r="A359" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B359" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2">
-      <c r="A360" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B360" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2">
-      <c r="A361" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B361" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2">
-      <c r="A362" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B362" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2">
-      <c r="A363" t="s">
-        <v>72</v>
-      </c>
-      <c r="B363" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2">
-      <c r="A364" t="s">
-        <v>947</v>
-      </c>
-      <c r="B364" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2">
-      <c r="A365" t="s">
-        <v>865</v>
-      </c>
-      <c r="B365" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2">
-      <c r="A366" t="s">
-        <v>865</v>
-      </c>
-      <c r="B366" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2">
-      <c r="A367" t="s">
-        <v>867</v>
-      </c>
-      <c r="B367" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2">
-      <c r="A368" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B368" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2">
-      <c r="A369" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B369" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2">
-      <c r="A370" t="s">
-        <v>512</v>
-      </c>
-      <c r="B370" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2">
-      <c r="A371" t="s">
-        <v>916</v>
-      </c>
-      <c r="B371" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2">
-      <c r="A372" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B372" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2">
-      <c r="A373" t="s">
-        <v>68</v>
-      </c>
-      <c r="B373" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2">
-      <c r="A374" t="s">
-        <v>968</v>
-      </c>
-      <c r="B374" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2">
-      <c r="A375" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B375" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2">
-      <c r="A376" t="s">
-        <v>65</v>
-      </c>
-      <c r="B376" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2">
-      <c r="A377" t="s">
-        <v>816</v>
-      </c>
-      <c r="B377" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2">
-      <c r="A378" t="s">
-        <v>868</v>
-      </c>
-      <c r="B378" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2">
-      <c r="A379" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B379" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2">
-      <c r="A380" t="s">
-        <v>778</v>
-      </c>
-      <c r="B380" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2">
-      <c r="A381" t="s">
-        <v>573</v>
-      </c>
-      <c r="B381" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2">
-      <c r="A382" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B382" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2">
-      <c r="A383" t="s">
-        <v>869</v>
-      </c>
-      <c r="B383" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2">
-      <c r="A384" t="s">
-        <v>256</v>
-      </c>
-      <c r="B384" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2">
-      <c r="A385" t="s">
-        <v>779</v>
-      </c>
-      <c r="B385" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2">
-      <c r="A386" t="s">
-        <v>63</v>
-      </c>
-      <c r="B386" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2">
-      <c r="A387" t="s">
-        <v>917</v>
-      </c>
-      <c r="B387" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2">
-      <c r="A388" t="s">
-        <v>918</v>
-      </c>
-      <c r="B388" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2">
-      <c r="A389" t="s">
-        <v>62</v>
-      </c>
-      <c r="B389" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2">
-      <c r="A390" t="s">
-        <v>969</v>
-      </c>
-      <c r="B390" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2">
-      <c r="A391" t="s">
-        <v>870</v>
-      </c>
-      <c r="B391" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2">
-      <c r="A392" t="s">
-        <v>61</v>
-      </c>
-      <c r="B392" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2">
-      <c r="A393" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B393" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2">
-      <c r="A394" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B394" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2">
-      <c r="A395" t="s">
-        <v>300</v>
-      </c>
-      <c r="B395" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2">
-      <c r="A396" t="s">
-        <v>452</v>
-      </c>
-      <c r="B396" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2">
-      <c r="A397" t="s">
-        <v>970</v>
-      </c>
-      <c r="B397" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2">
-      <c r="A398" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B398" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2">
-      <c r="A399" t="s">
-        <v>57</v>
-      </c>
-      <c r="B399" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2">
-      <c r="A400" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B400" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2">
-      <c r="A401" t="s">
-        <v>817</v>
-      </c>
-      <c r="B401" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2">
-      <c r="A402" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B402" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2">
-      <c r="A403" t="s">
-        <v>919</v>
-      </c>
-      <c r="B403" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2">
-      <c r="A404" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B404" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2">
-      <c r="A405" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B405" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2">
-      <c r="A406" t="s">
-        <v>900</v>
-      </c>
-      <c r="B406" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2">
-      <c r="A407" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B407" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2">
-      <c r="A408" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B408" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2">
-      <c r="A409" t="s">
-        <v>901</v>
-      </c>
-      <c r="B409" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2">
-      <c r="A410" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B410" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2">
-      <c r="A411" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B411" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2">
-      <c r="A412" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B412" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2">
-      <c r="A413" t="s">
-        <v>948</v>
-      </c>
-      <c r="B413" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2">
-      <c r="A414" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B414" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2">
-      <c r="A415" t="s">
-        <v>787</v>
-      </c>
-      <c r="B415" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2">
-      <c r="A416" t="s">
-        <v>356</v>
-      </c>
-      <c r="B416" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2">
-      <c r="A417" t="s">
-        <v>971</v>
-      </c>
-      <c r="B417" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2">
-      <c r="A418" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B418" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2">
-      <c r="A419" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B419" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2">
-      <c r="A420" t="s">
-        <v>871</v>
-      </c>
-      <c r="B420" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2">
-      <c r="A421" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B421" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2">
-      <c r="A422" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B422" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2">
-      <c r="A423" t="s">
-        <v>949</v>
-      </c>
-      <c r="B423" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2">
-      <c r="A424" t="s">
-        <v>872</v>
-      </c>
-      <c r="B424" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2">
-      <c r="A425" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B425" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2">
-      <c r="A426" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B426" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2">
-      <c r="A427" t="s">
-        <v>920</v>
-      </c>
-      <c r="B427" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2">
-      <c r="A428" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B428" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2">
-      <c r="A429" t="s">
-        <v>902</v>
-      </c>
-      <c r="B429" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2">
-      <c r="A430" t="s">
-        <v>988</v>
-      </c>
-      <c r="B430" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2">
-      <c r="A431" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B431" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2">
-      <c r="A432" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B432" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2">
-      <c r="A433" t="s">
-        <v>950</v>
-      </c>
-      <c r="B433" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2">
-      <c r="A434" t="s">
-        <v>44</v>
-      </c>
-      <c r="B434" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2">
-      <c r="A435" t="s">
-        <v>873</v>
-      </c>
-      <c r="B435" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2">
-      <c r="A436" t="s">
-        <v>874</v>
-      </c>
-      <c r="B436" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2">
-      <c r="A437" t="s">
-        <v>620</v>
-      </c>
-      <c r="B437" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2">
-      <c r="A438" t="s">
-        <v>875</v>
-      </c>
-      <c r="B438" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2">
-      <c r="A439" t="s">
-        <v>598</v>
-      </c>
-      <c r="B439" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2">
-      <c r="A440" t="s">
-        <v>876</v>
-      </c>
-      <c r="B440" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2">
-      <c r="A441" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B441" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2">
-      <c r="A442" t="s">
-        <v>903</v>
-      </c>
-      <c r="B442" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2">
-      <c r="A443" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B443" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2">
-      <c r="A444" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B444" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2">
-      <c r="A445" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B445" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2">
-      <c r="A446" t="s">
-        <v>877</v>
-      </c>
-      <c r="B446" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2">
-      <c r="A447" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B447" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2">
-      <c r="A448" t="s">
-        <v>354</v>
-      </c>
-      <c r="B448" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2">
-      <c r="A449" t="s">
-        <v>774</v>
-      </c>
-      <c r="B449" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2">
-      <c r="A450" t="s">
-        <v>353</v>
-      </c>
-      <c r="B450" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2">
-      <c r="A451" t="s">
-        <v>921</v>
-      </c>
-      <c r="B451" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2">
-      <c r="A452" t="s">
-        <v>20</v>
-      </c>
-      <c r="B452" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2">
-      <c r="A453" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B453" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2">
-      <c r="A454" t="s">
-        <v>35</v>
-      </c>
-      <c r="B454" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2">
-      <c r="A455" t="s">
-        <v>951</v>
-      </c>
-      <c r="B455" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2">
-      <c r="A456" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B456" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2">
-      <c r="A457" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B457" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2">
-      <c r="A458" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B458" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2">
-      <c r="A459" t="s">
-        <v>31</v>
-      </c>
-      <c r="B459" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2">
-      <c r="A460" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B460" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2">
-      <c r="A461" t="s">
-        <v>796</v>
-      </c>
-      <c r="B461" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2">
-      <c r="A462" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B462" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2">
-      <c r="A463" t="s">
-        <v>447</v>
-      </c>
-      <c r="B463" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2">
-      <c r="A464" t="s">
-        <v>643</v>
-      </c>
-      <c r="B464" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2">
-      <c r="A465" t="s">
-        <v>952</v>
-      </c>
-      <c r="B465" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2">
-      <c r="A466" t="s">
-        <v>953</v>
-      </c>
-      <c r="B466" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2">
-      <c r="A467" t="s">
-        <v>27</v>
-      </c>
-      <c r="B467" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2">
-      <c r="A468" t="s">
-        <v>818</v>
-      </c>
-      <c r="B468" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2">
-      <c r="A469" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B469" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2">
-      <c r="A470" t="s">
-        <v>800</v>
-      </c>
-      <c r="B470" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2">
-      <c r="A471" t="s">
-        <v>25</v>
-      </c>
-      <c r="B471" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2">
-      <c r="A472" t="s">
-        <v>25</v>
-      </c>
-      <c r="B472" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2">
-      <c r="A473" t="s">
-        <v>246</v>
-      </c>
-      <c r="B473" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2">
-      <c r="A474" t="s">
-        <v>878</v>
-      </c>
-      <c r="B474" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2">
-      <c r="A475" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B475" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2">
-      <c r="A476" t="s">
-        <v>972</v>
-      </c>
-      <c r="B476" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2">
-      <c r="A477" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B477" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2">
-      <c r="A478" t="s">
-        <v>954</v>
-      </c>
-      <c r="B478" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2">
-      <c r="A479" t="s">
-        <v>973</v>
-      </c>
-      <c r="B479" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2">
-      <c r="A480" t="s">
-        <v>989</v>
-      </c>
-      <c r="B480" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2">
-      <c r="A481" t="s">
-        <v>879</v>
-      </c>
-      <c r="B481" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2">
-      <c r="A482" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B482" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2">
-      <c r="A483" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B483" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2">
-      <c r="A484" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B484" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2">
-      <c r="A485" t="s">
-        <v>405</v>
-      </c>
-      <c r="B485" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2">
-      <c r="A486" t="s">
-        <v>880</v>
-      </c>
-      <c r="B486" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2">
-      <c r="A487" t="s">
-        <v>568</v>
-      </c>
-      <c r="B487" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2">
-      <c r="A488" t="s">
-        <v>21</v>
-      </c>
-      <c r="B488" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2">
-      <c r="A489" t="s">
-        <v>881</v>
-      </c>
-      <c r="B489" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2">
-      <c r="A490" t="s">
-        <v>19</v>
-      </c>
-      <c r="B490" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2">
-      <c r="A491" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B491" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2">
-      <c r="A492" t="s">
-        <v>592</v>
-      </c>
-      <c r="B492" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2">
-      <c r="A493" t="s">
-        <v>637</v>
-      </c>
-      <c r="B493" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2">
-      <c r="A494" t="s">
-        <v>974</v>
-      </c>
-      <c r="B494" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2">
-      <c r="A495" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B495" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2">
-      <c r="A496" t="s">
-        <v>922</v>
-      </c>
-      <c r="B496" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2">
-      <c r="A497" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B497" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2">
-      <c r="A498" t="s">
-        <v>681</v>
-      </c>
-      <c r="B498" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2">
-      <c r="A499" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B499" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2">
-      <c r="A500" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B500" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2">
-      <c r="A501" t="s">
-        <v>923</v>
-      </c>
-      <c r="B501" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2">
-      <c r="A502" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B502" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2">
-      <c r="A503" t="s">
-        <v>975</v>
-      </c>
-      <c r="B503" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2">
-      <c r="A504" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B504" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2">
-      <c r="A505" t="s">
-        <v>802</v>
-      </c>
-      <c r="B505" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2">
-      <c r="A506" t="s">
-        <v>660</v>
-      </c>
-      <c r="B506" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2">
-      <c r="A507" t="s">
-        <v>882</v>
-      </c>
-      <c r="B507" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2">
-      <c r="A508" t="s">
-        <v>344</v>
-      </c>
-      <c r="B508" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2">
-      <c r="A509" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B509" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2">
-      <c r="A510" t="s">
-        <v>13</v>
-      </c>
-      <c r="B510" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2">
-      <c r="A511" t="s">
-        <v>570</v>
-      </c>
-      <c r="B511" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2">
-      <c r="A512" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B512" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2">
-      <c r="A513" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B513" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2">
-      <c r="A514" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B514" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2">
-      <c r="A515" t="s">
-        <v>10</v>
-      </c>
-      <c r="B515" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2">
-      <c r="A516" t="s">
-        <v>6</v>
-      </c>
-      <c r="B516" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2">
-      <c r="A517" t="s">
-        <v>4</v>
-      </c>
-      <c r="B517" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2">
-      <c r="A518" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B518" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2">
-      <c r="A519" t="s">
-        <v>976</v>
-      </c>
-      <c r="B519" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2">
-      <c r="A520" t="s">
-        <v>955</v>
-      </c>
-      <c r="B520" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2">
-      <c r="A521" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B521" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2">
-      <c r="A522" t="s">
-        <v>883</v>
-      </c>
-      <c r="B522" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2">
-      <c r="A523" t="s">
-        <v>290</v>
-      </c>
-      <c r="B523" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2">
-      <c r="A524" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B524" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2">
-      <c r="A525" t="s">
-        <v>884</v>
-      </c>
-      <c r="B525" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2">
-      <c r="A526" t="s">
-        <v>0</v>
-      </c>
-      <c r="B526" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2">
-      <c r="A527" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B527" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2">
-      <c r="A528" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B528" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2">
-      <c r="A529" t="s">
-        <v>924</v>
-      </c>
-      <c r="B529" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2">
-      <c r="A530" t="s">
-        <v>528</v>
-      </c>
-      <c r="B530" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2">
-      <c r="A531" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B531" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B531" xr:uid="{8EDD63D5-A3EB-4C6D-ABB6-6048262A8C1E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/counties_towns.xlsx
+++ b/counties_towns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WesleyOke_apuylaw\Google Drive\Share\School\Waterloo\Statistics\ds2_project\election_2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEADA33-1FDA-487B-A445-B024BE999D81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090C2952-E7B3-4C21-9EB7-05E06799357D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17240" yWindow="2850" windowWidth="19960" windowHeight="12700" activeTab="3" xr2:uid="{1CE7BFA9-C5EC-4750-BE10-2D699AFF6846}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4669" uniqueCount="1253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4685" uniqueCount="1264">
   <si>
     <t>Woodstock</t>
   </si>
@@ -3693,9 +3693,6 @@
     <t>Carroll Plt.</t>
   </si>
   <si>
-    <t>Central Aroostook (incl. Oxbow Plt.)</t>
-  </si>
-  <si>
     <t>Codyville Plt.</t>
   </si>
   <si>
@@ -3765,9 +3762,6 @@
     <t>Seboeis Plt.</t>
   </si>
   <si>
-    <t>South Aroostook (incl. Cary Plt.)</t>
-  </si>
-  <si>
     <t>St. John Plt.</t>
   </si>
   <si>
@@ -3789,9 +3783,6 @@
     <t>LaGrange</t>
   </si>
   <si>
-    <t>Old Orchard Bch</t>
-  </si>
-  <si>
     <t>Owl's Head</t>
   </si>
   <si>
@@ -3802,6 +3793,48 @@
   </si>
   <si>
     <t>Saint Agatha</t>
+  </si>
+  <si>
+    <t>Cary Plt.</t>
+  </si>
+  <si>
+    <t>Isle Au Haut</t>
+  </si>
+  <si>
+    <t>Old Orchrd Bch</t>
+  </si>
+  <si>
+    <t>Oxbow Plt.</t>
+  </si>
+  <si>
+    <t>Indian Township Vtng Dst</t>
+  </si>
+  <si>
+    <t>Pleasant Point Votng Dst</t>
+  </si>
+  <si>
+    <t>Aroostook Cty Townships</t>
+  </si>
+  <si>
+    <t>Franklin Cty Townships</t>
+  </si>
+  <si>
+    <t>Hancock Cty Townships</t>
+  </si>
+  <si>
+    <t>Oxford Cty Townships</t>
+  </si>
+  <si>
+    <t>Penobscot Cty Townships</t>
+  </si>
+  <si>
+    <t>Piscataquis Cty Townships</t>
+  </si>
+  <si>
+    <t>Somerset Cty Townships</t>
+  </si>
+  <si>
+    <t>Washington Cty Townships</t>
   </si>
 </sst>
 </file>
@@ -10334,10 +10367,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A36454-2C03-4177-B871-36FBD533C74E}">
-  <dimension ref="A1:B531"/>
+  <dimension ref="A1:B539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="A436" sqref="A436"/>
+    <sheetView tabSelected="1" topLeftCell="A512" workbookViewId="0">
+      <selection activeCell="A540" sqref="A540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11036,7 +11069,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>1216</v>
+        <v>1253</v>
       </c>
       <c r="B87" t="s">
         <v>819</v>
@@ -11148,7 +11181,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B101" t="s">
         <v>19</v>
@@ -11188,7 +11221,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B106" t="s">
         <v>161</v>
@@ -11284,7 +11317,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B118" t="s">
         <v>819</v>
@@ -11292,7 +11325,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B119" t="s">
         <v>161</v>
@@ -11356,7 +11389,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B127" t="s">
         <v>482</v>
@@ -11420,7 +11453,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B135" t="s">
         <v>947</v>
@@ -11740,7 +11773,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B175" t="s">
         <v>819</v>
@@ -11780,7 +11813,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B180" t="s">
         <v>819</v>
@@ -11812,7 +11845,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B184" t="s">
         <v>19</v>
@@ -12012,7 +12045,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B209" t="s">
         <v>482</v>
@@ -12100,7 +12133,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>984</v>
+        <v>1251</v>
       </c>
       <c r="B220" t="s">
         <v>977</v>
@@ -12204,7 +12237,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B233" t="s">
         <v>1079</v>
@@ -12228,7 +12261,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B236" t="s">
         <v>947</v>
@@ -12236,7 +12269,7 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B237" t="s">
         <v>1079</v>
@@ -12340,7 +12373,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B250" t="s">
         <v>260</v>
@@ -12476,7 +12509,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B267" t="s">
         <v>819</v>
@@ -12500,7 +12533,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B270" t="s">
         <v>260</v>
@@ -12564,7 +12597,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B278" t="s">
         <v>977</v>
@@ -12692,7 +12725,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B294" t="s">
         <v>118</v>
@@ -12748,7 +12781,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B301" t="s">
         <v>819</v>
@@ -12812,7 +12845,7 @@
     </row>
     <row r="309" spans="1:2">
       <c r="A309" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B309" t="s">
         <v>819</v>
@@ -13084,7 +13117,7 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
-        <v>1248</v>
+        <v>1252</v>
       </c>
       <c r="B343" t="s">
         <v>1190</v>
@@ -13156,7 +13189,7 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="B352" t="s">
         <v>977</v>
@@ -13220,7 +13253,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>1179</v>
+        <v>1254</v>
       </c>
       <c r="B360" t="s">
         <v>19</v>
@@ -13228,7 +13261,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" t="s">
-        <v>1180</v>
+        <v>1255</v>
       </c>
       <c r="B361" t="s">
         <v>19</v>
@@ -13340,7 +13373,7 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B375" t="s">
         <v>482</v>
@@ -13444,7 +13477,7 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B388" t="s">
         <v>161</v>
@@ -13468,7 +13501,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B391" t="s">
         <v>819</v>
@@ -13564,7 +13597,7 @@
     </row>
     <row r="403" spans="1:2">
       <c r="A403" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B403" t="s">
         <v>161</v>
@@ -13628,7 +13661,7 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B411" t="s">
         <v>947</v>
@@ -13732,7 +13765,7 @@
     </row>
     <row r="424" spans="1:2">
       <c r="A424" t="s">
-        <v>1240</v>
+        <v>1250</v>
       </c>
       <c r="B424" t="s">
         <v>819</v>
@@ -13788,7 +13821,7 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>1095</v>
+        <v>225</v>
       </c>
       <c r="B431" t="s">
         <v>1079</v>
@@ -13828,7 +13861,7 @@
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="B436" t="s">
         <v>819</v>
@@ -13860,7 +13893,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B440" t="s">
         <v>819</v>
@@ -13980,7 +14013,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="B455" t="s">
         <v>144</v>
@@ -14020,7 +14053,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B460" t="s">
         <v>482</v>
@@ -14164,7 +14197,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="B478" t="s">
         <v>144</v>
@@ -14300,7 +14333,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B495" t="s">
         <v>947</v>
@@ -14356,7 +14389,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B502" t="s">
         <v>482</v>
@@ -14412,7 +14445,7 @@
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>1007</v>
+        <v>475</v>
       </c>
       <c r="B509" t="s">
         <v>118</v>
@@ -14516,7 +14549,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B522" t="s">
         <v>819</v>
@@ -14592,6 +14625,70 @@
       </c>
       <c r="B531" t="s">
         <v>1190</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B532" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B533" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B534" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B535" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B536" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B538" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B539" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/counties_towns.xlsx
+++ b/counties_towns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WesleyOke_apuylaw\Google Drive\Share\School\Waterloo\Statistics\ds2_project\election_2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03286896-A3B7-4524-82EE-B374ED393926}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E93EE19-9CFD-4249-A126-5C8622AFF83D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17920" yWindow="3530" windowWidth="19960" windowHeight="12700" activeTab="4" xr2:uid="{1CE7BFA9-C5EC-4750-BE10-2D699AFF6846}"/>
   </bookViews>
@@ -14606,7 +14606,7 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/counties_towns.xlsx
+++ b/counties_towns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WesleyOke_apuylaw\Google Drive\Share\School\Waterloo\Statistics\ds2_project\election_2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E311A83-BB74-4865-8F8A-20542E47FC64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D6414D-6E0C-4A40-AB46-C78C28DE201D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{1CE7BFA9-C5EC-4750-BE10-2D699AFF6846}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="1247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="1246">
   <si>
     <t>Woodstock</t>
   </si>
@@ -3732,9 +3732,6 @@
   </si>
   <si>
     <t>Lynn</t>
-  </si>
-  <si>
-    <t>Manchester-By-The-Sea</t>
   </si>
   <si>
     <t>Newburyport</t>
@@ -4181,7 +4178,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82465A7E-56F4-4792-BE17-D4693778CED2}">
   <dimension ref="A1:B352"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -4914,7 +4913,7 @@
         <v>418</v>
       </c>
       <c r="B91" t="s">
-        <v>1230</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -4970,7 +4969,7 @@
         <v>418</v>
       </c>
       <c r="B98" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -4986,7 +4985,7 @@
         <v>418</v>
       </c>
       <c r="B100" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5306,7 +5305,7 @@
         <v>379</v>
       </c>
       <c r="B140" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -5346,7 +5345,7 @@
         <v>379</v>
       </c>
       <c r="B145" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -5546,7 +5545,7 @@
         <v>364</v>
       </c>
       <c r="B170" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -5746,7 +5745,7 @@
         <v>330</v>
       </c>
       <c r="B195" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -5826,7 +5825,7 @@
         <v>330</v>
       </c>
       <c r="B205" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -5858,7 +5857,7 @@
         <v>330</v>
       </c>
       <c r="B209" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -6042,7 +6041,7 @@
         <v>330</v>
       </c>
       <c r="B232" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -6210,7 +6209,7 @@
         <v>308</v>
       </c>
       <c r="B253" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -6298,7 +6297,7 @@
         <v>287</v>
       </c>
       <c r="B264" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -6498,7 +6497,7 @@
         <v>285</v>
       </c>
       <c r="B289" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -6514,7 +6513,7 @@
         <v>285</v>
       </c>
       <c r="B291" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -6642,7 +6641,7 @@
         <v>236</v>
       </c>
       <c r="B307" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -6650,7 +6649,7 @@
         <v>236</v>
       </c>
       <c r="B308" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -6722,7 +6721,7 @@
         <v>236</v>
       </c>
       <c r="B317" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="318" spans="1:2">
